--- a/backtest_results/BTCUSDT_1_2018_12_2025_15min.xlsx
+++ b/backtest_results/BTCUSDT_1_2018_12_2025_15min.xlsx
@@ -614,10 +614,10 @@
         <v>1000</v>
       </c>
       <c r="E2" t="n">
-        <v>982.1660101728536</v>
+        <v>1042.485088512375</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.783398982714641</v>
+        <v>4.248508851237454</v>
       </c>
       <c r="G2" t="n">
         <v>-19.58510000000009</v>
@@ -626,60 +626,64 @@
         <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>2.775267342400445</v>
+        <v>11.1144852916448</v>
       </c>
       <c r="J2" t="n">
-        <v>4.507087710340191</v>
+        <v>2.189148569757333</v>
       </c>
       <c r="K2" s="3" t="n">
-        <v>14.05208333333333</v>
+        <v>8.958333333333334</v>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>-3.151830157441509</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>35.71428571428572</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.3363325227904534</v>
+        <v>4.933399328806157</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.6716593090294568</v>
-      </c>
-      <c r="S2" t="inlineStr"/>
+        <v>-1.17738789395191</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.669443502448029</v>
+      </c>
       <c r="T2" t="n">
-        <v>-0.4919213401374326</v>
-      </c>
-      <c r="U2" t="inlineStr"/>
+        <v>-0.4488322985838624</v>
+      </c>
+      <c r="U2" s="3" t="n">
+        <v>0.35</v>
+      </c>
       <c r="V2" s="3" t="n">
-        <v>0.4652777777777778</v>
+        <v>0.08449074074074074</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>2.041618680383334</v>
       </c>
       <c r="X2" t="n">
-        <v>-4.894053223234978</v>
+        <v>3.034649179455306</v>
       </c>
       <c r="Y2" t="n">
-        <v>-1.531696738262302</v>
+        <v>4.453252408756713</v>
       </c>
       <c r="Z2" t="n">
-        <v>-5.894329514319439</v>
+        <v>47.60196763793726</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.9209040328155591</v>
+        <v>1.315132569605626</v>
       </c>
       <c r="AB2" t="n">
-        <v>-2.382395325070882</v>
+        <v>10.44882081997845</v>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
@@ -712,10 +716,10 @@
         <v>1000</v>
       </c>
       <c r="E3" t="n">
-        <v>1135.838376081295</v>
+        <v>966.019036805055</v>
       </c>
       <c r="F3" t="n">
-        <v>13.58383760812946</v>
+        <v>-3.398096319494505</v>
       </c>
       <c r="G3" t="n">
         <v>11.52159274964168</v>
@@ -724,64 +728,64 @@
         <v>100</v>
       </c>
       <c r="I3" t="n">
-        <v>2.78248939530061</v>
+        <v>7.150885236655043</v>
       </c>
       <c r="J3" t="n">
-        <v>13.44218852353928</v>
+        <v>6.892846729866579</v>
       </c>
       <c r="K3" s="3" t="n">
-        <v>14.5</v>
+        <v>11.8125</v>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M3" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>152.8673016232029</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>33.33333333333333</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.4517770061915666</v>
+        <v>1.581954837926437</v>
       </c>
       <c r="R3" t="n">
-        <v>-1.695480184411597</v>
+        <v>-2.466098118897901</v>
       </c>
       <c r="S3" t="n">
-        <v>0.4517770061915666</v>
+        <v>0.9999013206960206</v>
       </c>
       <c r="T3" t="n">
-        <v>-1.076711100994662</v>
+        <v>-0.7721986119373242</v>
       </c>
       <c r="U3" s="3" t="n">
-        <v>6.03125</v>
+        <v>0.06770833333333333</v>
       </c>
       <c r="V3" s="3" t="n">
-        <v>0.046875</v>
+        <v>0.4821428571412037</v>
       </c>
       <c r="W3" t="n">
-        <v>0.2088480826883774</v>
+        <v>0.3670139674524338</v>
       </c>
       <c r="X3" t="n">
-        <v>-5.676308513969445</v>
+        <v>-3.775662577216113</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.668180256173714</v>
+        <v>-1.345921113258386</v>
       </c>
       <c r="Z3" t="n">
-        <v>27.58058590300545</v>
+        <v>-4.980038128253867</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.083383965021335</v>
+        <v>0.9387101572870032</v>
       </c>
       <c r="AB3" t="n">
-        <v>4.317880550577954</v>
+        <v>-1.898698863994384</v>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
@@ -814,10 +818,10 @@
         <v>1000</v>
       </c>
       <c r="E4" t="n">
-        <v>935.1903134774833</v>
+        <v>954.2647503947017</v>
       </c>
       <c r="F4" t="n">
-        <v>-6.48096865225167</v>
+        <v>-4.573524960529835</v>
       </c>
       <c r="G4" t="n">
         <v>-15.40796573575823</v>
@@ -826,19 +830,19 @@
         <v>100</v>
       </c>
       <c r="I4" t="n">
-        <v>5.460566812987422</v>
+        <v>17.34006427701682</v>
       </c>
       <c r="J4" t="n">
-        <v>6.908409958805849</v>
+        <v>5.606064090225932</v>
       </c>
       <c r="K4" s="3" t="n">
-        <v>23.66666666666667</v>
+        <v>19.32291666666667</v>
       </c>
       <c r="L4" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="M4" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -847,39 +851,43 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>22.72727272727273</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.2720943993203305</v>
+        <v>2.867970171957583</v>
       </c>
       <c r="R4" t="n">
-        <v>-3.388497734617824</v>
-      </c>
-      <c r="S4" t="inlineStr"/>
+        <v>-1.425673968399771</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.349870598078932</v>
+      </c>
       <c r="T4" t="n">
-        <v>-0.9475718200786197</v>
-      </c>
-      <c r="U4" t="inlineStr"/>
+        <v>-0.665463799373227</v>
+      </c>
+      <c r="U4" s="3" t="n">
+        <v>0.1541666666666667</v>
+      </c>
       <c r="V4" s="3" t="n">
-        <v>0.6190476190393519</v>
+        <v>0.1078431372453704</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>0.5889140191509213</v>
       </c>
       <c r="X4" t="n">
-        <v>-9.258526646073802</v>
+        <v>-2.078874982059021</v>
       </c>
       <c r="Y4" t="n">
-        <v>-6.037767184523883</v>
+        <v>-3.623392982844901</v>
       </c>
       <c r="Z4" t="n">
-        <v>-8.245014167101269</v>
+        <v>-7.939947247750888</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.7725583466283108</v>
+        <v>0.7926594580217882</v>
       </c>
       <c r="AB4" t="n">
-        <v>-7.569205874633912</v>
+        <v>-5.980555905863406</v>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
@@ -912,10 +920,10 @@
         <v>1000</v>
       </c>
       <c r="E5" t="n">
-        <v>975.4342147772484</v>
+        <v>997.5809311310041</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.456578522275163</v>
+        <v>-0.241906886899585</v>
       </c>
       <c r="G5" t="n">
         <v>-3.771267661166144</v>
@@ -924,19 +932,19 @@
         <v>100</v>
       </c>
       <c r="I5" t="n">
-        <v>6.318656492376466</v>
+        <v>19.28455075214517</v>
       </c>
       <c r="J5" t="n">
-        <v>7.032111351634199</v>
+        <v>2.704445059187714</v>
       </c>
       <c r="K5" s="3" t="n">
-        <v>15.79166666666667</v>
+        <v>9.916666666666666</v>
       </c>
       <c r="L5" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="M5" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -945,43 +953,43 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>25</v>
+        <v>29.16666666666667</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.06101404814069</v>
+        <v>2.192772778225638</v>
       </c>
       <c r="R5" t="n">
-        <v>-1.152002510950694</v>
+        <v>-0.8104577640258545</v>
       </c>
       <c r="S5" t="n">
-        <v>0.8181833899465246</v>
+        <v>1.048514814764416</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.683318937885656</v>
+        <v>-0.4418548377312893</v>
       </c>
       <c r="U5" s="3" t="n">
-        <v>3.630208333333333</v>
+        <v>0.284226190474537</v>
       </c>
       <c r="V5" s="3" t="n">
-        <v>0.1857638888773148</v>
+        <v>0.151348039212963</v>
       </c>
       <c r="W5" t="n">
-        <v>0.3956791648250482</v>
+        <v>0.9679934860416718</v>
       </c>
       <c r="X5" t="n">
-        <v>-3.070723152843952</v>
+        <v>-0.1007945362081468</v>
       </c>
       <c r="Y5" t="n">
-        <v>-1.286239745314195</v>
+        <v>-0.1348945596164748</v>
       </c>
       <c r="Z5" t="n">
-        <v>-3.712109989206542</v>
+        <v>-1.073336343309252</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.9616182515108298</v>
+        <v>0.9943342223286473</v>
       </c>
       <c r="AB5" t="n">
-        <v>-1.766894369469936</v>
+        <v>-0.2141930433824313</v>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
@@ -1014,10 +1022,10 @@
         <v>1000</v>
       </c>
       <c r="E6" t="n">
-        <v>1120.694600376553</v>
+        <v>991.2111963434096</v>
       </c>
       <c r="F6" t="n">
-        <v>12.06946003765527</v>
+        <v>-0.8788803656590403</v>
       </c>
       <c r="G6" t="n">
         <v>32.81806957941897</v>
@@ -1026,64 +1034,64 @@
         <v>100</v>
       </c>
       <c r="I6" t="n">
-        <v>2.86263135309992</v>
+        <v>14.89688781788684</v>
       </c>
       <c r="J6" t="n">
-        <v>11.15646884479122</v>
+        <v>4.644732570906787</v>
       </c>
       <c r="K6" s="3" t="n">
-        <v>9.833333333333334</v>
+        <v>18.01041666666667</v>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="M6" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>95.58562705101031</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>33.33333333333333</v>
+        <v>31.57894736842105</v>
       </c>
       <c r="Q6" t="n">
-        <v>6.724150329245957</v>
+        <v>2.280376914016493</v>
       </c>
       <c r="R6" t="n">
-        <v>-3.299513362316633</v>
+        <v>-1.016114435052094</v>
       </c>
       <c r="S6" t="n">
-        <v>6.724150329245957</v>
+        <v>1.114777579653638</v>
       </c>
       <c r="T6" t="n">
-        <v>-1.984518872609251</v>
+        <v>-0.5770898052781549</v>
       </c>
       <c r="U6" s="3" t="n">
-        <v>2.197916666666667</v>
+        <v>0.1024305555555556</v>
       </c>
       <c r="V6" s="3" t="n">
-        <v>1.526041666666667</v>
+        <v>0.1778846153819444</v>
       </c>
       <c r="W6" t="n">
-        <v>1.602772478932063</v>
+        <v>0.8806443002073934</v>
       </c>
       <c r="X6" t="n">
-        <v>8.369657775180784</v>
+        <v>-0.4625686135047689</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.913832903592054</v>
+        <v>-0.7953489932150641</v>
       </c>
       <c r="Z6" t="n">
-        <v>26.87588788730276</v>
+        <v>-2.191794131206477</v>
       </c>
       <c r="AA6" t="n">
-        <v>1.099747237430406</v>
+        <v>0.9610684265165197</v>
       </c>
       <c r="AB6" t="n">
-        <v>5.497963490776551</v>
+        <v>-1.31802006507267</v>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
@@ -1116,10 +1124,10 @@
         <v>1000</v>
       </c>
       <c r="E7" t="n">
-        <v>929.8977815043795</v>
+        <v>997.0927768243004</v>
       </c>
       <c r="F7" t="n">
-        <v>-7.01022184956205</v>
+        <v>-0.2907223175699641</v>
       </c>
       <c r="G7" t="n">
         <v>-6.777936846770105</v>
@@ -1128,64 +1136,64 @@
         <v>100</v>
       </c>
       <c r="I7" t="n">
-        <v>2.057860090865808</v>
+        <v>11.91116726655887</v>
       </c>
       <c r="J7" t="n">
-        <v>17.55723187865735</v>
+        <v>4.768481554032865</v>
       </c>
       <c r="K7" s="3" t="n">
-        <v>9.28125</v>
+        <v>13.69791666666667</v>
       </c>
       <c r="L7" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="M7" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>-100.9039973663394</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>50</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="Q7" t="n">
-        <v>4.17396123090453</v>
+        <v>2.569408799675858</v>
       </c>
       <c r="R7" t="n">
-        <v>-1.048792580453944</v>
+        <v>-0.8509960576762328</v>
       </c>
       <c r="S7" t="n">
-        <v>4.17396123090453</v>
+        <v>1.12832270072953</v>
       </c>
       <c r="T7" t="n">
-        <v>-1.048792580453944</v>
+        <v>-0.5869551504609996</v>
       </c>
       <c r="U7" s="3" t="n">
-        <v>7.166666666666667</v>
+        <v>0.2354166666666667</v>
       </c>
       <c r="V7" s="3" t="n">
-        <v>3.885416666666667</v>
+        <v>0.1072916666666667</v>
       </c>
       <c r="W7" t="n">
-        <v>3.820380182867113</v>
+        <v>0.950251917633799</v>
       </c>
       <c r="X7" t="n">
-        <v>15.40088943535948</v>
+        <v>-0.193814878379968</v>
       </c>
       <c r="Y7" t="n">
-        <v>-2.013972287571478</v>
+        <v>-0.2933755311057877</v>
       </c>
       <c r="Z7" t="n">
-        <v>-3.486497448543326</v>
+        <v>-0.7807129067427085</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.9594896513269799</v>
+        <v>0.9852149503641353</v>
       </c>
       <c r="AB7" t="n">
-        <v>-2.650394525191087</v>
+        <v>-0.4367941890314407</v>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
@@ -1218,10 +1226,10 @@
         <v>1000</v>
       </c>
       <c r="E8" t="n">
-        <v>775.3932148717157</v>
+        <v>903.1469825691208</v>
       </c>
       <c r="F8" t="n">
-        <v>-22.46067851282843</v>
+        <v>-9.685301743087917</v>
       </c>
       <c r="G8" t="n">
         <v>-25.1508271919714</v>
@@ -1230,19 +1238,19 @@
         <v>100</v>
       </c>
       <c r="I8" t="n">
-        <v>10.80414896182841</v>
+        <v>17.25733804894129</v>
       </c>
       <c r="J8" t="n">
-        <v>31.08879998189988</v>
+        <v>18.73864633232029</v>
       </c>
       <c r="K8" s="3" t="n">
-        <v>25.17708333333333</v>
+        <v>16.03125</v>
       </c>
       <c r="L8" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M8" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -1251,43 +1259,43 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>6.666666666666667</v>
+        <v>26.08695652173913</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.967103581580458</v>
+        <v>4.379905043560709</v>
       </c>
       <c r="R8" t="n">
-        <v>-6.844658122633877</v>
+        <v>-5.555110388761224</v>
       </c>
       <c r="S8" t="n">
-        <v>2.967103581580458</v>
+        <v>2.234316535268852</v>
       </c>
       <c r="T8" t="n">
-        <v>-1.990031199003105</v>
+        <v>-1.358430448125886</v>
       </c>
       <c r="U8" s="3" t="n">
-        <v>2.291666666666667</v>
+        <v>0.2204861111111111</v>
       </c>
       <c r="V8" s="3" t="n">
-        <v>0.3363095238078704</v>
+        <v>0.2463235294097222</v>
       </c>
       <c r="W8" t="n">
-        <v>0.1160032470952116</v>
+        <v>0.5549252077491238</v>
       </c>
       <c r="X8" t="n">
-        <v>-14.97378567521896</v>
+        <v>-4.211000757864327</v>
       </c>
       <c r="Y8" t="n">
-        <v>-4.131198626551003</v>
+        <v>-2.417839824876536</v>
       </c>
       <c r="Z8" t="n">
-        <v>-3.070807233369448</v>
+        <v>-3.790683099547357</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.8443215828125075</v>
+        <v>0.9081152899173035</v>
       </c>
       <c r="AB8" t="n">
-        <v>-5.458656665190319</v>
+        <v>-3.247031592250413</v>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
@@ -1320,10 +1328,10 @@
         <v>1000</v>
       </c>
       <c r="E9" t="n">
-        <v>1292.846714320039</v>
+        <v>867.2615159076629</v>
       </c>
       <c r="F9" t="n">
-        <v>29.2846714320039</v>
+        <v>-13.27384840923371</v>
       </c>
       <c r="G9" t="n">
         <v>37.31872958719589</v>
@@ -1332,64 +1340,64 @@
         <v>100</v>
       </c>
       <c r="I9" t="n">
-        <v>6.160802359069984</v>
+        <v>21.45498842959072</v>
       </c>
       <c r="J9" t="n">
-        <v>9.113326975252347</v>
+        <v>14.64014168425358</v>
       </c>
       <c r="K9" s="3" t="n">
-        <v>5.84375</v>
+        <v>26.34375</v>
       </c>
       <c r="L9" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="M9" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>175.858663014694</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>28.57142857142857</v>
+        <v>23.33333333333333</v>
       </c>
       <c r="Q9" t="n">
-        <v>9.528026731257496</v>
+        <v>1.411516649288987</v>
       </c>
       <c r="R9" t="n">
-        <v>-2.179064308653429</v>
+        <v>-1.974013405047589</v>
       </c>
       <c r="S9" t="n">
-        <v>8.500787260737759</v>
+        <v>0.7938123144192695</v>
       </c>
       <c r="T9" t="n">
-        <v>-1.040887173084579</v>
+        <v>-0.8553238609205347</v>
       </c>
       <c r="U9" s="3" t="n">
-        <v>7.916666666666667</v>
+        <v>0.1815476190393518</v>
       </c>
       <c r="V9" s="3" t="n">
-        <v>0.3354166666666666</v>
+        <v>0.1530797101388889</v>
       </c>
       <c r="W9" t="n">
-        <v>3.211507828517365</v>
+        <v>0.2661309097532771</v>
       </c>
       <c r="X9" t="n">
-        <v>16.71257875790644</v>
+        <v>-4.424616136411229</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.567964052932046</v>
+        <v>-8.489844495425743</v>
       </c>
       <c r="Z9" t="n">
-        <v>266.8531374624006</v>
+        <v>-5.692178494645892</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.136550652928048</v>
+        <v>0.7235268217238773</v>
       </c>
       <c r="AB9" t="n">
-        <v>9.737798325362132</v>
+        <v>-10.79914546663096</v>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
@@ -1422,10 +1430,10 @@
         <v>1000</v>
       </c>
       <c r="E10" t="n">
-        <v>1098.204717381414</v>
+        <v>887.282077532381</v>
       </c>
       <c r="F10" t="n">
-        <v>9.820471738141419</v>
+        <v>-11.2717922467619</v>
       </c>
       <c r="G10" t="n">
         <v>11.05141988880258</v>
@@ -1434,64 +1442,64 @@
         <v>100</v>
       </c>
       <c r="I10" t="n">
-        <v>5.295796885027093</v>
+        <v>11.88777331906547</v>
       </c>
       <c r="J10" t="n">
-        <v>17.52048444618197</v>
+        <v>11.2717922467619</v>
       </c>
       <c r="K10" s="3" t="n">
-        <v>22.96875</v>
+        <v>27.09375</v>
       </c>
       <c r="L10" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="M10" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>80.81648692444003</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>16.66666666666666</v>
+        <v>18.75</v>
       </c>
       <c r="Q10" t="n">
-        <v>9.684254998614811</v>
+        <v>2.832126241495066</v>
       </c>
       <c r="R10" t="n">
-        <v>-3.947106407106387</v>
+        <v>-4.104141572405243</v>
       </c>
       <c r="S10" t="n">
-        <v>9.684254998614811</v>
+        <v>2.347583460405751</v>
       </c>
       <c r="T10" t="n">
-        <v>-1.483408190881117</v>
+        <v>-1.440490440846066</v>
       </c>
       <c r="U10" s="3" t="n">
-        <v>6.53125</v>
+        <v>0.46875</v>
       </c>
       <c r="V10" s="3" t="n">
-        <v>1.783333333333333</v>
+        <v>0.3341346153819444</v>
       </c>
       <c r="W10" t="n">
-        <v>1.230014684038272</v>
+        <v>0.3612654193478008</v>
       </c>
       <c r="X10" t="n">
-        <v>2.898038409495697</v>
+        <v>-7.044870154226182</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.106978739905956</v>
+        <v>-4.402957455990768</v>
       </c>
       <c r="Z10" t="n">
-        <v>12.12695081349117</v>
+        <v>-6.800081721476777</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.048348119535449</v>
+        <v>0.8331501791901921</v>
       </c>
       <c r="AB10" t="n">
-        <v>2.684301393798214</v>
+        <v>-5.521748946410552</v>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
@@ -1524,10 +1532,10 @@
         <v>1000</v>
       </c>
       <c r="E11" t="n">
-        <v>946.8475457288814</v>
+        <v>1027.05095312315</v>
       </c>
       <c r="F11" t="n">
-        <v>-5.315245427111859</v>
+        <v>2.705095312314961</v>
       </c>
       <c r="G11" t="n">
         <v>-3.099796553109058</v>
@@ -1536,19 +1544,19 @@
         <v>100</v>
       </c>
       <c r="I11" t="n">
-        <v>3.094777187737289</v>
+        <v>12.95484200490695</v>
       </c>
       <c r="J11" t="n">
-        <v>8.593674524200551</v>
+        <v>2.794014970792698</v>
       </c>
       <c r="K11" s="3" t="n">
-        <v>19.22916666666667</v>
+        <v>20.86458333333333</v>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1557,39 +1565,43 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>43.75</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.1734354115664515</v>
+        <v>2.424196290443329</v>
       </c>
       <c r="R11" t="n">
-        <v>-3.798907750320039</v>
-      </c>
-      <c r="S11" t="inlineStr"/>
+        <v>-0.9648880819151374</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.092273380448117</v>
+      </c>
       <c r="T11" t="n">
-        <v>-1.346166692501836</v>
-      </c>
-      <c r="U11" t="inlineStr"/>
+        <v>-0.544774240660336</v>
+      </c>
+      <c r="U11" s="3" t="n">
+        <v>0.252976190474537</v>
+      </c>
       <c r="V11" s="3" t="n">
-        <v>1.03125</v>
+        <v>0.2847222222222222</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.543120098862344</v>
       </c>
       <c r="X11" t="n">
-        <v>-13.28811356777966</v>
+        <v>1.690684570196863</v>
       </c>
       <c r="Y11" t="n">
-        <v>-3.056095363374266</v>
+        <v>2.711125815019122</v>
       </c>
       <c r="Z11" t="n">
-        <v>-5.783389396875728</v>
+        <v>14.28387784149782</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.840418907832001</v>
+        <v>1.117287865127169</v>
       </c>
       <c r="AB11" t="n">
-        <v>-3.808980325173275</v>
+        <v>4.003113088241377</v>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
@@ -1622,10 +1634,10 @@
         <v>1000</v>
       </c>
       <c r="E12" t="n">
-        <v>1136.062436284782</v>
+        <v>989.1654199407426</v>
       </c>
       <c r="F12" t="n">
-        <v>13.6062436284782</v>
+        <v>-1.08345800592574</v>
       </c>
       <c r="G12" t="n">
         <v>21.87969149188307</v>
@@ -1634,64 +1646,64 @@
         <v>100</v>
       </c>
       <c r="I12" t="n">
-        <v>3.70108971286628</v>
+        <v>12.69164212827533</v>
       </c>
       <c r="J12" t="n">
-        <v>5.502809790733097</v>
+        <v>2.039043838519103</v>
       </c>
       <c r="K12" s="3" t="n">
-        <v>17.46875</v>
+        <v>21.23958333333333</v>
       </c>
       <c r="L12" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="N12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>6.900310075076959</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>50</v>
+        <v>43.75</v>
       </c>
       <c r="Q12" t="n">
-        <v>13.81887926172778</v>
+        <v>1.411278950414982</v>
       </c>
       <c r="R12" t="n">
-        <v>-1.147211959106295</v>
+        <v>-1.347668066027221</v>
       </c>
       <c r="S12" t="n">
-        <v>7.330757197435216</v>
+        <v>0.5907544720806437</v>
       </c>
       <c r="T12" t="n">
-        <v>-0.811519375645443</v>
+        <v>-0.5758835643064317</v>
       </c>
       <c r="U12" s="3" t="n">
-        <v>3.776041666666667</v>
+        <v>0.3973214285648148</v>
       </c>
       <c r="V12" s="3" t="n">
-        <v>3.536458333333333</v>
+        <v>0.15625</v>
       </c>
       <c r="W12" t="n">
-        <v>8.921360469202506</v>
+        <v>0.7900215572414588</v>
       </c>
       <c r="X12" t="n">
-        <v>32.29053155242627</v>
+        <v>-0.6771612537035998</v>
       </c>
       <c r="Y12" t="n">
-        <v>4.93002050705074</v>
+        <v>-1.362555138530936</v>
       </c>
       <c r="Z12" t="n">
-        <v>67.57894749657429</v>
+        <v>-6.085785647981513</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.129270770476158</v>
+        <v>0.9393504627990862</v>
       </c>
       <c r="AB12" t="n">
-        <v>7.745372583145627</v>
+        <v>-1.878668106550224</v>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
@@ -1724,10 +1736,10 @@
         <v>1000</v>
       </c>
       <c r="E13" t="n">
-        <v>957.2496624564944</v>
+        <v>927.5275804001358</v>
       </c>
       <c r="F13" t="n">
-        <v>-4.275033754350557</v>
+        <v>-7.247241959986423</v>
       </c>
       <c r="G13" t="n">
         <v>3.387230660543894</v>
@@ -1736,60 +1748,64 @@
         <v>100</v>
       </c>
       <c r="I13" t="n">
-        <v>3.484597479535887</v>
+        <v>11.42105028657229</v>
       </c>
       <c r="J13" t="n">
-        <v>11.63890097675247</v>
+        <v>8.262173141587086</v>
       </c>
       <c r="K13" s="3" t="n">
-        <v>13.54166666666667</v>
+        <v>26.96875</v>
       </c>
       <c r="L13" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>20.69511504200693</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.5239194230291055</v>
+        <v>0.9966455639768194</v>
       </c>
       <c r="R13" t="n">
-        <v>-4.315678770883893</v>
-      </c>
-      <c r="S13" t="inlineStr"/>
+        <v>-1.253168214654288</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.9966455639768194</v>
+      </c>
       <c r="T13" t="n">
-        <v>-1.613364445065554</v>
-      </c>
-      <c r="U13" t="inlineStr"/>
+        <v>-0.6061570576812095</v>
+      </c>
+      <c r="U13" s="3" t="n">
+        <v>0.6979166666666666</v>
+      </c>
       <c r="V13" s="3" t="n">
-        <v>2.778645833333333</v>
+        <v>0.1986607142824074</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>0.1120941177943335</v>
       </c>
       <c r="X13" t="n">
-        <v>-15.86136314637813</v>
+        <v>-4.831494639990934</v>
       </c>
       <c r="Y13" t="n">
-        <v>-1.766608927227374</v>
+        <v>-8.55247174656742</v>
       </c>
       <c r="Z13" t="n">
-        <v>-3.541679069981113</v>
+        <v>-7.25582719861639</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.9618942176375841</v>
+        <v>0.6976287273830151</v>
       </c>
       <c r="AB13" t="n">
-        <v>-2.47622194831827</v>
+        <v>-10.64111103970622</v>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
@@ -1822,10 +1838,10 @@
         <v>1000</v>
       </c>
       <c r="E14" t="n">
-        <v>952.3471123998169</v>
+        <v>966.4580083610542</v>
       </c>
       <c r="F14" t="n">
-        <v>-4.765288760018314</v>
+        <v>-3.354199163894577</v>
       </c>
       <c r="G14" t="n">
         <v>-7.036935234495378</v>
@@ -1834,19 +1850,19 @@
         <v>100</v>
       </c>
       <c r="I14" t="n">
-        <v>6.315733764220854</v>
+        <v>15.62561029582357</v>
       </c>
       <c r="J14" t="n">
-        <v>8.522234055793088</v>
+        <v>3.631694196287436</v>
       </c>
       <c r="K14" s="3" t="n">
-        <v>13.3125</v>
+        <v>24.92708333333333</v>
       </c>
       <c r="L14" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="M14" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -1855,43 +1871,43 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Q14" t="n">
-        <v>4.339747239754881</v>
+        <v>1.796084608665634</v>
       </c>
       <c r="R14" t="n">
-        <v>-4.513137892917739</v>
+        <v>-1.299081565848546</v>
       </c>
       <c r="S14" t="n">
-        <v>2.559850501091287</v>
+        <v>0.9789282969206644</v>
       </c>
       <c r="T14" t="n">
-        <v>-1.622636666850617</v>
+        <v>-0.6583395932146229</v>
       </c>
       <c r="U14" s="3" t="n">
-        <v>4.328125</v>
+        <v>0.2864583333333333</v>
       </c>
       <c r="V14" s="3" t="n">
-        <v>1.380208333333333</v>
+        <v>0.1302083333333333</v>
       </c>
       <c r="W14" t="n">
-        <v>0.5092390229211804</v>
+        <v>0.62953333244331</v>
       </c>
       <c r="X14" t="n">
-        <v>-5.956610950022885</v>
+        <v>-1.677099581947301</v>
       </c>
       <c r="Y14" t="n">
-        <v>-1.55972577636389</v>
+        <v>-3.044048554852347</v>
       </c>
       <c r="Z14" t="n">
-        <v>-5.385744502499595</v>
+        <v>-9.610004681680225</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.9689627717537543</v>
+        <v>0.8808370886852152</v>
       </c>
       <c r="AB14" t="n">
-        <v>-2.2077254961204</v>
+        <v>-4.20558705371231</v>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
@@ -1924,10 +1940,10 @@
         <v>1000</v>
       </c>
       <c r="E15" t="n">
-        <v>1075.62287221503</v>
+        <v>944.0685621369922</v>
       </c>
       <c r="F15" t="n">
-        <v>7.562287221502993</v>
+        <v>-5.593143786300777</v>
       </c>
       <c r="G15" t="n">
         <v>25.26207051675513</v>
@@ -1936,64 +1952,64 @@
         <v>100</v>
       </c>
       <c r="I15" t="n">
-        <v>6.23597735566308</v>
+        <v>14.86338512490645</v>
       </c>
       <c r="J15" t="n">
-        <v>6.740520595488182</v>
+        <v>7.261416027547139</v>
       </c>
       <c r="K15" s="3" t="n">
-        <v>15.03125</v>
+        <v>22.625</v>
       </c>
       <c r="L15" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="M15" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="N15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>37.02890414767126</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>28.57142857142857</v>
+        <v>21.05263157894737</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.515939567492851</v>
+        <v>1.4622102671219</v>
       </c>
       <c r="R15" t="n">
-        <v>-1.147912527338478</v>
+        <v>-1.147912527338469</v>
       </c>
       <c r="S15" t="n">
-        <v>3.334935764664337</v>
+        <v>0.9437901656600767</v>
       </c>
       <c r="T15" t="n">
-        <v>-0.5333634977083729</v>
+        <v>-0.6316618478653484</v>
       </c>
       <c r="U15" s="3" t="n">
-        <v>3.005208333333333</v>
+        <v>0.5338541666666666</v>
       </c>
       <c r="V15" s="3" t="n">
-        <v>0.6791666666666667</v>
+        <v>0.1645833333333333</v>
       </c>
       <c r="W15" t="n">
-        <v>2.377424112889755</v>
+        <v>0.3955626022452102</v>
       </c>
       <c r="X15" t="n">
-        <v>5.513424009622648</v>
+        <v>-2.943759887526729</v>
       </c>
       <c r="Y15" t="n">
-        <v>2.9844822484027</v>
+        <v>-5.735527496848388</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.16993565246279</v>
+        <v>-6.932922697019279</v>
       </c>
       <c r="AA15" t="n">
-        <v>1.072947802209257</v>
+        <v>0.79125067804194</v>
       </c>
       <c r="AB15" t="n">
-        <v>4.418396794277092</v>
+        <v>-7.380484620898135</v>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
@@ -2026,10 +2042,10 @@
         <v>1000</v>
       </c>
       <c r="E16" t="n">
-        <v>1130.092687467639</v>
+        <v>1043.739647061979</v>
       </c>
       <c r="F16" t="n">
-        <v>13.00926874676394</v>
+        <v>4.373964706197875</v>
       </c>
       <c r="G16" t="n">
         <v>32.24457279426329</v>
@@ -2038,64 +2054,64 @@
         <v>100</v>
       </c>
       <c r="I16" t="n">
-        <v>5.674370238323837</v>
+        <v>14.75521950007289</v>
       </c>
       <c r="J16" t="n">
-        <v>16.12494402310747</v>
+        <v>8.682783901608255</v>
       </c>
       <c r="K16" s="3" t="n">
-        <v>4.4375</v>
+        <v>10.5625</v>
       </c>
       <c r="L16" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="M16" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="N16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>73.74366183746474</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>50</v>
+        <v>38.88888888888889</v>
       </c>
       <c r="Q16" t="n">
-        <v>10.23856547364889</v>
+        <v>4.585096642691468</v>
       </c>
       <c r="R16" t="n">
-        <v>-8.639013356761492</v>
+        <v>-1.353388513389786</v>
       </c>
       <c r="S16" t="n">
-        <v>5.619722708588384</v>
+        <v>1.943824895319537</v>
       </c>
       <c r="T16" t="n">
-        <v>-3.455855101694321</v>
+        <v>-0.8253675719567011</v>
       </c>
       <c r="U16" s="3" t="n">
-        <v>3.434027777777778</v>
+        <v>0.3392857142824074</v>
       </c>
       <c r="V16" s="3" t="n">
-        <v>1.5</v>
+        <v>0.233901515150463</v>
       </c>
       <c r="W16" t="n">
-        <v>1.473326081527929</v>
+        <v>1.469914963997852</v>
       </c>
       <c r="X16" t="n">
-        <v>9.391504271695794</v>
+        <v>2.429980392332213</v>
       </c>
       <c r="Y16" t="n">
-        <v>2.999930209408876</v>
+        <v>2.296832684431022</v>
       </c>
       <c r="Z16" t="n">
-        <v>22.68967956246387</v>
+        <v>8.219087406637003</v>
       </c>
       <c r="AA16" t="n">
-        <v>1.062458877328045</v>
+        <v>1.082008691859109</v>
       </c>
       <c r="AB16" t="n">
-        <v>4.210574937387359</v>
+        <v>3.403653489424976</v>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
@@ -2128,10 +2144,10 @@
         <v>1000</v>
       </c>
       <c r="E17" t="n">
-        <v>1139.986498477357</v>
+        <v>949.144802024471</v>
       </c>
       <c r="F17" t="n">
-        <v>13.99864984773567</v>
+        <v>-5.0855197975529</v>
       </c>
       <c r="G17" t="n">
         <v>49.49954448365814</v>
@@ -2140,19 +2156,19 @@
         <v>100</v>
       </c>
       <c r="I17" t="n">
-        <v>6.019452723036503</v>
+        <v>19.33506271569633</v>
       </c>
       <c r="J17" t="n">
-        <v>9.038878338045482</v>
+        <v>8.35629129220519</v>
       </c>
       <c r="K17" s="3" t="n">
-        <v>13.29166666666667</v>
+        <v>16.52083333333333</v>
       </c>
       <c r="L17" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="M17" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -2161,43 +2177,43 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>42.85714285714285</v>
+        <v>28</v>
       </c>
       <c r="Q17" t="n">
-        <v>17.19333148205723</v>
+        <v>3.7814794808124</v>
       </c>
       <c r="R17" t="n">
-        <v>-1.939663293377701</v>
+        <v>-1.939663293377686</v>
       </c>
       <c r="S17" t="n">
-        <v>6.12787394038343</v>
+        <v>1.783871412839403</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.979583029313542</v>
+        <v>-0.9704933547233391</v>
       </c>
       <c r="U17" s="3" t="n">
-        <v>3.447916666666667</v>
+        <v>0.2202380952314815</v>
       </c>
       <c r="V17" s="3" t="n">
-        <v>0.9869791666666666</v>
+        <v>0.1359953703703704</v>
       </c>
       <c r="W17" t="n">
-        <v>4.229914443848755</v>
+        <v>0.7019313618622354</v>
       </c>
       <c r="X17" t="n">
-        <v>19.99807121105093</v>
+        <v>-2.034207919021171</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.292178977229429</v>
+        <v>-2.460228988256014</v>
       </c>
       <c r="Z17" t="n">
-        <v>43.37753641392848</v>
+        <v>-5.624042940380106</v>
       </c>
       <c r="AA17" t="n">
-        <v>1.07940690265183</v>
+        <v>0.9019847151984313</v>
       </c>
       <c r="AB17" t="n">
-        <v>4.667892512272258</v>
+        <v>-3.421952457867378</v>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
@@ -2230,10 +2246,10 @@
         <v>1000</v>
       </c>
       <c r="E18" t="n">
-        <v>893.8660358974528</v>
+        <v>1051.599874249616</v>
       </c>
       <c r="F18" t="n">
-        <v>-10.61339641025472</v>
+        <v>5.159987424961628</v>
       </c>
       <c r="G18" t="n">
         <v>18.98362962126663</v>
@@ -2242,19 +2258,19 @@
         <v>100</v>
       </c>
       <c r="I18" t="n">
-        <v>4.669021261047572</v>
+        <v>16.83522967722179</v>
       </c>
       <c r="J18" t="n">
-        <v>26.63941323773522</v>
+        <v>10.75063110779488</v>
       </c>
       <c r="K18" s="3" t="n">
-        <v>16.33333333333333</v>
+        <v>17.96875</v>
       </c>
       <c r="L18" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="M18" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -2263,43 +2279,43 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>33.33333333333333</v>
+        <v>35</v>
       </c>
       <c r="Q18" t="n">
-        <v>4.819638567985361</v>
+        <v>7.177154513495558</v>
       </c>
       <c r="R18" t="n">
-        <v>-11.49264253732647</v>
+        <v>-2.700995520244791</v>
       </c>
       <c r="S18" t="n">
-        <v>2.765695211946698</v>
+        <v>3.968595890778702</v>
       </c>
       <c r="T18" t="n">
-        <v>-3.972076194959938</v>
+        <v>-1.685083104756853</v>
       </c>
       <c r="U18" s="3" t="n">
-        <v>2.151041666666667</v>
+        <v>0.1979166666666667</v>
       </c>
       <c r="V18" s="3" t="n">
-        <v>1.549479166666667</v>
+        <v>0.112980769224537</v>
       </c>
       <c r="W18" t="n">
-        <v>0.3368143950784982</v>
+        <v>1.220561519921324</v>
       </c>
       <c r="X18" t="n">
-        <v>-17.68899401709122</v>
+        <v>2.579993712480809</v>
       </c>
       <c r="Y18" t="n">
-        <v>-1.587472499654242</v>
+        <v>1.721236205023688</v>
       </c>
       <c r="Z18" t="n">
-        <v>-2.794813278042518</v>
+        <v>7.850499176434537</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.9623171559874466</v>
+        <v>1.083174918593499</v>
       </c>
       <c r="AB18" t="n">
-        <v>-2.248390264639349</v>
+        <v>2.609548140991424</v>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
@@ -2332,10 +2348,10 @@
         <v>1000</v>
       </c>
       <c r="E19" t="n">
-        <v>1177.776172789657</v>
+        <v>906.2639527582035</v>
       </c>
       <c r="F19" t="n">
-        <v>17.77761727896568</v>
+        <v>-9.373604724179655</v>
       </c>
       <c r="G19" t="n">
         <v>41.36935887909195</v>
@@ -2344,64 +2360,64 @@
         <v>100</v>
       </c>
       <c r="I19" t="n">
-        <v>3.987821307035551</v>
+        <v>10.64202899666537</v>
       </c>
       <c r="J19" t="n">
-        <v>26.74957235488535</v>
+        <v>13.58797605612463</v>
       </c>
       <c r="K19" s="3" t="n">
-        <v>6.208333333333333</v>
+        <v>12.07291666666667</v>
       </c>
       <c r="L19" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>4.100811733872089</v>
       </c>
       <c r="P19" t="n">
-        <v>50</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="Q19" t="n">
-        <v>25.96661353314085</v>
+        <v>2.016636964498029</v>
       </c>
       <c r="R19" t="n">
-        <v>-7.518961560070898</v>
+        <v>-2.62218413596358</v>
       </c>
       <c r="S19" t="n">
-        <v>17.08305105306829</v>
+        <v>1.884852850724993</v>
       </c>
       <c r="T19" t="n">
-        <v>-7.037411960024246</v>
+        <v>-1.57495957381577</v>
       </c>
       <c r="U19" s="3" t="n">
-        <v>6.473958333333333</v>
+        <v>0.1597222222222222</v>
       </c>
       <c r="V19" s="3" t="n">
-        <v>4.234375</v>
+        <v>0.290625</v>
       </c>
       <c r="W19" t="n">
-        <v>1.960835371005806</v>
+        <v>0.3672359814531044</v>
       </c>
       <c r="X19" t="n">
-        <v>44.4440431974142</v>
+        <v>-7.525912228897574</v>
       </c>
       <c r="Y19" t="n">
-        <v>2.647499188495506</v>
+        <v>-4.011788020338566</v>
       </c>
       <c r="Z19" t="n">
-        <v>30.37902539707571</v>
+        <v>-5.413124249344848</v>
       </c>
       <c r="AA19" t="n">
-        <v>1.047633016734614</v>
+        <v>0.8529878007515553</v>
       </c>
       <c r="AB19" t="n">
-        <v>3.856937473861854</v>
+        <v>-5.603310210417892</v>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
@@ -2434,10 +2450,10 @@
         <v>1000</v>
       </c>
       <c r="E20" t="n">
-        <v>950.4803205030448</v>
+        <v>1061.764196139435</v>
       </c>
       <c r="F20" t="n">
-        <v>-4.951967949695518</v>
+        <v>6.176419613943483</v>
       </c>
       <c r="G20" t="n">
         <v>29.54077804293966</v>
@@ -2446,19 +2462,19 @@
         <v>100</v>
       </c>
       <c r="I20" t="n">
-        <v>4.06798594175044</v>
+        <v>15.31842439188627</v>
       </c>
       <c r="J20" t="n">
-        <v>13.43960257491068</v>
+        <v>6.448375173130519</v>
       </c>
       <c r="K20" s="3" t="n">
-        <v>17.13541666666667</v>
+        <v>9.072916666666666</v>
       </c>
       <c r="L20" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -2467,43 +2483,43 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>20</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="Q20" t="n">
-        <v>4.840163465765055</v>
+        <v>3.782938835790549</v>
       </c>
       <c r="R20" t="n">
-        <v>-7.48767794745322</v>
+        <v>-1.593997178844371</v>
       </c>
       <c r="S20" t="n">
-        <v>4.840163465765055</v>
+        <v>2.581532160655107</v>
       </c>
       <c r="T20" t="n">
-        <v>-2.375853452997797</v>
+        <v>-0.9804192106015113</v>
       </c>
       <c r="U20" s="3" t="n">
-        <v>1.666666666666667</v>
+        <v>0.1785714285648148</v>
       </c>
       <c r="V20" s="3" t="n">
-        <v>1.302083333333333</v>
+        <v>0.07378472222222222</v>
       </c>
       <c r="W20" t="n">
-        <v>0.4938746947105972</v>
+        <v>1.518511437408446</v>
       </c>
       <c r="X20" t="n">
-        <v>-9.903935899391019</v>
+        <v>3.250747165233454</v>
       </c>
       <c r="Y20" t="n">
-        <v>-1.668904028694615</v>
+        <v>3.322764469248909</v>
       </c>
       <c r="Z20" t="n">
-        <v>-3.428814423663435</v>
+        <v>16.63731243659601</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.9484040741190259</v>
+        <v>1.214426531988677</v>
       </c>
       <c r="AB20" t="n">
-        <v>-2.388158032911961</v>
+        <v>6.09942485756529</v>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
@@ -2536,10 +2552,10 @@
         <v>1000</v>
       </c>
       <c r="E21" t="n">
-        <v>966.2087231946247</v>
+        <v>902.8347761614868</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.379127680537533</v>
+        <v>-9.716522383851316</v>
       </c>
       <c r="G21" t="n">
         <v>-9.600990980875268</v>
@@ -2548,19 +2564,19 @@
         <v>100</v>
       </c>
       <c r="I21" t="n">
-        <v>7.326745725903289</v>
+        <v>18.88488380660056</v>
       </c>
       <c r="J21" t="n">
-        <v>12.66903773262589</v>
+        <v>14.15913760272808</v>
       </c>
       <c r="K21" s="3" t="n">
-        <v>15.75</v>
+        <v>24.76041666666667</v>
       </c>
       <c r="L21" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="M21" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -2569,43 +2585,43 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>22.22222222222222</v>
+        <v>24</v>
       </c>
       <c r="Q21" t="n">
-        <v>3.758348787806106</v>
+        <v>2.928318759005804</v>
       </c>
       <c r="R21" t="n">
-        <v>-2.690705642555023</v>
+        <v>-1.798529221009364</v>
       </c>
       <c r="S21" t="n">
-        <v>3.452686170197493</v>
+        <v>1.482799067122875</v>
       </c>
       <c r="T21" t="n">
-        <v>-1.447709401780365</v>
+        <v>-0.9963726868317218</v>
       </c>
       <c r="U21" s="3" t="n">
-        <v>4.760416666666667</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="V21" s="3" t="n">
-        <v>0.3095238095138889</v>
+        <v>0.1628289473611111</v>
       </c>
       <c r="W21" t="n">
-        <v>0.6750813941745686</v>
+        <v>0.4569132140324177</v>
       </c>
       <c r="X21" t="n">
-        <v>-3.754586311708386</v>
+        <v>-3.886608953540531</v>
       </c>
       <c r="Y21" t="n">
-        <v>-1.016072439285684</v>
+        <v>-5.248934232592552</v>
       </c>
       <c r="Z21" t="n">
-        <v>-2.771445595567042</v>
+        <v>-5.110754015493102</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.9765865186415165</v>
+        <v>0.7998706860692425</v>
       </c>
       <c r="AB21" t="n">
-        <v>-1.419459258913367</v>
+        <v>-7.608850241856699</v>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
@@ -2638,10 +2654,10 @@
         <v>1000</v>
       </c>
       <c r="E22" t="n">
-        <v>751.2204066756617</v>
+        <v>1042.521033667201</v>
       </c>
       <c r="F22" t="n">
-        <v>-24.87795933243383</v>
+        <v>4.252103366720053</v>
       </c>
       <c r="G22" t="n">
         <v>-38.22141169941514</v>
@@ -2650,19 +2666,19 @@
         <v>100</v>
       </c>
       <c r="I22" t="n">
-        <v>1.306300750127692</v>
+        <v>7.20017203018421</v>
       </c>
       <c r="J22" t="n">
-        <v>36.55835940720571</v>
+        <v>10.26177241127066</v>
       </c>
       <c r="K22" s="3" t="n">
-        <v>15.92708333333333</v>
+        <v>10.44791666666667</v>
       </c>
       <c r="L22" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M22" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -2671,39 +2687,43 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="Q22" t="n">
-        <v>-0.8051152281643157</v>
+        <v>5.38838080345346</v>
       </c>
       <c r="R22" t="n">
-        <v>-24.27818449279388</v>
-      </c>
-      <c r="S22" t="inlineStr"/>
+        <v>-4.227867829860335</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2.74210803304784</v>
+      </c>
       <c r="T22" t="n">
-        <v>-12.5416498604791</v>
-      </c>
-      <c r="U22" t="inlineStr"/>
+        <v>-2.292005633091347</v>
+      </c>
+      <c r="U22" s="3" t="n">
+        <v>0.1375</v>
+      </c>
       <c r="V22" s="3" t="n">
-        <v>3.59375</v>
+        <v>0.3515625</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1.457377906150264</v>
       </c>
       <c r="X22" t="n">
-        <v>-124.3897966621692</v>
+        <v>4.724559296355634</v>
       </c>
       <c r="Y22" t="n">
-        <v>-2.956257150649086</v>
+        <v>1.281342891875083</v>
       </c>
       <c r="Z22" t="n">
-        <v>-2.651011061774627</v>
+        <v>6.425961436267904</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.9031248354112729</v>
+        <v>1.08197961268708</v>
       </c>
       <c r="AB22" t="n">
-        <v>-4.181156179919086</v>
+        <v>1.797674488947909</v>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
@@ -2736,10 +2756,10 @@
         <v>1000</v>
       </c>
       <c r="E23" t="n">
-        <v>1055.025639443596</v>
+        <v>1014.849375930167</v>
       </c>
       <c r="F23" t="n">
-        <v>5.502563944359622</v>
+        <v>1.484937593016673</v>
       </c>
       <c r="G23" t="n">
         <v>-4.762600414908558</v>
@@ -2748,60 +2768,64 @@
         <v>100</v>
       </c>
       <c r="I23" t="n">
-        <v>1.188337400610228</v>
+        <v>5.538100846317707</v>
       </c>
       <c r="J23" t="n">
-        <v>14.60121468926555</v>
+        <v>5.968216097373948</v>
       </c>
       <c r="K23" s="3" t="n">
-        <v>13.1875</v>
+        <v>22.46875</v>
       </c>
       <c r="L23" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>69.4041263482045</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="Q23" t="n">
-        <v>-1.438423829937017</v>
+        <v>4.283335882719682</v>
       </c>
       <c r="R23" t="n">
-        <v>-1.438423829937017</v>
-      </c>
-      <c r="S23" t="inlineStr"/>
+        <v>-1.600452484099899</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2.138081918446807</v>
+      </c>
       <c r="T23" t="n">
-        <v>-1.438423829937017</v>
-      </c>
-      <c r="U23" t="inlineStr"/>
+        <v>-1.201937486252179</v>
+      </c>
+      <c r="U23" s="3" t="n">
+        <v>0.1979166666666667</v>
+      </c>
       <c r="V23" s="3" t="n">
-        <v>0.7395833333333334</v>
+        <v>0.1614583333333333</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>1.310331326441023</v>
       </c>
       <c r="X23" t="n">
-        <v>-14.37848690460833</v>
+        <v>2.121339418595255</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.760771767661879</v>
+        <v>1.112020114093413</v>
       </c>
       <c r="Z23" t="n">
-        <v>6.588151770076855</v>
+        <v>3.41421947677275</v>
       </c>
       <c r="AA23" t="n">
-        <v>1.055610605698885</v>
+        <v>1.085739599082786</v>
       </c>
       <c r="AB23" t="n">
-        <v>2.496726686232023</v>
+        <v>1.753928987580782</v>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
@@ -2834,10 +2858,10 @@
         <v>1000</v>
       </c>
       <c r="E24" t="n">
-        <v>914.611372441056</v>
+        <v>1031.263570151565</v>
       </c>
       <c r="F24" t="n">
-        <v>-8.538862755894399</v>
+        <v>3.126357015156532</v>
       </c>
       <c r="G24" t="n">
         <v>20.66716353720566</v>
@@ -2846,19 +2870,19 @@
         <v>100</v>
       </c>
       <c r="I24" t="n">
-        <v>2.981611043593075</v>
+        <v>21.30291115276758</v>
       </c>
       <c r="J24" t="n">
-        <v>11.58514727771284</v>
+        <v>7.460804570038723</v>
       </c>
       <c r="K24" s="3" t="n">
-        <v>23.5</v>
+        <v>13.65625</v>
       </c>
       <c r="L24" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="M24" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -2867,43 +2891,43 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>25</v>
+        <v>34.61538461538461</v>
       </c>
       <c r="Q24" t="n">
-        <v>4.303221851478246</v>
+        <v>3.474687802660445</v>
       </c>
       <c r="R24" t="n">
-        <v>-8.438869824337877</v>
+        <v>-1.797659857149863</v>
       </c>
       <c r="S24" t="n">
-        <v>4.303221851478246</v>
+        <v>1.822358697913251</v>
       </c>
       <c r="T24" t="n">
-        <v>-4.234285375176733</v>
+        <v>-0.7695345146594631</v>
       </c>
       <c r="U24" s="3" t="n">
-        <v>2.114583333333333</v>
+        <v>0.2326388888888889</v>
       </c>
       <c r="V24" s="3" t="n">
-        <v>4.145833333333333</v>
+        <v>0.1029411764699074</v>
       </c>
       <c r="W24" t="n">
-        <v>0.3137378291781048</v>
+        <v>1.231411763558001</v>
       </c>
       <c r="X24" t="n">
-        <v>-21.34715688973598</v>
+        <v>1.202445005829424</v>
       </c>
       <c r="Y24" t="n">
-        <v>-2.470644072330637</v>
+        <v>1.853662229747685</v>
       </c>
       <c r="Z24" t="n">
-        <v>-5.71672715793301</v>
+        <v>6.087087979119263</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.9461631374470322</v>
+        <v>1.084491325978366</v>
       </c>
       <c r="AB24" t="n">
-        <v>-3.430050066495677</v>
+        <v>3.047468748469334</v>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
@@ -2936,10 +2960,10 @@
         <v>1000</v>
       </c>
       <c r="E25" t="n">
-        <v>1051.7414663649</v>
+        <v>1000.751021766575</v>
       </c>
       <c r="F25" t="n">
-        <v>5.174146636489957</v>
+        <v>0.07510217665751498</v>
       </c>
       <c r="G25" t="n">
         <v>13.61113133328362</v>
@@ -2948,19 +2972,19 @@
         <v>100</v>
       </c>
       <c r="I25" t="n">
-        <v>1.641557041305002</v>
+        <v>5.55177363048231</v>
       </c>
       <c r="J25" t="n">
-        <v>3.383783026442713</v>
+        <v>2.522365073051401</v>
       </c>
       <c r="K25" s="3" t="n">
-        <v>18.03125</v>
+        <v>13.48958333333333</v>
       </c>
       <c r="L25" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M25" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -2969,41 +2993,43 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>100</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.607531780089627</v>
+        <v>1.624791698998115</v>
       </c>
       <c r="R25" t="n">
-        <v>2.503432809632737</v>
+        <v>-1.305650679814732</v>
       </c>
       <c r="S25" t="n">
-        <v>2.555482294861182</v>
-      </c>
-      <c r="T25" t="inlineStr"/>
+        <v>1.451591208367672</v>
+      </c>
+      <c r="T25" t="n">
+        <v>-1.05629253013972</v>
+      </c>
       <c r="U25" s="3" t="n">
-        <v>2.166666666666667</v>
-      </c>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.0902777777662037</v>
+      </c>
+      <c r="V25" s="3" t="n">
+        <v>0.1302083333333333</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.017905575782782</v>
       </c>
       <c r="X25" t="n">
-        <v>25.87073318244982</v>
+        <v>0.107288823796468</v>
       </c>
       <c r="Y25" t="n">
-        <v>2.940332005671986</v>
+        <v>0.1381384843958612</v>
       </c>
       <c r="Z25" t="n">
-        <v>25.03116127022493</v>
+        <v>0.3636525451676951</v>
       </c>
       <c r="AA25" t="n">
-        <v>1.123183531844608</v>
+        <v>1.012111343353383</v>
       </c>
       <c r="AB25" t="n">
-        <v>4.535788880135853</v>
+        <v>0.1983748763703998</v>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
@@ -3036,10 +3062,10 @@
         <v>1000</v>
       </c>
       <c r="E26" t="n">
-        <v>883.8700919003343</v>
+        <v>956.0106408316343</v>
       </c>
       <c r="F26" t="n">
-        <v>-11.61299080996657</v>
+        <v>-4.398935916836569</v>
       </c>
       <c r="G26" t="n">
         <v>-11.82183119729999</v>
@@ -3048,19 +3074,19 @@
         <v>100</v>
       </c>
       <c r="I26" t="n">
-        <v>3.04815552163953</v>
+        <v>10.80734326978203</v>
       </c>
       <c r="J26" t="n">
-        <v>15.73720634564648</v>
+        <v>6.719975989093757</v>
       </c>
       <c r="K26" s="3" t="n">
-        <v>22.875</v>
+        <v>25.5625</v>
       </c>
       <c r="L26" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="M26" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -3069,39 +3095,43 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>21.42857142857143</v>
       </c>
       <c r="Q26" t="n">
-        <v>-0.3671687243733402</v>
+        <v>2.448249865786698</v>
       </c>
       <c r="R26" t="n">
-        <v>-9.739226072607266</v>
-      </c>
-      <c r="S26" t="inlineStr"/>
+        <v>-1.471855818232291</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.402971400238117</v>
+      </c>
       <c r="T26" t="n">
-        <v>-2.958483057541788</v>
-      </c>
-      <c r="U26" t="inlineStr"/>
+        <v>-0.7848575186876374</v>
+      </c>
+      <c r="U26" s="3" t="n">
+        <v>0.125</v>
+      </c>
       <c r="V26" s="3" t="n">
-        <v>1.854166666666667</v>
+        <v>0.1638257575694444</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>0.4732766009975121</v>
       </c>
       <c r="X26" t="n">
-        <v>-29.03247702491641</v>
+        <v>-3.142097083454687</v>
       </c>
       <c r="Y26" t="n">
-        <v>-3.895163239028033</v>
+        <v>-4.197192438435174</v>
       </c>
       <c r="Z26" t="n">
-        <v>-5.009906248023673</v>
+        <v>-6.431711922651874</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.8702268139954393</v>
+        <v>0.8049524929847125</v>
       </c>
       <c r="AB26" t="n">
-        <v>-4.855975193356479</v>
+        <v>-6.350590025299955</v>
       </c>
       <c r="AC26" t="inlineStr">
         <is>
@@ -3134,10 +3164,10 @@
         <v>1000</v>
       </c>
       <c r="E27" t="n">
-        <v>1276.492006836402</v>
+        <v>1045.509832310449</v>
       </c>
       <c r="F27" t="n">
-        <v>27.64920068364015</v>
+        <v>4.550983231044915</v>
       </c>
       <c r="G27" t="n">
         <v>42.65801169098489</v>
@@ -3146,62 +3176,64 @@
         <v>100</v>
       </c>
       <c r="I27" t="n">
-        <v>3.322814147253206</v>
+        <v>12.28290153021357</v>
       </c>
       <c r="J27" t="n">
-        <v>8.472475133164576</v>
+        <v>3.430487937541551</v>
       </c>
       <c r="K27" s="3" t="n">
-        <v>9.427083333333334</v>
+        <v>9.020833333333334</v>
       </c>
       <c r="L27" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="M27" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="N27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>12.13059992584795</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>100</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="Q27" t="n">
-        <v>12.78102815265171</v>
+        <v>3.185921142094963</v>
       </c>
       <c r="R27" t="n">
-        <v>0.2192522176927835</v>
+        <v>-1.343944725228884</v>
       </c>
       <c r="S27" t="n">
-        <v>8.290855362171049</v>
-      </c>
-      <c r="T27" t="inlineStr"/>
+        <v>1.645907893573107</v>
+      </c>
+      <c r="T27" t="n">
+        <v>-0.8656624159025217</v>
+      </c>
       <c r="U27" s="3" t="n">
-        <v>6.423611111099537</v>
-      </c>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0.127976190474537</v>
+      </c>
+      <c r="V27" s="3" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1.638915020682429</v>
       </c>
       <c r="X27" t="n">
-        <v>88.12046897018452</v>
+        <v>3.033988820696583</v>
       </c>
       <c r="Y27" t="n">
-        <v>5.981406646784868</v>
+        <v>2.977802851191879</v>
       </c>
       <c r="Z27" t="n">
-        <v>218.0387892021419</v>
+        <v>20.93619767385437</v>
       </c>
       <c r="AA27" t="n">
-        <v>1.124410380405993</v>
+        <v>1.1888672870199</v>
       </c>
       <c r="AB27" t="n">
-        <v>9.424357922223646</v>
+        <v>5.394809034688169</v>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
@@ -3234,10 +3266,10 @@
         <v>1000</v>
       </c>
       <c r="E28" t="n">
-        <v>867.8766745874362</v>
+        <v>993.3741234542753</v>
       </c>
       <c r="F28" t="n">
-        <v>-13.21233254125637</v>
+        <v>-0.6625876545724736</v>
       </c>
       <c r="G28" t="n">
         <v>-5.924342341882882</v>
@@ -3246,60 +3278,64 @@
         <v>100</v>
       </c>
       <c r="I28" t="n">
-        <v>3.931787239167977</v>
+        <v>12.70548520136023</v>
       </c>
       <c r="J28" t="n">
-        <v>20.14256651177794</v>
+        <v>4.221057673227359</v>
       </c>
       <c r="K28" s="3" t="n">
-        <v>19.41666666666667</v>
+        <v>6.739583333333333</v>
       </c>
       <c r="L28" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="M28" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="N28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>49.2075335726779</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>-0.5282377746743011</v>
+        <v>2.935654619021199</v>
       </c>
       <c r="R28" t="n">
-        <v>-11.59730411793006</v>
-      </c>
-      <c r="S28" t="inlineStr"/>
+        <v>-1.168371996867152</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.392179460518929</v>
+      </c>
       <c r="T28" t="n">
-        <v>-3.834323655015512</v>
-      </c>
-      <c r="U28" t="inlineStr"/>
+        <v>-0.8900003823929071</v>
+      </c>
+      <c r="U28" s="3" t="n">
+        <v>0.1961805555439815</v>
+      </c>
       <c r="V28" s="3" t="n">
-        <v>2.397916666666667</v>
+        <v>0.1989583333333333</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>0.9254407421435132</v>
       </c>
       <c r="X28" t="n">
-        <v>-36.26617179704833</v>
+        <v>-0.4141172841078005</v>
       </c>
       <c r="Y28" t="n">
-        <v>-4.011146454300903</v>
+        <v>-0.393492089173663</v>
       </c>
       <c r="Z28" t="n">
-        <v>-4.129809219204247</v>
+        <v>-1.900936742858464</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.9129390394499735</v>
+        <v>0.9821809682412611</v>
       </c>
       <c r="AB28" t="n">
-        <v>-5.589387094851126</v>
+        <v>-0.6357434545312807</v>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
@@ -3332,10 +3368,10 @@
         <v>1000</v>
       </c>
       <c r="E29" t="n">
-        <v>838.297736737206</v>
+        <v>921.4766686517086</v>
       </c>
       <c r="F29" t="n">
-        <v>-16.1702263262794</v>
+        <v>-7.852333134829144</v>
       </c>
       <c r="G29" t="n">
         <v>-17.416500020531</v>
@@ -3344,19 +3380,19 @@
         <v>100</v>
       </c>
       <c r="I29" t="n">
-        <v>2.25083250252448</v>
+        <v>12.12303427932208</v>
       </c>
       <c r="J29" t="n">
-        <v>17.78724610407157</v>
+        <v>8.732288303979901</v>
       </c>
       <c r="K29" s="3" t="n">
-        <v>27.59375</v>
+        <v>25.04166666666667</v>
       </c>
       <c r="L29" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="M29" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -3365,39 +3401,43 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>18.75</v>
       </c>
       <c r="Q29" t="n">
-        <v>-1.166866537666871</v>
+        <v>1.655884350578344</v>
       </c>
       <c r="R29" t="n">
-        <v>-8.325230457530413</v>
-      </c>
-      <c r="S29" t="inlineStr"/>
+        <v>-2.497947554748262</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.517636701558151</v>
+      </c>
       <c r="T29" t="n">
-        <v>-5.658898734901</v>
-      </c>
-      <c r="U29" t="inlineStr"/>
+        <v>-0.9709459267172295</v>
+      </c>
+      <c r="U29" s="3" t="n">
+        <v>0.09375</v>
+      </c>
       <c r="V29" s="3" t="n">
-        <v>5.5</v>
+        <v>0.1987179487152778</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>0.3486887743226225</v>
       </c>
       <c r="X29" t="n">
-        <v>-53.9007544209313</v>
+        <v>-4.907708209268189</v>
       </c>
       <c r="Y29" t="n">
-        <v>-4.217367085363556</v>
+        <v>-5.179257678482754</v>
       </c>
       <c r="Z29" t="n">
-        <v>-4.964003545942811</v>
+        <v>-7.216153688041823</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.9175624441892709</v>
+        <v>0.7902580548424243</v>
       </c>
       <c r="AB29" t="n">
-        <v>-5.88596807731262</v>
+        <v>-6.755709486638204</v>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
@@ -3430,10 +3470,10 @@
         <v>1000</v>
       </c>
       <c r="E30" t="n">
-        <v>840.8245487123742</v>
+        <v>979.0255560116366</v>
       </c>
       <c r="F30" t="n">
-        <v>-15.91754512876258</v>
+        <v>-2.097444398836342</v>
       </c>
       <c r="G30" t="n">
         <v>-18.64515237908184</v>
@@ -3442,64 +3482,64 @@
         <v>100</v>
       </c>
       <c r="I30" t="n">
-        <v>3.637638239476095</v>
+        <v>14.73479798157362</v>
       </c>
       <c r="J30" t="n">
-        <v>20.68248017261392</v>
+        <v>4.963781617718894</v>
       </c>
       <c r="K30" s="3" t="n">
-        <v>17.40625</v>
+        <v>12.45833333333333</v>
       </c>
       <c r="L30" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="M30" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>-0.3916102224046549</v>
       </c>
       <c r="P30" t="n">
-        <v>40</v>
+        <v>38.88888888888889</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.444411863578856</v>
+        <v>1.867807956852667</v>
       </c>
       <c r="R30" t="n">
-        <v>-16.24532591638163</v>
+        <v>-1.757864186988372</v>
       </c>
       <c r="S30" t="n">
-        <v>1.862561617302642</v>
+        <v>1.316765633583326</v>
       </c>
       <c r="T30" t="n">
-        <v>-6.507309353966279</v>
+        <v>-1.015141064378202</v>
       </c>
       <c r="U30" s="3" t="n">
-        <v>3.145833333333333</v>
+        <v>0.15625</v>
       </c>
       <c r="V30" s="3" t="n">
-        <v>2.131944444444445</v>
+        <v>0.1193181818171296</v>
       </c>
       <c r="W30" t="n">
-        <v>0.1700328565182107</v>
+        <v>0.8157219837951336</v>
       </c>
       <c r="X30" t="n">
-        <v>-31.83509025752518</v>
+        <v>-1.143490764775477</v>
       </c>
       <c r="Y30" t="n">
-        <v>-4.48062538495685</v>
+        <v>-1.216245032145036</v>
       </c>
       <c r="Z30" t="n">
-        <v>-4.248019876169152</v>
+        <v>-4.578382180007535</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.8968989962257199</v>
+        <v>0.9348242742830117</v>
       </c>
       <c r="AB30" t="n">
-        <v>-6.159354364407969</v>
+        <v>-1.86881351688079</v>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
@@ -3532,10 +3572,10 @@
         <v>1000</v>
       </c>
       <c r="E31" t="n">
-        <v>801.7827979594492</v>
+        <v>973.5848486288299</v>
       </c>
       <c r="F31" t="n">
-        <v>-19.82172020405508</v>
+        <v>-2.641515137117005</v>
       </c>
       <c r="G31" t="n">
         <v>-2.051795542052193</v>
@@ -3544,60 +3584,64 @@
         <v>100</v>
       </c>
       <c r="I31" t="n">
-        <v>3.391890719705521</v>
+        <v>14.58893412258919</v>
       </c>
       <c r="J31" t="n">
-        <v>28.1289029951867</v>
+        <v>6.408854402814197</v>
       </c>
       <c r="K31" s="3" t="n">
-        <v>17.29166666666667</v>
+        <v>18.79166666666667</v>
       </c>
       <c r="L31" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="M31" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="N31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>-35.59330889463445</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>31.57894736842105</v>
       </c>
       <c r="Q31" t="n">
-        <v>-0.5094178056003964</v>
+        <v>2.699054854740044</v>
       </c>
       <c r="R31" t="n">
-        <v>-11.96253782031492</v>
-      </c>
-      <c r="S31" t="inlineStr"/>
+        <v>-1.240183757779628</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.224264908041841</v>
+      </c>
       <c r="T31" t="n">
-        <v>-4.224641576235194</v>
-      </c>
-      <c r="U31" t="inlineStr"/>
+        <v>-0.763052792315438</v>
+      </c>
+      <c r="U31" s="3" t="n">
+        <v>0.1267361111111111</v>
+      </c>
       <c r="V31" s="3" t="n">
-        <v>3.541666666666667</v>
+        <v>0.1217948717939815</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>0.7248817021513742</v>
       </c>
       <c r="X31" t="n">
-        <v>-40.65597328647907</v>
+        <v>-1.390271124798418</v>
       </c>
       <c r="Y31" t="n">
-        <v>-4.956945214523125</v>
+        <v>-2.398379336486723</v>
       </c>
       <c r="Z31" t="n">
-        <v>-3.375449695801124</v>
+        <v>-4.736371900397296</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.8953179403753664</v>
+        <v>0.8893585814972785</v>
       </c>
       <c r="AB31" t="n">
-        <v>-6.819180605419048</v>
+        <v>-3.344472768967734</v>
       </c>
       <c r="AC31" t="inlineStr">
         <is>
@@ -3630,10 +3674,10 @@
         <v>1000</v>
       </c>
       <c r="E32" t="n">
-        <v>1082.536818035648</v>
+        <v>1028.159236929774</v>
       </c>
       <c r="F32" t="n">
-        <v>8.253681803564803</v>
+        <v>2.815923692977367</v>
       </c>
       <c r="G32" t="n">
         <v>8.692764025869181</v>
@@ -3642,19 +3686,19 @@
         <v>100</v>
       </c>
       <c r="I32" t="n">
-        <v>6.332312381205821</v>
+        <v>12.519523258014</v>
       </c>
       <c r="J32" t="n">
-        <v>13.08089477668672</v>
+        <v>5.368090978064291</v>
       </c>
       <c r="K32" s="3" t="n">
-        <v>19.11458333333333</v>
+        <v>19.15625</v>
       </c>
       <c r="L32" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="M32" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -3663,43 +3707,43 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>50</v>
+        <v>43.75</v>
       </c>
       <c r="Q32" t="n">
-        <v>10.48606020791931</v>
+        <v>4.06011624209209</v>
       </c>
       <c r="R32" t="n">
-        <v>-1.290904412269268</v>
+        <v>-1.54945018742201</v>
       </c>
       <c r="S32" t="n">
-        <v>3.133453998529788</v>
+        <v>1.522057128657725</v>
       </c>
       <c r="T32" t="n">
-        <v>-1.01375443027218</v>
+        <v>-0.8577027350457426</v>
       </c>
       <c r="U32" s="3" t="n">
-        <v>3.598958333333333</v>
+        <v>0.2738095238078704</v>
       </c>
       <c r="V32" s="3" t="n">
-        <v>0.5859375</v>
+        <v>0.212962962962963</v>
       </c>
       <c r="W32" t="n">
-        <v>3.054238276291473</v>
+        <v>1.372761781882236</v>
       </c>
       <c r="X32" t="n">
-        <v>10.31710225445599</v>
+        <v>1.759952308110849</v>
       </c>
       <c r="Y32" t="n">
-        <v>2.679857131169693</v>
+        <v>2.035193402451107</v>
       </c>
       <c r="Z32" t="n">
-        <v>12.41243286783635</v>
+        <v>7.484828994419868</v>
       </c>
       <c r="AA32" t="n">
-        <v>1.06124003337695</v>
+        <v>1.112768077710256</v>
       </c>
       <c r="AB32" t="n">
-        <v>3.919852614143224</v>
+        <v>3.705285603980196</v>
       </c>
       <c r="AC32" t="inlineStr">
         <is>
@@ -3732,10 +3776,10 @@
         <v>1000</v>
       </c>
       <c r="E33" t="n">
-        <v>922.9963864829826</v>
+        <v>1048.624371691101</v>
       </c>
       <c r="F33" t="n">
-        <v>-7.700361351701736</v>
+        <v>4.862437169110126</v>
       </c>
       <c r="G33" t="n">
         <v>-15.38835919910037</v>
@@ -3744,19 +3788,19 @@
         <v>100</v>
       </c>
       <c r="I33" t="n">
-        <v>2.307283893695239</v>
+        <v>6.518535800467181</v>
       </c>
       <c r="J33" t="n">
-        <v>9.327301528888995</v>
+        <v>2.037224667942175</v>
       </c>
       <c r="K33" s="3" t="n">
-        <v>26.0625</v>
+        <v>4.083333333333333</v>
       </c>
       <c r="L33" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M33" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -3765,39 +3809,43 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Q33" t="n">
-        <v>-0.576025889967627</v>
+        <v>2.732464307692325</v>
       </c>
       <c r="R33" t="n">
-        <v>-6.627040245443057</v>
-      </c>
-      <c r="S33" t="inlineStr"/>
+        <v>-0.7966042640657752</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1.821815703742488</v>
+      </c>
       <c r="T33" t="n">
-        <v>-2.594381738077654</v>
-      </c>
-      <c r="U33" t="inlineStr"/>
+        <v>-0.6143066336520899</v>
+      </c>
+      <c r="U33" s="3" t="n">
+        <v>0.4010416666666667</v>
+      </c>
       <c r="V33" s="3" t="n">
-        <v>1.791666666666667</v>
+        <v>0.09895833333333333</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>2.936655247626549</v>
       </c>
       <c r="X33" t="n">
-        <v>-25.6678711723391</v>
+        <v>6.078046461387652</v>
       </c>
       <c r="Y33" t="n">
-        <v>-4.829448878009087</v>
+        <v>4.716091020901595</v>
       </c>
       <c r="Z33" t="n">
-        <v>-6.809192676384971</v>
+        <v>40.11976461551383</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.8439563616857735</v>
+        <v>1.352986642461824</v>
       </c>
       <c r="AB33" t="n">
-        <v>-6.347381257786521</v>
+        <v>9.440751920075657</v>
       </c>
       <c r="AC33" t="inlineStr">
         <is>
@@ -3830,10 +3878,10 @@
         <v>1000</v>
       </c>
       <c r="E34" t="n">
-        <v>988.1691664173765</v>
+        <v>883.9799946585173</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.183083358262354</v>
+        <v>-11.60200053414827</v>
       </c>
       <c r="G34" t="n">
         <v>-16.00856055717981</v>
@@ -3842,60 +3890,64 @@
         <v>100</v>
       </c>
       <c r="I34" t="n">
-        <v>3.444124893935486</v>
+        <v>15.00940321381012</v>
       </c>
       <c r="J34" t="n">
-        <v>11.06511232269466</v>
+        <v>14.94982493783188</v>
       </c>
       <c r="K34" s="3" t="n">
-        <v>27.66666666666667</v>
+        <v>20.09375</v>
       </c>
       <c r="L34" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="M34" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="N34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>82.79739180060278</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Q34" t="n">
-        <v>-0.5272558626932687</v>
+        <v>3.006116177604004</v>
       </c>
       <c r="R34" t="n">
-        <v>-3.785158528428095</v>
-      </c>
-      <c r="S34" t="inlineStr"/>
+        <v>-4.183301972377831</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.970874537252028</v>
+      </c>
       <c r="T34" t="n">
-        <v>-2.448079089439449</v>
-      </c>
-      <c r="U34" t="inlineStr"/>
+        <v>-1.455499696494709</v>
+      </c>
+      <c r="U34" s="3" t="n">
+        <v>0.2</v>
+      </c>
       <c r="V34" s="3" t="n">
-        <v>2.296875</v>
+        <v>0.1840277777777778</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>0.4388760015597353</v>
       </c>
       <c r="X34" t="n">
-        <v>-23.65705634580658</v>
+        <v>-5.801000267074143</v>
       </c>
       <c r="Y34" t="n">
-        <v>-0.2041316897077269</v>
+        <v>-4.591012888391171</v>
       </c>
       <c r="Z34" t="n">
-        <v>-1.217893205954087</v>
+        <v>-5.196339764079966</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.9946230739431248</v>
+        <v>0.7939500151533732</v>
       </c>
       <c r="AB34" t="n">
-        <v>-0.2679156860037489</v>
+        <v>-5.70631040889656</v>
       </c>
       <c r="AC34" t="inlineStr">
         <is>
@@ -3928,10 +3980,10 @@
         <v>1000</v>
       </c>
       <c r="E35" t="n">
-        <v>967.8397101466751</v>
+        <v>1003.706286970778</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.216028985332491</v>
+        <v>0.3706286970778251</v>
       </c>
       <c r="G35" t="n">
         <v>-36.60797793110385</v>
@@ -3940,19 +3992,19 @@
         <v>100</v>
       </c>
       <c r="I35" t="n">
-        <v>2.381164645514736</v>
+        <v>7.082798852965415</v>
       </c>
       <c r="J35" t="n">
-        <v>20.59570104962018</v>
+        <v>4.183717689286577</v>
       </c>
       <c r="K35" s="3" t="n">
-        <v>23.40625</v>
+        <v>12.65625</v>
       </c>
       <c r="L35" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M35" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -3964,40 +4016,40 @@
         <v>33.33333333333333</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.283395340850557</v>
+        <v>2.66916687391196</v>
       </c>
       <c r="R35" t="n">
-        <v>-3.270935985717922</v>
+        <v>-2.272130187606603</v>
       </c>
       <c r="S35" t="n">
-        <v>1.283395340850557</v>
+        <v>2.108194356920982</v>
       </c>
       <c r="T35" t="n">
-        <v>-2.241672255196729</v>
+        <v>-0.9737691806974721</v>
       </c>
       <c r="U35" s="3" t="n">
-        <v>4.125</v>
+        <v>0.1805555555439815</v>
       </c>
       <c r="V35" s="3" t="n">
-        <v>2.598958333333333</v>
+        <v>0.1267361111111111</v>
       </c>
       <c r="W35" t="n">
-        <v>0.2851539269294174</v>
+        <v>1.063952953272173</v>
       </c>
       <c r="X35" t="n">
-        <v>-10.72009661777495</v>
+        <v>0.4118096634197927</v>
       </c>
       <c r="Y35" t="n">
-        <v>-0.439789710302858</v>
+        <v>0.4054933589591971</v>
       </c>
       <c r="Z35" t="n">
-        <v>-1.637229088622562</v>
+        <v>1.138828564115132</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.98718886373224</v>
+        <v>1.028800556223394</v>
       </c>
       <c r="AB35" t="n">
-        <v>-0.6276944459351294</v>
+        <v>0.619244492745499</v>
       </c>
       <c r="AC35" t="inlineStr">
         <is>
@@ -4030,10 +4082,10 @@
         <v>1000</v>
       </c>
       <c r="E36" t="n">
-        <v>1079.713594312757</v>
+        <v>1030.648165193001</v>
       </c>
       <c r="F36" t="n">
-        <v>7.971359431275675</v>
+        <v>3.064816519300109</v>
       </c>
       <c r="G36" t="n">
         <v>19.92643328259749</v>
@@ -4042,64 +4094,64 @@
         <v>100</v>
       </c>
       <c r="I36" t="n">
-        <v>2.925864457773194</v>
+        <v>7.227064087016713</v>
       </c>
       <c r="J36" t="n">
-        <v>14.58821567175979</v>
+        <v>4.23633516140094</v>
       </c>
       <c r="K36" s="3" t="n">
-        <v>22.46875</v>
+        <v>13.23958333333333</v>
       </c>
       <c r="L36" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M36" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>40.20580362169744</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>33.33333333333333</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.733363811785656</v>
+        <v>2.448175511455114</v>
       </c>
       <c r="R36" t="n">
-        <v>-1.555117265229396</v>
+        <v>-1.555117265229386</v>
       </c>
       <c r="S36" t="n">
-        <v>6.733363811785656</v>
+        <v>1.64981935430637</v>
       </c>
       <c r="T36" t="n">
-        <v>-1.311108081037387</v>
+        <v>-1.280032205267904</v>
       </c>
       <c r="U36" s="3" t="n">
-        <v>2.479166666666667</v>
+        <v>0.2375</v>
       </c>
       <c r="V36" s="3" t="n">
-        <v>0.08854166666666667</v>
+        <v>0.1588541666666667</v>
       </c>
       <c r="W36" t="n">
-        <v>2.421198519715527</v>
+        <v>1.594491451323632</v>
       </c>
       <c r="X36" t="n">
-        <v>13.16926356368639</v>
+        <v>3.405351688111236</v>
       </c>
       <c r="Y36" t="n">
-        <v>2.656336058342147</v>
+        <v>2.450639743644246</v>
       </c>
       <c r="Z36" t="n">
-        <v>10.56769013625756</v>
+        <v>10.47194635525369</v>
       </c>
       <c r="AA36" t="n">
-        <v>1.080378213917206</v>
+        <v>1.175487244635775</v>
       </c>
       <c r="AB36" t="n">
-        <v>3.968318838529986</v>
+        <v>3.945544366030922</v>
       </c>
       <c r="AC36" t="inlineStr">
         <is>
@@ -4132,10 +4184,10 @@
         <v>1000</v>
       </c>
       <c r="E37" t="n">
-        <v>998.3033505708969</v>
+        <v>972.2963245834048</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.1696649429103104</v>
+        <v>-2.770367541659516</v>
       </c>
       <c r="G37" t="n">
         <v>-14.61345754714948</v>
@@ -4144,19 +4196,19 @@
         <v>100</v>
       </c>
       <c r="I37" t="n">
-        <v>1.593798623853961</v>
+        <v>10.16136033195776</v>
       </c>
       <c r="J37" t="n">
-        <v>2.283840190816949</v>
+        <v>4.990532256696359</v>
       </c>
       <c r="K37" s="3" t="n">
-        <v>18.66666666666667</v>
+        <v>26.44791666666667</v>
       </c>
       <c r="L37" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="M37" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -4165,43 +4217,43 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>50</v>
+        <v>30.76923076923077</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.5245016473887323</v>
+        <v>1.377521019345238</v>
       </c>
       <c r="R37" t="n">
-        <v>-0.6906136247697955</v>
+        <v>-1.44913778369875</v>
       </c>
       <c r="S37" t="n">
-        <v>0.5245016473887323</v>
+        <v>0.8305615738191332</v>
       </c>
       <c r="T37" t="n">
-        <v>-0.6906136247697955</v>
+        <v>-0.6766720669171445</v>
       </c>
       <c r="U37" s="3" t="n">
-        <v>1.489583333333333</v>
+        <v>0.140625</v>
       </c>
       <c r="V37" s="3" t="n">
-        <v>1.09375</v>
+        <v>0.2141203703703704</v>
       </c>
       <c r="W37" t="n">
-        <v>0.7542289888299744</v>
+        <v>0.5380443635018481</v>
       </c>
       <c r="X37" t="n">
-        <v>-0.8483247145515258</v>
+        <v>-2.131051955122712</v>
       </c>
       <c r="Y37" t="n">
-        <v>-0.161671651681511</v>
+        <v>-3.420382190513814</v>
       </c>
       <c r="Z37" t="n">
-        <v>-0.8950327333960052</v>
+        <v>-5.79975132710145</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.9919144364726833</v>
+        <v>0.8377419506915116</v>
       </c>
       <c r="AB37" t="n">
-        <v>-0.2315394147462944</v>
+        <v>-4.722901900335123</v>
       </c>
       <c r="AC37" t="inlineStr">
         <is>
@@ -4234,10 +4286,10 @@
         <v>1000</v>
       </c>
       <c r="E38" t="n">
-        <v>951.833902576863</v>
+        <v>952.5489944941795</v>
       </c>
       <c r="F38" t="n">
-        <v>-4.816609742313699</v>
+        <v>-4.745100550582048</v>
       </c>
       <c r="G38" t="n">
         <v>-2.832422858394057</v>
@@ -4246,60 +4298,64 @@
         <v>100</v>
       </c>
       <c r="I38" t="n">
-        <v>2.700196220183117</v>
+        <v>10.81055305007712</v>
       </c>
       <c r="J38" t="n">
-        <v>19.47842629534705</v>
+        <v>10.08785290472118</v>
       </c>
       <c r="K38" s="3" t="n">
-        <v>16.48958333333333</v>
+        <v>8.729166666666666</v>
       </c>
       <c r="L38" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="M38" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="N38" t="n">
         <v>1</v>
       </c>
       <c r="O38" t="n">
-        <v>-1.546008178349439</v>
+        <v>6.742742290642582</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>30.76923076923077</v>
       </c>
       <c r="Q38" t="n">
-        <v>-0.474216676404297</v>
+        <v>2.388318834400176</v>
       </c>
       <c r="R38" t="n">
-        <v>-3.587023212852616</v>
-      </c>
-      <c r="S38" t="inlineStr"/>
+        <v>-1.833297670836532</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1.330810924212149</v>
+      </c>
       <c r="T38" t="n">
-        <v>-1.568994029403261</v>
-      </c>
-      <c r="U38" t="inlineStr"/>
+        <v>-1.197832447600393</v>
+      </c>
+      <c r="U38" s="3" t="n">
+        <v>0.4661458333333333</v>
+      </c>
       <c r="V38" s="3" t="n">
-        <v>5.177083333333333</v>
+        <v>0.2175925925925926</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>0.4972402393237063</v>
       </c>
       <c r="X38" t="n">
-        <v>-15.54002974826248</v>
+        <v>-4.168749830497172</v>
       </c>
       <c r="Y38" t="n">
-        <v>-1.128954581450832</v>
+        <v>-2.746622891421678</v>
       </c>
       <c r="Z38" t="n">
-        <v>-2.375153267876435</v>
+        <v>-4.535564085405303</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.9747832396885282</v>
+        <v>0.8891685367662655</v>
       </c>
       <c r="AB38" t="n">
-        <v>-1.442717508520794</v>
+        <v>-3.630174384600475</v>
       </c>
       <c r="AC38" t="inlineStr">
         <is>
@@ -4332,10 +4388,10 @@
         <v>1000</v>
       </c>
       <c r="E39" t="n">
-        <v>1011.91356777073</v>
+        <v>991.8820752131044</v>
       </c>
       <c r="F39" t="n">
-        <v>1.191356777073042</v>
+        <v>-0.8117924786895628</v>
       </c>
       <c r="G39" t="n">
         <v>6.18999871448751</v>
@@ -4344,64 +4400,64 @@
         <v>100</v>
       </c>
       <c r="I39" t="n">
-        <v>6.210633664510013</v>
+        <v>11.53448355633135</v>
       </c>
       <c r="J39" t="n">
-        <v>7.829757138926544</v>
+        <v>1.563614441600862</v>
       </c>
       <c r="K39" s="3" t="n">
-        <v>20.5625</v>
+        <v>21.07291666666667</v>
       </c>
       <c r="L39" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M39" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>2.127339019886608</v>
       </c>
       <c r="P39" t="n">
-        <v>12.5</v>
+        <v>35.71428571428572</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.858069836813477</v>
+        <v>1.191702657188433</v>
       </c>
       <c r="R39" t="n">
-        <v>-2.107658539244013</v>
+        <v>-0.9012967283919938</v>
       </c>
       <c r="S39" t="n">
-        <v>6.858069836813477</v>
+        <v>0.5205632033966762</v>
       </c>
       <c r="T39" t="n">
-        <v>-0.7735869191646688</v>
+        <v>-0.4015602902766517</v>
       </c>
       <c r="U39" s="3" t="n">
-        <v>4.854166666666667</v>
+        <v>0.075</v>
       </c>
       <c r="V39" s="3" t="n">
-        <v>1.318452380949074</v>
+        <v>0.2824074074074074</v>
       </c>
       <c r="W39" t="n">
-        <v>1.224758955213677</v>
+        <v>0.7153984881832721</v>
       </c>
       <c r="X39" t="n">
-        <v>1.489195971341308</v>
+        <v>-0.7318045576273347</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.6792212086446933</v>
+        <v>-1.278574203753925</v>
       </c>
       <c r="Z39" t="n">
-        <v>1.978763062008395</v>
+        <v>-6.036087505235452</v>
       </c>
       <c r="AA39" t="n">
-        <v>1.016271875827396</v>
+        <v>0.9423023131597079</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.993930490242485</v>
+        <v>-1.837816484514594</v>
       </c>
       <c r="AC39" t="inlineStr">
         <is>
@@ -4434,10 +4490,10 @@
         <v>1000</v>
       </c>
       <c r="E40" t="n">
-        <v>966.0770481977503</v>
+        <v>1019.266948015054</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.392295180224971</v>
+        <v>1.926694801505437</v>
       </c>
       <c r="G40" t="n">
         <v>-19.767623587329</v>
@@ -4446,19 +4502,19 @@
         <v>100</v>
       </c>
       <c r="I40" t="n">
-        <v>5.515097822436339</v>
+        <v>13.11922702420295</v>
       </c>
       <c r="J40" t="n">
-        <v>5.11802290770633</v>
+        <v>4.545112227740042</v>
       </c>
       <c r="K40" s="3" t="n">
-        <v>11.89583333333333</v>
+        <v>14.35416666666667</v>
       </c>
       <c r="L40" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="M40" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -4467,39 +4523,43 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="Q40" t="n">
-        <v>-0.2287169827167202</v>
+        <v>4.096743113599875</v>
       </c>
       <c r="R40" t="n">
-        <v>-0.8288857973947248</v>
-      </c>
-      <c r="S40" t="inlineStr"/>
+        <v>-1.625844069917095</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1.287278358716899</v>
+      </c>
       <c r="T40" t="n">
-        <v>-0.491844647844585</v>
-      </c>
-      <c r="U40" t="inlineStr"/>
+        <v>-0.5691585128168419</v>
+      </c>
+      <c r="U40" s="3" t="n">
+        <v>0.4322916666666667</v>
+      </c>
       <c r="V40" s="3" t="n">
-        <v>0.537202380949074</v>
+        <v>0.3583333333333333</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>1.328318768613064</v>
       </c>
       <c r="X40" t="n">
-        <v>-4.846135971749956</v>
+        <v>1.204184250940861</v>
       </c>
       <c r="Y40" t="n">
-        <v>-4.699517499499535</v>
+        <v>1.556415427837933</v>
       </c>
       <c r="Z40" t="n">
-        <v>-6.882095215026284</v>
+        <v>5.970868619646458</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.8130611424280776</v>
+        <v>1.053913128801818</v>
       </c>
       <c r="AB40" t="n">
-        <v>-6.250781442378237</v>
+        <v>2.286125934560056</v>
       </c>
       <c r="AC40" t="inlineStr">
         <is>
@@ -4532,10 +4592,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>981.3315492567164</v>
+        <v>970.367315711478</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.866845074328364</v>
+        <v>-2.9632684288522</v>
       </c>
       <c r="G41" t="n">
         <v>-3.436732222494177</v>
@@ -4544,19 +4604,19 @@
         <v>100</v>
       </c>
       <c r="I41" t="n">
-        <v>3.979853737505022</v>
+        <v>10.23926930114861</v>
       </c>
       <c r="J41" t="n">
-        <v>10.99850145488342</v>
+        <v>2.976070866516181</v>
       </c>
       <c r="K41" s="3" t="n">
-        <v>16.22916666666667</v>
+        <v>27.70833333333333</v>
       </c>
       <c r="L41" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="M41" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -4565,43 +4625,43 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>40</v>
+        <v>15.38461538461539</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.141232103353689</v>
+        <v>0.4249139475669384</v>
       </c>
       <c r="R41" t="n">
-        <v>-2.77272533351983</v>
+        <v>-0.6620781824256554</v>
       </c>
       <c r="S41" t="n">
-        <v>0.6352827740290126</v>
+        <v>0.3172821531819227</v>
       </c>
       <c r="T41" t="n">
-        <v>-1.03660024306797</v>
+        <v>-0.3304836512745055</v>
       </c>
       <c r="U41" s="3" t="n">
-        <v>5.114583333333333</v>
+        <v>0.328125</v>
       </c>
       <c r="V41" s="3" t="n">
-        <v>2.413194444444445</v>
+        <v>0.2329545454513889</v>
       </c>
       <c r="W41" t="n">
-        <v>0.4044140901622462</v>
+        <v>0.1743072175917091</v>
       </c>
       <c r="X41" t="n">
-        <v>-3.733690148656737</v>
+        <v>-2.279437252963239</v>
       </c>
       <c r="Y41" t="n">
-        <v>-0.8905134904270258</v>
+        <v>-7.491605585992451</v>
       </c>
       <c r="Z41" t="n">
-        <v>-1.862350065419462</v>
+        <v>-10.29530893707592</v>
       </c>
       <c r="AA41" t="n">
-        <v>0.9795393943840411</v>
+        <v>0.715828681913239</v>
       </c>
       <c r="AB41" t="n">
-        <v>-1.235042693189602</v>
+        <v>-9.746654493334177</v>
       </c>
       <c r="AC41" t="inlineStr">
         <is>
@@ -4634,10 +4694,10 @@
         <v>1000</v>
       </c>
       <c r="E42" t="n">
-        <v>1061.230505657585</v>
+        <v>965.9474308289358</v>
       </c>
       <c r="F42" t="n">
-        <v>6.123050565758501</v>
+        <v>-3.40525691710642</v>
       </c>
       <c r="G42" t="n">
         <v>37.89882184847468</v>
@@ -4646,64 +4706,64 @@
         <v>100</v>
       </c>
       <c r="I42" t="n">
-        <v>3.792789678745838</v>
+        <v>9.448572908596987</v>
       </c>
       <c r="J42" t="n">
-        <v>5.356890669660099</v>
+        <v>5.884109583625804</v>
       </c>
       <c r="K42" s="3" t="n">
-        <v>14.46875</v>
+        <v>8.125</v>
       </c>
       <c r="L42" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="M42" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="N42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>-15.69400076117427</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>50</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="Q42" t="n">
-        <v>8.311993794967464</v>
+        <v>1.22122562807113</v>
       </c>
       <c r="R42" t="n">
-        <v>-0.6793319057815763</v>
+        <v>-1.684532790122789</v>
       </c>
       <c r="S42" t="n">
-        <v>4.286381521284102</v>
+        <v>0.7184100704504782</v>
       </c>
       <c r="T42" t="n">
-        <v>-0.4144008817002274</v>
+        <v>-0.7866283697473466</v>
       </c>
       <c r="U42" s="3" t="n">
-        <v>3.197916666666667</v>
+        <v>0.2682291666666667</v>
       </c>
       <c r="V42" s="3" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.19921875</v>
       </c>
       <c r="W42" t="n">
-        <v>9.68509979501356</v>
+        <v>0.4538239179178275</v>
       </c>
       <c r="X42" t="n">
-        <v>19.23112660468982</v>
+        <v>-2.837714097588669</v>
       </c>
       <c r="Y42" t="n">
-        <v>2.713009094323127</v>
+        <v>-4.26472613206656</v>
       </c>
       <c r="Z42" t="n">
-        <v>19.79132707968789</v>
+        <v>-5.84384461791106</v>
       </c>
       <c r="AA42" t="n">
-        <v>1.087534393621017</v>
+        <v>0.7973332460658759</v>
       </c>
       <c r="AB42" t="n">
-        <v>3.724302025702234</v>
+        <v>-5.331995919464565</v>
       </c>
       <c r="AC42" t="inlineStr">
         <is>
@@ -4736,10 +4796,10 @@
         <v>1000</v>
       </c>
       <c r="E43" t="n">
-        <v>998.770027051473</v>
+        <v>992.3043302725424</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.1229972948527006</v>
+        <v>-0.7695669727457585</v>
       </c>
       <c r="G43" t="n">
         <v>1.692903494103426</v>
@@ -4748,19 +4808,19 @@
         <v>100</v>
       </c>
       <c r="I43" t="n">
-        <v>3.148322732123622</v>
+        <v>16.69580148067828</v>
       </c>
       <c r="J43" t="n">
-        <v>8.609353173936768</v>
+        <v>4.605371503637704</v>
       </c>
       <c r="K43" s="3" t="n">
-        <v>8.333333333333334</v>
+        <v>10.16666666666667</v>
       </c>
       <c r="L43" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="M43" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -4769,43 +4829,43 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="Q43" t="n">
-        <v>7.539287496796292</v>
+        <v>2.205972323261062</v>
       </c>
       <c r="R43" t="n">
-        <v>-6.011561456594315</v>
+        <v>-1.469988095337192</v>
       </c>
       <c r="S43" t="n">
-        <v>7.539287496796292</v>
+        <v>1.323914700171409</v>
       </c>
       <c r="T43" t="n">
-        <v>-2.399996606700877</v>
+        <v>-0.7094607745925627</v>
       </c>
       <c r="U43" s="3" t="n">
-        <v>9.395833333333334</v>
+        <v>0.4880952380902777</v>
       </c>
       <c r="V43" s="3" t="n">
-        <v>2.451388888888889</v>
+        <v>0.1458333333333333</v>
       </c>
       <c r="W43" t="n">
-        <v>0.9828486170897562</v>
+        <v>0.9223321427263094</v>
       </c>
       <c r="X43" t="n">
-        <v>-0.3074932371317374</v>
+        <v>-0.3664604632122739</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.1454103457109236</v>
+        <v>-0.4705556290049491</v>
       </c>
       <c r="Z43" t="n">
-        <v>-0.1915787867040051</v>
+        <v>-2.152522359207624</v>
       </c>
       <c r="AA43" t="n">
-        <v>1.003090735157901</v>
+        <v>0.9819145207275695</v>
       </c>
       <c r="AB43" t="n">
-        <v>0.2063523527922708</v>
+        <v>-0.6825582378992682</v>
       </c>
       <c r="AC43" t="inlineStr">
         <is>
@@ -4838,10 +4898,10 @@
         <v>1000</v>
       </c>
       <c r="E44" t="n">
-        <v>1214.500072610316</v>
+        <v>1019.694678362026</v>
       </c>
       <c r="F44" t="n">
-        <v>21.45000726103157</v>
+        <v>1.969467836202557</v>
       </c>
       <c r="G44" t="n">
         <v>20.9176158574248</v>
@@ -4850,64 +4910,64 @@
         <v>100</v>
       </c>
       <c r="I44" t="n">
-        <v>4.730679391687111</v>
+        <v>14.39362905170808</v>
       </c>
       <c r="J44" t="n">
-        <v>13.81684835658643</v>
+        <v>2.367084302703826</v>
       </c>
       <c r="K44" s="3" t="n">
-        <v>7.53125</v>
+        <v>9.552083333333334</v>
       </c>
       <c r="L44" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="M44" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="N44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>-1.99183738635611</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="Q44" t="n">
-        <v>23.91772809366631</v>
+        <v>2.5784738543036</v>
       </c>
       <c r="R44" t="n">
-        <v>-0.6448748705125869</v>
+        <v>-1.516636454770846</v>
       </c>
       <c r="S44" t="n">
-        <v>23.91772809366631</v>
+        <v>1.380159576658744</v>
       </c>
       <c r="T44" t="n">
-        <v>-0.4589652586628318</v>
+        <v>-0.5189836020788735</v>
       </c>
       <c r="U44" s="3" t="n">
-        <v>13.875</v>
+        <v>0.3368055555555556</v>
       </c>
       <c r="V44" s="3" t="n">
-        <v>0.2083333333333333</v>
+        <v>0.08854166666666667</v>
       </c>
       <c r="W44" t="n">
-        <v>11.95944395860415</v>
+        <v>1.3150588599497</v>
       </c>
       <c r="X44" t="n">
-        <v>43.29838199933436</v>
+        <v>1.094148797890322</v>
       </c>
       <c r="Y44" t="n">
-        <v>4.197584568823045</v>
+        <v>1.545020821155116</v>
       </c>
       <c r="Z44" t="n">
-        <v>69.68814777477363</v>
+        <v>11.30942792584161</v>
       </c>
       <c r="AA44" t="n">
-        <v>1.083102489934287</v>
+        <v>1.081871974585449</v>
       </c>
       <c r="AB44" t="n">
-        <v>6.399458306754181</v>
+        <v>2.440092760619553</v>
       </c>
       <c r="AC44" t="inlineStr">
         <is>
@@ -4940,10 +5000,10 @@
         <v>1000</v>
       </c>
       <c r="E45" t="n">
-        <v>1017.980737211155</v>
+        <v>1016.938445922139</v>
       </c>
       <c r="F45" t="n">
-        <v>1.798073721115532</v>
+        <v>1.693844592213884</v>
       </c>
       <c r="G45" t="n">
         <v>2.478668777267123</v>
@@ -4952,64 +5012,64 @@
         <v>100</v>
       </c>
       <c r="I45" t="n">
-        <v>5.582564576137194</v>
+        <v>9.957686873203105</v>
       </c>
       <c r="J45" t="n">
-        <v>8.077449507594729</v>
+        <v>3.624818978479573</v>
       </c>
       <c r="K45" s="3" t="n">
-        <v>12.14583333333333</v>
+        <v>21.3125</v>
       </c>
       <c r="L45" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="M45" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>-0.3161975999121537</v>
       </c>
       <c r="P45" t="n">
-        <v>28.57142857142857</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="Q45" t="n">
-        <v>4.977168435229927</v>
+        <v>2.600006101238984</v>
       </c>
       <c r="R45" t="n">
-        <v>-1.536222237413506</v>
+        <v>-0.6887700435934644</v>
       </c>
       <c r="S45" t="n">
-        <v>2.73944424037549</v>
+        <v>1.202380655968144</v>
       </c>
       <c r="T45" t="n">
-        <v>-0.7114329752229478</v>
+        <v>-0.3810722349504683</v>
       </c>
       <c r="U45" s="3" t="n">
-        <v>3.036458333333333</v>
+        <v>0.1614583333333333</v>
       </c>
       <c r="V45" s="3" t="n">
-        <v>0.7249999999884259</v>
+        <v>0.1106770833333333</v>
       </c>
       <c r="W45" t="n">
-        <v>1.507736482772491</v>
+        <v>1.56800557525371</v>
       </c>
       <c r="X45" t="n">
-        <v>2.568676744450776</v>
+        <v>1.437886960170943</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.866727475770534</v>
+        <v>1.76775494052317</v>
       </c>
       <c r="Z45" t="n">
-        <v>3.111675717214969</v>
+        <v>6.491890066991218</v>
       </c>
       <c r="AA45" t="n">
-        <v>1.029456890666404</v>
+        <v>1.092771651539454</v>
       </c>
       <c r="AB45" t="n">
-        <v>1.282613879205533</v>
+        <v>2.890590662280988</v>
       </c>
       <c r="AC45" t="inlineStr">
         <is>
@@ -5042,10 +5102,10 @@
         <v>1000</v>
       </c>
       <c r="E46" t="n">
-        <v>1006.325734948106</v>
+        <v>1014.575269154348</v>
       </c>
       <c r="F46" t="n">
-        <v>0.6325734948105719</v>
+        <v>1.457526915434823</v>
       </c>
       <c r="G46" t="n">
         <v>-5.469454386492146</v>
@@ -5054,64 +5114,64 @@
         <v>100</v>
       </c>
       <c r="I46" t="n">
-        <v>2.363375942664278</v>
+        <v>5.218000626316557</v>
       </c>
       <c r="J46" t="n">
-        <v>8.309934861483406</v>
+        <v>1.185477288508339</v>
       </c>
       <c r="K46" s="3" t="n">
-        <v>18.22916666666667</v>
+        <v>13.02083333333333</v>
       </c>
       <c r="L46" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M46" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>3.549062244830923</v>
       </c>
       <c r="P46" t="n">
-        <v>33.33333333333333</v>
+        <v>50</v>
       </c>
       <c r="Q46" t="n">
-        <v>4.827286907403065</v>
+        <v>1.101277091217031</v>
       </c>
       <c r="R46" t="n">
-        <v>-3.134376498064041</v>
+        <v>-0.6332083792723309</v>
       </c>
       <c r="S46" t="n">
-        <v>4.827286907403065</v>
+        <v>0.9221101227275896</v>
       </c>
       <c r="T46" t="n">
-        <v>-2.014711218528525</v>
+        <v>-0.5503740139046046</v>
       </c>
       <c r="U46" s="3" t="n">
-        <v>4.78125</v>
+        <v>0.1006944444328704</v>
       </c>
       <c r="V46" s="3" t="n">
-        <v>6.416666666666667</v>
+        <v>0.1284722222222222</v>
       </c>
       <c r="W46" t="n">
-        <v>1.158152086585677</v>
+        <v>1.666034204660467</v>
       </c>
       <c r="X46" t="n">
-        <v>2.108578316035217</v>
+        <v>1.837701151586218</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.418053839815189</v>
+        <v>2.753236826963608</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.9592339498527642</v>
+        <v>16.23209744777146</v>
       </c>
       <c r="AA46" t="n">
-        <v>1.009492626609308</v>
+        <v>1.251402905837409</v>
       </c>
       <c r="AB46" t="n">
-        <v>0.5624624485381587</v>
+        <v>5.179444373188232</v>
       </c>
       <c r="AC46" t="inlineStr">
         <is>
@@ -5144,10 +5204,10 @@
         <v>1000</v>
       </c>
       <c r="E47" t="n">
-        <v>996.4822775235292</v>
+        <v>1044.626485589409</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.3517722476470794</v>
+        <v>4.462648558940919</v>
       </c>
       <c r="G47" t="n">
         <v>11.37645593729404</v>
@@ -5156,64 +5216,64 @@
         <v>100</v>
       </c>
       <c r="I47" t="n">
-        <v>5.937203376906935</v>
+        <v>13.63251060584284</v>
       </c>
       <c r="J47" t="n">
-        <v>6.647515243710016</v>
+        <v>2.168668806995494</v>
       </c>
       <c r="K47" s="3" t="n">
-        <v>8.572916666666666</v>
+        <v>5.229166666666667</v>
       </c>
       <c r="L47" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="M47" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="N47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O47" t="n">
-        <v>-10.29921192150755</v>
+        <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>28.57142857142857</v>
+        <v>47.05882352941176</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.000976004313842</v>
+        <v>2.289528588865244</v>
       </c>
       <c r="R47" t="n">
-        <v>-0.8095528574324542</v>
+        <v>-0.7257447163346402</v>
       </c>
       <c r="S47" t="n">
-        <v>1.528883405609946</v>
+        <v>1.067902919693322</v>
       </c>
       <c r="T47" t="n">
-        <v>-0.4698097522028932</v>
+        <v>-0.4561255860781055</v>
       </c>
       <c r="U47" s="3" t="n">
-        <v>2.916666666666667</v>
+        <v>0.30859375</v>
       </c>
       <c r="V47" s="3" t="n">
-        <v>0.5875</v>
+        <v>0.1435185185185185</v>
       </c>
       <c r="W47" t="n">
-        <v>1.291316117938757</v>
+        <v>2.086235456953739</v>
       </c>
       <c r="X47" t="n">
-        <v>0.9687842064338237</v>
+        <v>2.625087387612334</v>
       </c>
       <c r="Y47" t="n">
-        <v>-0.05030155944168586</v>
+        <v>4.335595410762148</v>
       </c>
       <c r="Z47" t="n">
-        <v>-0.6524001438006133</v>
+        <v>33.75598191125626</v>
       </c>
       <c r="AA47" t="n">
-        <v>0.998807406980976</v>
+        <v>1.23426482085669</v>
       </c>
       <c r="AB47" t="n">
-        <v>-0.07095759559718097</v>
+        <v>7.894293630547272</v>
       </c>
       <c r="AC47" t="inlineStr">
         <is>
@@ -5246,10 +5306,10 @@
         <v>1000</v>
       </c>
       <c r="E48" t="n">
-        <v>982.6880317248969</v>
+        <v>925.2719438316303</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.731196827510314</v>
+        <v>-7.472805616836968</v>
       </c>
       <c r="G48" t="n">
         <v>-3.892097534052152</v>
@@ -5258,60 +5318,64 @@
         <v>100</v>
       </c>
       <c r="I48" t="n">
-        <v>5.159369571898738</v>
+        <v>21.42980414914416</v>
       </c>
       <c r="J48" t="n">
-        <v>2.692095200522308</v>
+        <v>7.605645344886769</v>
       </c>
       <c r="K48" s="3" t="n">
-        <v>10.6875</v>
+        <v>22.88541666666667</v>
       </c>
       <c r="L48" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="M48" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="N48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O48" t="n">
-        <v>-4.536587718215856</v>
+        <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>0</v>
+        <v>10.71428571428571</v>
       </c>
       <c r="Q48" t="n">
-        <v>-0.0007125054275505636</v>
+        <v>0.514654381572361</v>
       </c>
       <c r="R48" t="n">
-        <v>-0.4957825581861038</v>
-      </c>
-      <c r="S48" t="inlineStr"/>
+        <v>-0.6637557522950838</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0.2864496424168345</v>
+      </c>
       <c r="T48" t="n">
-        <v>-0.2139887884147925</v>
-      </c>
-      <c r="U48" t="inlineStr"/>
+        <v>-0.3444254171990208</v>
+      </c>
+      <c r="U48" s="3" t="n">
+        <v>0.09375</v>
+      </c>
       <c r="V48" s="3" t="n">
-        <v>1.185763888888889</v>
+        <v>0.16</v>
       </c>
       <c r="W48" t="n">
-        <v>0</v>
+        <v>0.09834987927471882</v>
       </c>
       <c r="X48" t="n">
-        <v>-2.129230092814562</v>
+        <v>-2.668859148870333</v>
       </c>
       <c r="Y48" t="n">
-        <v>-1.956336379691348</v>
+        <v>-14.42882816817726</v>
       </c>
       <c r="Z48" t="n">
-        <v>-7.108165977447789</v>
+        <v>-8.035816405341306</v>
       </c>
       <c r="AA48" t="n">
-        <v>0.9409837977481579</v>
+        <v>0.546548494490016</v>
       </c>
       <c r="AB48" t="n">
-        <v>-2.591706499350821</v>
+        <v>-16.9380683518743</v>
       </c>
       <c r="AC48" t="inlineStr">
         <is>
@@ -5344,10 +5408,10 @@
         <v>1000</v>
       </c>
       <c r="E49" t="n">
-        <v>1038.225380080454</v>
+        <v>1012.06643753325</v>
       </c>
       <c r="F49" t="n">
-        <v>3.822538008045421</v>
+        <v>1.206643753325045</v>
       </c>
       <c r="G49" t="n">
         <v>-6.714039753687362</v>
@@ -5356,64 +5420,64 @@
         <v>100</v>
       </c>
       <c r="I49" t="n">
-        <v>5.189074686881625</v>
+        <v>8.006268303128719</v>
       </c>
       <c r="J49" t="n">
-        <v>4.064914194250131</v>
+        <v>4.0530320908218</v>
       </c>
       <c r="K49" s="3" t="n">
-        <v>20.0625</v>
+        <v>8.177083333333334</v>
       </c>
       <c r="L49" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="M49" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>45.94232068811243</v>
+        <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>16.66666666666666</v>
+        <v>30</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.9963061495395333</v>
+        <v>2.808476611738828</v>
       </c>
       <c r="R49" t="n">
-        <v>-0.5313654136264222</v>
+        <v>-1.102137665341647</v>
       </c>
       <c r="S49" t="n">
-        <v>0.9963061495395333</v>
+        <v>1.381452885860699</v>
       </c>
       <c r="T49" t="n">
-        <v>-0.3525940214247232</v>
+        <v>-0.412980917001364</v>
       </c>
       <c r="U49" s="3" t="n">
-        <v>6.427083333333333</v>
+        <v>1.513888888888889</v>
       </c>
       <c r="V49" s="3" t="n">
-        <v>0.975</v>
+        <v>0.9196428571412036</v>
       </c>
       <c r="W49" t="n">
-        <v>0.5621127034804171</v>
+        <v>1.417007887698008</v>
       </c>
       <c r="X49" t="n">
-        <v>-1.286156767943048</v>
+        <v>1.206643753325038</v>
       </c>
       <c r="Y49" t="n">
-        <v>2.339710569522064</v>
+        <v>1.018173974888714</v>
       </c>
       <c r="Z49" t="n">
-        <v>14.22274369048153</v>
+        <v>3.875029322229623</v>
       </c>
       <c r="AA49" t="n">
-        <v>1.067676374172406</v>
+        <v>1.036316060958218</v>
       </c>
       <c r="AB49" t="n">
-        <v>4.270838684637749</v>
+        <v>1.835764814976103</v>
       </c>
       <c r="AC49" t="inlineStr">
         <is>
@@ -5446,10 +5510,10 @@
         <v>1000</v>
       </c>
       <c r="E50" t="n">
-        <v>998.1626338481014</v>
+        <v>979.5764118377058</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.183736615189855</v>
+        <v>-2.042358816229421</v>
       </c>
       <c r="G50" t="n">
         <v>3.552803254523162</v>
@@ -5458,64 +5522,64 @@
         <v>100</v>
       </c>
       <c r="I50" t="n">
-        <v>6.778483532801684</v>
+        <v>17.89042460775408</v>
       </c>
       <c r="J50" t="n">
-        <v>6.145907971405905</v>
+        <v>3.259037417950704</v>
       </c>
       <c r="K50" s="3" t="n">
-        <v>14.05208333333333</v>
+        <v>12.96875</v>
       </c>
       <c r="L50" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="M50" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="N50" t="n">
         <v>1</v>
       </c>
       <c r="O50" t="n">
-        <v>24.85297115230344</v>
+        <v>-0.5594324532937309</v>
       </c>
       <c r="P50" t="n">
-        <v>12.5</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.689782930037138</v>
+        <v>0.9897846526250583</v>
       </c>
       <c r="R50" t="n">
-        <v>-2.350714464482885</v>
+        <v>-0.528906766006547</v>
       </c>
       <c r="S50" t="n">
-        <v>2.689782930037138</v>
+        <v>0.4389564747695682</v>
       </c>
       <c r="T50" t="n">
-        <v>-0.7596866984558512</v>
+        <v>-0.2890860568692567</v>
       </c>
       <c r="U50" s="3" t="n">
-        <v>9.385416666666666</v>
+        <v>0.1753472222106481</v>
       </c>
       <c r="V50" s="3" t="n">
-        <v>0.9657738095138888</v>
+        <v>0.1783854166666667</v>
       </c>
       <c r="W50" t="n">
-        <v>0.5003095079676262</v>
+        <v>0.5679916921074009</v>
       </c>
       <c r="X50" t="n">
-        <v>-3.33629216302523</v>
+        <v>-0.9029161685908891</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.02461550737726813</v>
+        <v>-3.756375328496375</v>
       </c>
       <c r="Z50" t="n">
-        <v>-0.3721629051365311</v>
+        <v>-7.016123628567331</v>
       </c>
       <c r="AA50" t="n">
-        <v>1.000502438427258</v>
+        <v>0.8612649316751535</v>
       </c>
       <c r="AB50" t="n">
-        <v>0.03666080082690362</v>
+        <v>-5.040568167014572</v>
       </c>
       <c r="AC50" t="inlineStr">
         <is>
@@ -5548,10 +5612,10 @@
         <v>1000</v>
       </c>
       <c r="E51" t="n">
-        <v>1187.830435262015</v>
+        <v>991.1215882499744</v>
       </c>
       <c r="F51" t="n">
-        <v>18.7830435262015</v>
+        <v>-0.8878411750025634</v>
       </c>
       <c r="G51" t="n">
         <v>28.0391022503077</v>
@@ -5560,64 +5624,64 @@
         <v>100</v>
       </c>
       <c r="I51" t="n">
-        <v>5.973124345669168</v>
+        <v>14.32130950185781</v>
       </c>
       <c r="J51" t="n">
-        <v>5.086419585498215</v>
+        <v>4.68867742939026</v>
       </c>
       <c r="K51" s="3" t="n">
-        <v>7.260416666666667</v>
+        <v>17.34375</v>
       </c>
       <c r="L51" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="M51" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="N51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>156.8172061720636</v>
+        <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>14.28571428571428</v>
+        <v>27.77777777777778</v>
       </c>
       <c r="Q51" t="n">
-        <v>4.939630571543323</v>
+        <v>1.265731999173378</v>
       </c>
       <c r="R51" t="n">
-        <v>-0.4092205205481404</v>
+        <v>-0.8900879765395822</v>
       </c>
       <c r="S51" t="n">
-        <v>4.939630571543323</v>
+        <v>0.8799643737482256</v>
       </c>
       <c r="T51" t="n">
-        <v>-0.2939025920091197</v>
+        <v>-0.4043114291498386</v>
       </c>
       <c r="U51" s="3" t="n">
-        <v>2.760416666666667</v>
+        <v>0.4083333333333333</v>
       </c>
       <c r="V51" s="3" t="n">
-        <v>0.08680555555555555</v>
+        <v>0.1290064102546296</v>
       </c>
       <c r="W51" t="n">
-        <v>2.772258222646122</v>
+        <v>0.8300312162360129</v>
       </c>
       <c r="X51" t="n">
-        <v>4.430461298564501</v>
+        <v>-0.4932450972236184</v>
       </c>
       <c r="Y51" t="n">
-        <v>4.914861364135207</v>
+        <v>-0.894653486772129</v>
       </c>
       <c r="Z51" t="n">
-        <v>139.8485819258839</v>
+        <v>-2.192303950172999</v>
       </c>
       <c r="AA51" t="n">
-        <v>1.190552616026215</v>
+        <v>0.9585069665437108</v>
       </c>
       <c r="AB51" t="n">
-        <v>8.215656689865828</v>
+        <v>-1.334450303185242</v>
       </c>
       <c r="AC51" t="inlineStr">
         <is>
@@ -5650,10 +5714,10 @@
         <v>1000</v>
       </c>
       <c r="E52" t="n">
-        <v>1072.815991815372</v>
+        <v>1010.503580585331</v>
       </c>
       <c r="F52" t="n">
-        <v>7.281599181537183</v>
+        <v>1.050358058533072</v>
       </c>
       <c r="G52" t="n">
         <v>9.140403298983646</v>
@@ -5662,64 +5726,64 @@
         <v>100</v>
       </c>
       <c r="I52" t="n">
-        <v>3.732296355011437</v>
+        <v>9.627886385580194</v>
       </c>
       <c r="J52" t="n">
-        <v>7.733887814164844</v>
+        <v>2.174223563009706</v>
       </c>
       <c r="K52" s="3" t="n">
-        <v>19.73958333333333</v>
+        <v>13.10416666666667</v>
       </c>
       <c r="L52" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="M52" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="N52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O52" t="n">
-        <v>37.33718022863218</v>
+        <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>50</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="Q52" t="n">
-        <v>5.483084966276879</v>
+        <v>2.289453028557042</v>
       </c>
       <c r="R52" t="n">
-        <v>-2.262778361090026</v>
+        <v>-0.5813789986712768</v>
       </c>
       <c r="S52" t="n">
-        <v>3.127131712417092</v>
+        <v>0.86578576304604</v>
       </c>
       <c r="T52" t="n">
-        <v>-1.296002415296667</v>
+        <v>-0.4632311029247117</v>
       </c>
       <c r="U52" s="3" t="n">
-        <v>3.645833333333333</v>
+        <v>0.4770833333333334</v>
       </c>
       <c r="V52" s="3" t="n">
-        <v>1.390625</v>
+        <v>0.2098214285648148</v>
       </c>
       <c r="W52" t="n">
-        <v>2.291955739377875</v>
+        <v>1.322533086624212</v>
       </c>
       <c r="X52" t="n">
-        <v>8.869702896684899</v>
+        <v>0.8752983821109011</v>
       </c>
       <c r="Y52" t="n">
-        <v>2.819999332783178</v>
+        <v>1.630636021109413</v>
       </c>
       <c r="Z52" t="n">
-        <v>18.37831245028613</v>
+        <v>6.461908598358105</v>
       </c>
       <c r="AA52" t="n">
-        <v>1.051284198755123</v>
+        <v>1.072026097947875</v>
       </c>
       <c r="AB52" t="n">
-        <v>4.071111030401107</v>
+        <v>2.744233310410861</v>
       </c>
       <c r="AC52" t="inlineStr">
         <is>
@@ -5752,10 +5816,10 @@
         <v>1000</v>
       </c>
       <c r="E53" t="n">
-        <v>920.1504219597366</v>
+        <v>965.6591225214258</v>
       </c>
       <c r="F53" t="n">
-        <v>-7.984957804026339</v>
+        <v>-3.434087747857416</v>
       </c>
       <c r="G53" t="n">
         <v>12.43284625547292</v>
@@ -5764,19 +5828,19 @@
         <v>100</v>
       </c>
       <c r="I53" t="n">
-        <v>3.781070953774978</v>
+        <v>17.32163013925471</v>
       </c>
       <c r="J53" t="n">
-        <v>8.964065252219381</v>
+        <v>6.478248749993934</v>
       </c>
       <c r="K53" s="3" t="n">
-        <v>23.375</v>
+        <v>17.83333333333333</v>
       </c>
       <c r="L53" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="M53" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
@@ -5785,39 +5849,43 @@
         <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>0</v>
+        <v>22.72727272727273</v>
       </c>
       <c r="Q53" t="n">
-        <v>-0.2728754746658122</v>
+        <v>1.933915065045243</v>
       </c>
       <c r="R53" t="n">
-        <v>-6.005693524918153</v>
-      </c>
-      <c r="S53" t="inlineStr"/>
+        <v>-1.0570153807533</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1.111216749041387</v>
+      </c>
       <c r="T53" t="n">
-        <v>-1.625740697777867</v>
-      </c>
-      <c r="U53" t="inlineStr"/>
+        <v>-0.5286015977476157</v>
+      </c>
+      <c r="U53" s="3" t="n">
+        <v>0.2875</v>
+      </c>
       <c r="V53" s="3" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.1776960784259259</v>
       </c>
       <c r="W53" t="n">
-        <v>0</v>
+        <v>0.6136066387163818</v>
       </c>
       <c r="X53" t="n">
-        <v>-15.96991560805266</v>
+        <v>-1.560948976298841</v>
       </c>
       <c r="Y53" t="n">
-        <v>-5.455673613149369</v>
+        <v>-3.410145430556451</v>
       </c>
       <c r="Z53" t="n">
-        <v>-7.101220621652971</v>
+        <v>-5.34459486582737</v>
       </c>
       <c r="AA53" t="n">
-        <v>0.7144629426387548</v>
+        <v>0.8796413631198349</v>
       </c>
       <c r="AB53" t="n">
-        <v>-6.410171340943799</v>
+        <v>-4.901984771933289</v>
       </c>
       <c r="AC53" t="inlineStr">
         <is>
@@ -5850,10 +5918,10 @@
         <v>1000</v>
       </c>
       <c r="E54" t="n">
-        <v>973.7153595155567</v>
+        <v>1028.689263344642</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.628464048444334</v>
+        <v>2.868926334464208</v>
       </c>
       <c r="G54" t="n">
         <v>1.104331981426432</v>
@@ -5862,64 +5930,64 @@
         <v>100</v>
       </c>
       <c r="I54" t="n">
-        <v>5.744793630473136</v>
+        <v>16.26330891414155</v>
       </c>
       <c r="J54" t="n">
-        <v>18.57056442356442</v>
+        <v>3.612573718955719</v>
       </c>
       <c r="K54" s="3" t="n">
-        <v>19.38541666666667</v>
+        <v>13.07291666666667</v>
       </c>
       <c r="L54" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="M54" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="N54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O54" t="n">
-        <v>15.97916851743105</v>
+        <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>28.57142857142857</v>
+        <v>35</v>
       </c>
       <c r="Q54" t="n">
-        <v>4.859273344143689</v>
+        <v>2.619358081979902</v>
       </c>
       <c r="R54" t="n">
-        <v>-5.016538492836591</v>
+        <v>-0.9574078925745744</v>
       </c>
       <c r="S54" t="n">
-        <v>2.512714043252281</v>
+        <v>1.571229407921305</v>
       </c>
       <c r="T54" t="n">
-        <v>-1.813788823046382</v>
+        <v>-0.617633018715592</v>
       </c>
       <c r="U54" s="3" t="n">
-        <v>2.145833333333333</v>
+        <v>0.2589285714236111</v>
       </c>
       <c r="V54" s="3" t="n">
-        <v>2.502083333333333</v>
+        <v>0.25</v>
       </c>
       <c r="W54" t="n">
-        <v>0.5209822318103975</v>
+        <v>1.350821823019204</v>
       </c>
       <c r="X54" t="n">
-        <v>-6.03768700026778</v>
+        <v>1.434463167232106</v>
       </c>
       <c r="Y54" t="n">
-        <v>-0.4761964904032433</v>
+        <v>2.417740590460862</v>
       </c>
       <c r="Z54" t="n">
-        <v>-1.490112232077373</v>
+        <v>11.36604644318407</v>
       </c>
       <c r="AA54" t="n">
-        <v>0.9896798960529757</v>
+        <v>1.098740625148515</v>
       </c>
       <c r="AB54" t="n">
-        <v>-0.6490047605547783</v>
+        <v>3.864786819289978</v>
       </c>
       <c r="AC54" t="inlineStr">
         <is>
@@ -5952,10 +6020,10 @@
         <v>1000</v>
       </c>
       <c r="E55" t="n">
-        <v>1164.298869364862</v>
+        <v>1019.624232634308</v>
       </c>
       <c r="F55" t="n">
-        <v>16.42988693648623</v>
+        <v>1.962423263430753</v>
       </c>
       <c r="G55" t="n">
         <v>45.11052934339923</v>
@@ -5964,19 +6032,19 @@
         <v>100</v>
       </c>
       <c r="I55" t="n">
-        <v>6.09440222062884</v>
+        <v>11.22565421683619</v>
       </c>
       <c r="J55" t="n">
-        <v>4.549556549128038</v>
+        <v>1.728483136067438</v>
       </c>
       <c r="K55" s="3" t="n">
-        <v>13.38541666666667</v>
+        <v>15.60416666666667</v>
       </c>
       <c r="L55" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="M55" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="N55" t="n">
         <v>0</v>
@@ -5985,43 +6053,43 @@
         <v>0</v>
       </c>
       <c r="P55" t="n">
-        <v>14.28571428571428</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="Q55" t="n">
-        <v>20.42368079151812</v>
+        <v>0.8404834132232784</v>
       </c>
       <c r="R55" t="n">
-        <v>-1.123180835109914</v>
+        <v>-1.000848939534127</v>
       </c>
       <c r="S55" t="n">
-        <v>20.42368079151812</v>
+        <v>0.6981531561456485</v>
       </c>
       <c r="T55" t="n">
-        <v>-0.5591269755630162</v>
+        <v>-0.6014187961651415</v>
       </c>
       <c r="U55" s="3" t="n">
-        <v>9.21875</v>
+        <v>0.2630208333333333</v>
       </c>
       <c r="V55" s="3" t="n">
-        <v>0.9253472222222222</v>
+        <v>0.06770833333333333</v>
       </c>
       <c r="W55" t="n">
-        <v>5.368280632730339</v>
+        <v>1.541220931720969</v>
       </c>
       <c r="X55" t="n">
-        <v>23.4712670521232</v>
+        <v>1.40173090245054</v>
       </c>
       <c r="Y55" t="n">
-        <v>6.508859335963794</v>
+        <v>2.931749396758883</v>
       </c>
       <c r="Z55" t="n">
-        <v>137.5740559334791</v>
+        <v>16.67343358602517</v>
       </c>
       <c r="AA55" t="n">
-        <v>1.141099861193805</v>
+        <v>1.157533233409604</v>
       </c>
       <c r="AB55" t="n">
-        <v>10.12285338160514</v>
+        <v>4.606251226736116</v>
       </c>
       <c r="AC55" t="inlineStr">
         <is>
@@ -6054,10 +6122,10 @@
         <v>1000</v>
       </c>
       <c r="E56" t="n">
-        <v>1219.638274256178</v>
+        <v>1032.097808956705</v>
       </c>
       <c r="F56" t="n">
-        <v>21.96382742561782</v>
+        <v>3.209780895670496</v>
       </c>
       <c r="G56" t="n">
         <v>13.88107067394326</v>
@@ -6066,64 +6134,64 @@
         <v>100</v>
       </c>
       <c r="I56" t="n">
-        <v>4.481520415312313</v>
+        <v>10.10864661567337</v>
       </c>
       <c r="J56" t="n">
-        <v>10.60811282146678</v>
+        <v>2.62823828209624</v>
       </c>
       <c r="K56" s="3" t="n">
-        <v>12.89583333333333</v>
+        <v>9.645833333333334</v>
       </c>
       <c r="L56" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="M56" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="N56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O56" t="n">
-        <v>0</v>
+        <v>5.779880388666342</v>
       </c>
       <c r="P56" t="n">
-        <v>40</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="Q56" t="n">
-        <v>14.60939278870383</v>
+        <v>3.721698404710835</v>
       </c>
       <c r="R56" t="n">
-        <v>-1.169101728781166</v>
+        <v>-1.792812828548989</v>
       </c>
       <c r="S56" t="n">
-        <v>11.77376685715828</v>
+        <v>2.054338040336764</v>
       </c>
       <c r="T56" t="n">
-        <v>-0.7745668980891389</v>
+        <v>-1.07096919345639</v>
       </c>
       <c r="U56" s="3" t="n">
-        <v>7.489583333333333</v>
+        <v>0.23125</v>
       </c>
       <c r="V56" s="3" t="n">
-        <v>0.2013888888773148</v>
+        <v>0.2321428571412037</v>
       </c>
       <c r="W56" t="n">
-        <v>9.29705167254194</v>
+        <v>1.343122644649501</v>
       </c>
       <c r="X56" t="n">
-        <v>43.92765485123569</v>
+        <v>2.193160714003219</v>
       </c>
       <c r="Y56" t="n">
-        <v>5.201317154368181</v>
+        <v>2.226918107639101</v>
       </c>
       <c r="Z56" t="n">
-        <v>96.04644432494632</v>
+        <v>17.82629617922526</v>
       </c>
       <c r="AA56" t="n">
-        <v>1.120441948390952</v>
+        <v>1.109395135729462</v>
       </c>
       <c r="AB56" t="n">
-        <v>7.606862439961833</v>
+        <v>3.428740159444206</v>
       </c>
       <c r="AC56" t="inlineStr">
         <is>
@@ -6156,10 +6224,10 @@
         <v>1000</v>
       </c>
       <c r="E57" t="n">
-        <v>1075.331607238172</v>
+        <v>997.3324043410568</v>
       </c>
       <c r="F57" t="n">
-        <v>7.533160723817173</v>
+        <v>-0.2667595658943241</v>
       </c>
       <c r="G57" t="n">
         <v>-10.56493050680907</v>
@@ -6168,19 +6236,19 @@
         <v>100</v>
       </c>
       <c r="I57" t="n">
-        <v>4.307755650050215</v>
+        <v>10.98218997988534</v>
       </c>
       <c r="J57" t="n">
-        <v>7.056966503141142</v>
+        <v>4.784508113464833</v>
       </c>
       <c r="K57" s="3" t="n">
-        <v>13.72916666666667</v>
+        <v>17.10416666666667</v>
       </c>
       <c r="L57" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="M57" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="N57" t="n">
         <v>0</v>
@@ -6189,43 +6257,43 @@
         <v>0</v>
       </c>
       <c r="P57" t="n">
-        <v>40</v>
+        <v>35.71428571428572</v>
       </c>
       <c r="Q57" t="n">
-        <v>6.071084609556583</v>
+        <v>2.662111706605169</v>
       </c>
       <c r="R57" t="n">
-        <v>-1.069747492453317</v>
+        <v>-1.783616755542214</v>
       </c>
       <c r="S57" t="n">
-        <v>4.968879497597147</v>
+        <v>1.76504087388793</v>
       </c>
       <c r="T57" t="n">
-        <v>-0.8035897578370387</v>
+        <v>-0.994674505268935</v>
       </c>
       <c r="U57" s="3" t="n">
-        <v>6.354166666666667</v>
+        <v>0.3958333333333333</v>
       </c>
       <c r="V57" s="3" t="n">
-        <v>0.06944444444444445</v>
+        <v>0.1539351851851852</v>
       </c>
       <c r="W57" t="n">
-        <v>3.858682579505492</v>
+        <v>0.9698540321264645</v>
       </c>
       <c r="X57" t="n">
-        <v>15.06632144763435</v>
+        <v>-0.1905425470673672</v>
       </c>
       <c r="Y57" t="n">
-        <v>3.231280967896821</v>
+        <v>-0.1219097358838369</v>
       </c>
       <c r="Z57" t="n">
-        <v>21.1673403088806</v>
+        <v>-0.6907551465230243</v>
       </c>
       <c r="AA57" t="n">
-        <v>1.074984353027559</v>
+        <v>0.9946772618148345</v>
       </c>
       <c r="AB57" t="n">
-        <v>4.677283464341648</v>
+        <v>-0.1787812096325839</v>
       </c>
       <c r="AC57" t="inlineStr">
         <is>
@@ -6258,10 +6326,10 @@
         <v>1000</v>
       </c>
       <c r="E58" t="n">
-        <v>1125.524946191016</v>
+        <v>984.0549163969373</v>
       </c>
       <c r="F58" t="n">
-        <v>12.55249461910162</v>
+        <v>-1.59450836030627</v>
       </c>
       <c r="G58" t="n">
         <v>12.94016642451457</v>
@@ -6270,19 +6338,19 @@
         <v>100</v>
       </c>
       <c r="I58" t="n">
-        <v>0.8502301985045708</v>
+        <v>2.390620952650492</v>
       </c>
       <c r="J58" t="n">
-        <v>6.647153388636482</v>
+        <v>2.302324738045304</v>
       </c>
       <c r="K58" s="3" t="n">
-        <v>9.989583333333334</v>
+        <v>8.4375</v>
       </c>
       <c r="L58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N58" t="n">
         <v>0</v>
@@ -6291,41 +6359,39 @@
         <v>0</v>
       </c>
       <c r="P58" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>12.55751561694925</v>
+        <v>-0.3193336242001125</v>
       </c>
       <c r="R58" t="n">
-        <v>12.55751561694925</v>
-      </c>
-      <c r="S58" t="n">
-        <v>12.55751561694925</v>
-      </c>
-      <c r="T58" t="inlineStr"/>
-      <c r="U58" s="3" t="n">
-        <v>14.10416666666667</v>
-      </c>
-      <c r="V58" t="inlineStr"/>
-      <c r="W58" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>-0.7072301634854031</v>
+      </c>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="n">
+        <v>-0.5344363197269347</v>
+      </c>
+      <c r="U58" t="inlineStr"/>
+      <c r="V58" s="3" t="n">
+        <v>0.1840277777777778</v>
+      </c>
+      <c r="W58" t="n">
+        <v>0</v>
       </c>
       <c r="X58" t="n">
-        <v>125.5249461910161</v>
+        <v>-5.315027867687537</v>
       </c>
       <c r="Y58" t="n">
-        <v>5.119555301107868</v>
+        <v>-3.7978149206644</v>
       </c>
       <c r="Z58" t="n">
-        <v>48.33828344693166</v>
+        <v>-7.712711793999544</v>
       </c>
       <c r="AA58" t="n">
-        <v>1.125200909579822</v>
+        <v>0.674998595050235</v>
       </c>
       <c r="AB58" t="n">
-        <v>7.668622312987074</v>
+        <v>-4.719548777700983</v>
       </c>
       <c r="AC58" t="inlineStr">
         <is>
@@ -6358,10 +6424,10 @@
         <v>1000</v>
       </c>
       <c r="E59" t="n">
-        <v>934.6237353001493</v>
+        <v>990.1775628670983</v>
       </c>
       <c r="F59" t="n">
-        <v>-6.537626469985071</v>
+        <v>-0.9822437132901655</v>
       </c>
       <c r="G59" t="n">
         <v>-9.88499355159319</v>
@@ -6370,19 +6436,19 @@
         <v>100</v>
       </c>
       <c r="I59" t="n">
-        <v>1.570442856023041</v>
+        <v>8.816310743698791</v>
       </c>
       <c r="J59" t="n">
-        <v>11.28868781824124</v>
+        <v>2.684758186742659</v>
       </c>
       <c r="K59" s="3" t="n">
-        <v>9.53125</v>
+        <v>12.97916666666667</v>
       </c>
       <c r="L59" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="M59" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="N59" t="n">
         <v>0</v>
@@ -6391,39 +6457,43 @@
         <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>0</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="Q59" t="n">
-        <v>-0.4247234671293383</v>
+        <v>1.613094458844467</v>
       </c>
       <c r="R59" t="n">
-        <v>-6.141592407913778</v>
-      </c>
-      <c r="S59" t="inlineStr"/>
+        <v>-0.6555711097750019</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0.954262466622334</v>
+      </c>
       <c r="T59" t="n">
-        <v>-3.283157937521558</v>
-      </c>
-      <c r="U59" t="inlineStr"/>
+        <v>-0.4779412278939054</v>
+      </c>
+      <c r="U59" s="3" t="n">
+        <v>0.3888888888888889</v>
+      </c>
       <c r="V59" s="3" t="n">
-        <v>3.125</v>
+        <v>0.1341145833333333</v>
       </c>
       <c r="W59" t="n">
-        <v>0</v>
+        <v>0.7444027985010172</v>
       </c>
       <c r="X59" t="n">
-        <v>-32.68813234992533</v>
+        <v>-0.8929488302638009</v>
       </c>
       <c r="Y59" t="n">
-        <v>-4.349509847061666</v>
+        <v>-1.324810191300819</v>
       </c>
       <c r="Z59" t="n">
-        <v>-5.074714105579418</v>
+        <v>-4.350161817074693</v>
       </c>
       <c r="AA59" t="n">
-        <v>0.8552779289754611</v>
+        <v>0.932078584319899</v>
       </c>
       <c r="AB59" t="n">
-        <v>-5.845022885978149</v>
+        <v>-1.870788026562118</v>
       </c>
       <c r="AC59" t="inlineStr">
         <is>
@@ -6456,10 +6526,10 @@
         <v>1000</v>
       </c>
       <c r="E60" t="n">
-        <v>1100.820556541461</v>
+        <v>984.903341497518</v>
       </c>
       <c r="F60" t="n">
-        <v>10.08205565414607</v>
+        <v>-1.5096658502482</v>
       </c>
       <c r="G60" t="n">
         <v>5.251836817470745</v>
@@ -6468,64 +6538,64 @@
         <v>100</v>
       </c>
       <c r="I60" t="n">
-        <v>4.837670982878194</v>
+        <v>12.62607979922351</v>
       </c>
       <c r="J60" t="n">
-        <v>6.980827657955261</v>
+        <v>3.797666209117032</v>
       </c>
       <c r="K60" s="3" t="n">
-        <v>8.979166666666666</v>
+        <v>19.92708333333333</v>
       </c>
       <c r="L60" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="M60" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="N60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O60" t="n">
-        <v>-34.55048175225397</v>
+        <v>0</v>
       </c>
       <c r="P60" t="n">
-        <v>60</v>
+        <v>31.25</v>
       </c>
       <c r="Q60" t="n">
-        <v>10.95192253355311</v>
+        <v>1.265573604986231</v>
       </c>
       <c r="R60" t="n">
-        <v>-1.064704725888809</v>
+        <v>-1.21078716216216</v>
       </c>
       <c r="S60" t="n">
-        <v>4.939671627366456</v>
+        <v>1.050650584561368</v>
       </c>
       <c r="T60" t="n">
-        <v>-0.7472232013786486</v>
+        <v>-0.6112071823503035</v>
       </c>
       <c r="U60" s="3" t="n">
-        <v>4.145833333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="V60" s="3" t="n">
-        <v>0.09895833333333333</v>
+        <v>0.08712121211805555</v>
       </c>
       <c r="W60" t="n">
-        <v>8.88671160103865</v>
+        <v>0.7734820630613446</v>
       </c>
       <c r="X60" t="n">
-        <v>27.07420765874292</v>
+        <v>-0.9435411564051268</v>
       </c>
       <c r="Y60" t="n">
-        <v>3.846803536211297</v>
+        <v>-1.842192521671887</v>
       </c>
       <c r="Z60" t="n">
-        <v>31.75033683864791</v>
+        <v>-4.447625359218781</v>
       </c>
       <c r="AA60" t="n">
-        <v>1.083454459005625</v>
+        <v>0.9011888168213856</v>
       </c>
       <c r="AB60" t="n">
-        <v>5.653828178176067</v>
+        <v>-2.668638892924097</v>
       </c>
       <c r="AC60" t="inlineStr">
         <is>
@@ -6558,10 +6628,10 @@
         <v>1000</v>
       </c>
       <c r="E61" t="n">
-        <v>961.1687812083981</v>
+        <v>1067.1927205251</v>
       </c>
       <c r="F61" t="n">
-        <v>-3.883121879160194</v>
+        <v>6.71927205250995</v>
       </c>
       <c r="G61" t="n">
         <v>-8.578606933617394</v>
@@ -6570,19 +6640,19 @@
         <v>100</v>
       </c>
       <c r="I61" t="n">
-        <v>1.553385560969667</v>
+        <v>8.035503175126896</v>
       </c>
       <c r="J61" t="n">
-        <v>10.01853140540883</v>
+        <v>4.017930170209372</v>
       </c>
       <c r="K61" s="3" t="n">
         <v>12.1875</v>
       </c>
       <c r="L61" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M61" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="N61" t="n">
         <v>0</v>
@@ -6591,43 +6661,43 @@
         <v>0</v>
       </c>
       <c r="P61" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.001432707470295399</v>
+        <v>1.976704776469501</v>
       </c>
       <c r="R61" t="n">
-        <v>-3.886052181883643</v>
+        <v>-0.9717734893396458</v>
       </c>
       <c r="S61" t="n">
-        <v>0.001432707470295399</v>
+        <v>1.596636378255401</v>
       </c>
       <c r="T61" t="n">
-        <v>-3.886052181883643</v>
+        <v>-0.7456659291876514</v>
       </c>
       <c r="U61" s="3" t="n">
-        <v>16.20833333333333</v>
+        <v>0.4600694444444444</v>
       </c>
       <c r="V61" s="3" t="n">
-        <v>2.645833333333333</v>
+        <v>0.3932291666666667</v>
       </c>
       <c r="W61" t="n">
-        <v>0.0003543580753251479</v>
+        <v>3.271791097928485</v>
       </c>
       <c r="X61" t="n">
-        <v>-19.41560939580097</v>
+        <v>6.719272052509928</v>
       </c>
       <c r="Y61" t="n">
-        <v>-0.9352031599601355</v>
+        <v>5.263864159868183</v>
       </c>
       <c r="Z61" t="n">
-        <v>-3.815585110982854</v>
+        <v>30.0023857360879</v>
       </c>
       <c r="AA61" t="n">
-        <v>0.9813822910835108</v>
+        <v>1.234342131932601</v>
       </c>
       <c r="AB61" t="n">
-        <v>-1.279566748030613</v>
+        <v>8.766380769199396</v>
       </c>
       <c r="AC61" t="inlineStr">
         <is>
@@ -6660,10 +6730,10 @@
         <v>1000</v>
       </c>
       <c r="E62" t="n">
-        <v>1150.230260653211</v>
+        <v>993.8981482948892</v>
       </c>
       <c r="F62" t="n">
-        <v>15.02302606532113</v>
+        <v>-0.6101851705110789</v>
       </c>
       <c r="G62" t="n">
         <v>10.93987517137229</v>
@@ -6672,64 +6742,64 @@
         <v>100</v>
       </c>
       <c r="I62" t="n">
-        <v>8.166581728496316</v>
+        <v>20.67628558909772</v>
       </c>
       <c r="J62" t="n">
-        <v>3.938809051923568</v>
+        <v>5.245965490826138</v>
       </c>
       <c r="K62" s="3" t="n">
-        <v>7.197916666666667</v>
+        <v>8.8125</v>
       </c>
       <c r="L62" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="M62" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="N62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O62" t="n">
-        <v>0</v>
+        <v>1.597742663241938</v>
       </c>
       <c r="P62" t="n">
-        <v>33.33333333333333</v>
+        <v>28</v>
       </c>
       <c r="Q62" t="n">
-        <v>10.3503157328638</v>
+        <v>1.781502825349039</v>
       </c>
       <c r="R62" t="n">
-        <v>-0.7992990421821791</v>
+        <v>-0.7649068828613695</v>
       </c>
       <c r="S62" t="n">
-        <v>5.831548507820591</v>
+        <v>1.178119460888993</v>
       </c>
       <c r="T62" t="n">
-        <v>-0.4761213561749557</v>
+        <v>-0.4966229227429617</v>
       </c>
       <c r="U62" s="3" t="n">
-        <v>4.194444444444445</v>
+        <v>0.1860119047569445</v>
       </c>
       <c r="V62" s="3" t="n">
-        <v>0.3506944444328703</v>
+        <v>0.1493055555555556</v>
       </c>
       <c r="W62" t="n">
-        <v>5.576549258937358</v>
+        <v>0.9152700624327672</v>
       </c>
       <c r="X62" t="n">
-        <v>16.69225118369017</v>
+        <v>-0.3079837747341148</v>
       </c>
       <c r="Y62" t="n">
-        <v>6.42688882649641</v>
+        <v>-0.5195005200423275</v>
       </c>
       <c r="Z62" t="n">
-        <v>122.3217515753498</v>
+        <v>-1.412827021746264</v>
       </c>
       <c r="AA62" t="n">
-        <v>1.145915914294247</v>
+        <v>0.9784704112404766</v>
       </c>
       <c r="AB62" t="n">
-        <v>9.890006929656662</v>
+        <v>-0.8566424087113251</v>
       </c>
       <c r="AC62" t="inlineStr">
         <is>
@@ -6762,10 +6832,10 @@
         <v>1000</v>
       </c>
       <c r="E63" t="n">
-        <v>1080.117171680177</v>
+        <v>969.7154599573961</v>
       </c>
       <c r="F63" t="n">
-        <v>8.01171716801773</v>
+        <v>-3.028454004260391</v>
       </c>
       <c r="G63" t="n">
         <v>14.49183855934559</v>
@@ -6774,64 +6844,64 @@
         <v>100</v>
       </c>
       <c r="I63" t="n">
-        <v>2.84519517175501</v>
+        <v>12.94795337113594</v>
       </c>
       <c r="J63" t="n">
-        <v>7.972738989696874</v>
+        <v>4.127026020741941</v>
       </c>
       <c r="K63" s="3" t="n">
-        <v>21.46875</v>
+        <v>17.36458333333333</v>
       </c>
       <c r="L63" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="M63" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="N63" t="n">
         <v>1</v>
       </c>
       <c r="O63" t="n">
-        <v>56.04217222066995</v>
+        <v>3.308759527519101</v>
       </c>
       <c r="P63" t="n">
-        <v>66.66666666666666</v>
+        <v>25</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.930830473575856</v>
+        <v>1.088265708112633</v>
       </c>
       <c r="R63" t="n">
-        <v>-0.5871836049607653</v>
+        <v>-1.001620174346187</v>
       </c>
       <c r="S63" t="n">
-        <v>1.496417974369883</v>
+        <v>0.7242711022158512</v>
       </c>
       <c r="T63" t="n">
-        <v>-0.5871836049607653</v>
+        <v>-0.5237610098240131</v>
       </c>
       <c r="U63" s="3" t="n">
-        <v>6.072916666666667</v>
+        <v>0.1979166666666667</v>
       </c>
       <c r="V63" s="3" t="n">
-        <v>0.0625</v>
+        <v>0.08940972222222222</v>
       </c>
       <c r="W63" t="n">
-        <v>5.024053767500757</v>
+        <v>0.4562486501797869</v>
       </c>
       <c r="X63" t="n">
-        <v>8.024999819835779</v>
+        <v>-2.099581223132676</v>
       </c>
       <c r="Y63" t="n">
-        <v>3.157218771957756</v>
+        <v>-3.66664852528675</v>
       </c>
       <c r="Z63" t="n">
-        <v>19.48158726918642</v>
+        <v>-7.56092695764776</v>
       </c>
       <c r="AA63" t="n">
-        <v>1.056085114101788</v>
+        <v>0.8189458749437829</v>
       </c>
       <c r="AB63" t="n">
-        <v>4.53349238017196</v>
+        <v>-5.003133339765648</v>
       </c>
       <c r="AC63" t="inlineStr">
         <is>
@@ -6864,10 +6934,10 @@
         <v>1000</v>
       </c>
       <c r="E64" t="n">
-        <v>973.2856983651923</v>
+        <v>991.6467481176865</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.671430163480772</v>
+        <v>-0.8353251882313544</v>
       </c>
       <c r="G64" t="n">
         <v>38.0532819157317</v>
@@ -6876,19 +6946,19 @@
         <v>100</v>
       </c>
       <c r="I64" t="n">
-        <v>1.575954214619229</v>
+        <v>8.719020700498502</v>
       </c>
       <c r="J64" t="n">
-        <v>2.671430163480761</v>
+        <v>4.293985571480916</v>
       </c>
       <c r="K64" s="3" t="n">
-        <v>15.26041666666667</v>
+        <v>16.73958333333333</v>
       </c>
       <c r="L64" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="M64" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="N64" t="n">
         <v>0</v>
@@ -6897,39 +6967,43 @@
         <v>0</v>
       </c>
       <c r="P64" t="n">
-        <v>0</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="Q64" t="n">
-        <v>-1.019343605275247</v>
+        <v>1.215689709558159</v>
       </c>
       <c r="R64" t="n">
-        <v>-1.670173126029819</v>
-      </c>
-      <c r="S64" t="inlineStr"/>
+        <v>-1.24127911814352</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0.8617471750899712</v>
+      </c>
       <c r="T64" t="n">
-        <v>-1.344758365652533</v>
-      </c>
-      <c r="U64" t="inlineStr"/>
+        <v>-0.8505657186200537</v>
+      </c>
+      <c r="U64" s="3" t="n">
+        <v>0.1333333333333333</v>
+      </c>
       <c r="V64" s="3" t="n">
-        <v>0.1197916666666667</v>
+        <v>0.234375</v>
       </c>
       <c r="W64" t="n">
-        <v>0</v>
+        <v>0.8353578837358858</v>
       </c>
       <c r="X64" t="n">
-        <v>-13.35715081740383</v>
+        <v>-0.759386534755766</v>
       </c>
       <c r="Y64" t="n">
-        <v>-5.397258049302535</v>
+        <v>-0.6646443410641936</v>
       </c>
       <c r="Z64" t="n">
-        <v>-10.80750666868754</v>
+        <v>-2.332588185105603</v>
       </c>
       <c r="AA64" t="n">
-        <v>0.26962613425112</v>
+        <v>0.9640324286951492</v>
       </c>
       <c r="AB64" t="n">
-        <v>-5.644611773599408</v>
+        <v>-0.877460668559498</v>
       </c>
       <c r="AC64" t="inlineStr">
         <is>
@@ -6962,10 +7036,10 @@
         <v>1000</v>
       </c>
       <c r="E65" t="n">
-        <v>934.882801557988</v>
+        <v>914.5397854556974</v>
       </c>
       <c r="F65" t="n">
-        <v>-6.511719844201195</v>
+        <v>-8.546021454430262</v>
       </c>
       <c r="G65" t="n">
         <v>-3.965543647886216</v>
@@ -6974,19 +7048,19 @@
         <v>100</v>
       </c>
       <c r="I65" t="n">
-        <v>3.901495163933572</v>
+        <v>9.152765369392233</v>
       </c>
       <c r="J65" t="n">
-        <v>14.42760738974111</v>
+        <v>9.549788884672617</v>
       </c>
       <c r="K65" s="3" t="n">
-        <v>13.38541666666667</v>
+        <v>26.41666666666667</v>
       </c>
       <c r="L65" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="M65" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="N65" t="n">
         <v>0</v>
@@ -6995,43 +7069,43 @@
         <v>0</v>
       </c>
       <c r="P65" t="n">
-        <v>20</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.1058721080270084</v>
+        <v>0.4759164176569585</v>
       </c>
       <c r="R65" t="n">
-        <v>-3.777787618604705</v>
+        <v>-1.289093498598143</v>
       </c>
       <c r="S65" t="n">
-        <v>0.1058721080270084</v>
+        <v>0.4759164176569585</v>
       </c>
       <c r="T65" t="n">
-        <v>-1.688439956288622</v>
+        <v>-0.8516239547422517</v>
       </c>
       <c r="U65" s="3" t="n">
-        <v>4.885416666666667</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="V65" s="3" t="n">
-        <v>2.1640625</v>
+        <v>0.2547348484837963</v>
       </c>
       <c r="W65" t="n">
-        <v>0.01585497679899734</v>
+        <v>0.04822463346195777</v>
       </c>
       <c r="X65" t="n">
-        <v>-13.0234396884024</v>
+        <v>-7.121684545358525</v>
       </c>
       <c r="Y65" t="n">
-        <v>-2.008212693178902</v>
+        <v>-9.454333514579211</v>
       </c>
       <c r="Z65" t="n">
-        <v>-3.875240124590406</v>
+        <v>-6.938505272093988</v>
       </c>
       <c r="AA65" t="n">
-        <v>0.9556335259125975</v>
+        <v>0.6467494631535853</v>
       </c>
       <c r="AB65" t="n">
-        <v>-2.798012130288908</v>
+        <v>-11.65445402957964</v>
       </c>
       <c r="AC65" t="inlineStr">
         <is>
@@ -7064,10 +7138,10 @@
         <v>1000</v>
       </c>
       <c r="E66" t="n">
-        <v>1077.550734154416</v>
+        <v>989.1565925707841</v>
       </c>
       <c r="F66" t="n">
-        <v>7.755073415441598</v>
+        <v>-1.084340742921586</v>
       </c>
       <c r="G66" t="n">
         <v>11.63533095805662</v>
@@ -7076,19 +7150,19 @@
         <v>100</v>
       </c>
       <c r="I66" t="n">
-        <v>3.275882440666831</v>
+        <v>17.68749674114409</v>
       </c>
       <c r="J66" t="n">
-        <v>6.170305212152153</v>
+        <v>4.165964470711295</v>
       </c>
       <c r="K66" s="3" t="n">
-        <v>13.17708333333333</v>
+        <v>15.98958333333333</v>
       </c>
       <c r="L66" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="M66" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="N66" t="n">
         <v>0</v>
@@ -7097,43 +7171,43 @@
         <v>0</v>
       </c>
       <c r="P66" t="n">
-        <v>25</v>
+        <v>22.72727272727273</v>
       </c>
       <c r="Q66" t="n">
-        <v>10.55882539820282</v>
+        <v>2.354402514633075</v>
       </c>
       <c r="R66" t="n">
-        <v>-1.958127970993901</v>
+        <v>-1.470850235294115</v>
       </c>
       <c r="S66" t="n">
-        <v>10.55882539820282</v>
+        <v>1.722317823915035</v>
       </c>
       <c r="T66" t="n">
-        <v>-0.848537411799309</v>
+        <v>-0.5640627153992053</v>
       </c>
       <c r="U66" s="3" t="n">
-        <v>7.177083333333333</v>
+        <v>0.3708333333333333</v>
       </c>
       <c r="V66" s="3" t="n">
-        <v>0.6736111111111112</v>
+        <v>0.1329656862731481</v>
       </c>
       <c r="W66" t="n">
-        <v>4.023411955307436</v>
+        <v>0.8875510266986492</v>
       </c>
       <c r="X66" t="n">
-        <v>19.38768353860399</v>
+        <v>-0.492882155873454</v>
       </c>
       <c r="Y66" t="n">
-        <v>3.858030588398323</v>
+        <v>-0.63420729990548</v>
       </c>
       <c r="Z66" t="n">
-        <v>23.99235832260948</v>
+        <v>-2.980988029335855</v>
       </c>
       <c r="AA66" t="n">
-        <v>1.109229307240067</v>
+        <v>0.9702607746219138</v>
       </c>
       <c r="AB66" t="n">
-        <v>5.933901238550346</v>
+        <v>-0.9316803779987693</v>
       </c>
       <c r="AC66" t="inlineStr">
         <is>
@@ -7166,10 +7240,10 @@
         <v>1000</v>
       </c>
       <c r="E67" t="n">
-        <v>997.3905129541586</v>
+        <v>1020.251946881218</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.2609487045841433</v>
+        <v>2.025194688121758</v>
       </c>
       <c r="G67" t="n">
         <v>-17.50858737655675</v>
@@ -7178,19 +7252,19 @@
         <v>100</v>
       </c>
       <c r="I67" t="n">
-        <v>1.593753507308099</v>
+        <v>5.621668947568728</v>
       </c>
       <c r="J67" t="n">
-        <v>1.680208106993972</v>
+        <v>1.071474129081278</v>
       </c>
       <c r="K67" s="3" t="n">
-        <v>13.26041666666667</v>
+        <v>8.270833333333334</v>
       </c>
       <c r="L67" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M67" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N67" t="n">
         <v>0</v>
@@ -7199,43 +7273,43 @@
         <v>0</v>
       </c>
       <c r="P67" t="n">
-        <v>50</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.3920736837205986</v>
+        <v>1.083660145700662</v>
       </c>
       <c r="R67" t="n">
-        <v>-0.6505770462843606</v>
+        <v>-0.7173708112521245</v>
       </c>
       <c r="S67" t="n">
-        <v>0.3920736837205986</v>
+        <v>0.9491957320788117</v>
       </c>
       <c r="T67" t="n">
-        <v>-0.6505770462843606</v>
+        <v>-0.5891644299382083</v>
       </c>
       <c r="U67" s="3" t="n">
-        <v>1.885416666666667</v>
+        <v>0.2317708333333333</v>
       </c>
       <c r="V67" s="3" t="n">
-        <v>0.04166666666666666</v>
+        <v>0.09722222222222222</v>
       </c>
       <c r="W67" t="n">
-        <v>0.5987360981194758</v>
+        <v>2.138835728277862</v>
       </c>
       <c r="X67" t="n">
-        <v>-1.304743522920677</v>
+        <v>2.893135268745373</v>
       </c>
       <c r="Y67" t="n">
-        <v>-0.3959801849841258</v>
+        <v>3.446483568106803</v>
       </c>
       <c r="Z67" t="n">
-        <v>-2.064791688371482</v>
+        <v>29.04332256558092</v>
       </c>
       <c r="AA67" t="n">
-        <v>0.9751452283284787</v>
+        <v>1.3004878207078</v>
       </c>
       <c r="AB67" t="n">
-        <v>-0.5848175142364651</v>
+        <v>6.020537235629603</v>
       </c>
       <c r="AC67" t="inlineStr">
         <is>
@@ -7268,10 +7342,10 @@
         <v>1000</v>
       </c>
       <c r="E68" t="n">
-        <v>1011.836458572915</v>
+        <v>971.8120665852082</v>
       </c>
       <c r="F68" t="n">
-        <v>1.183645857291549</v>
+        <v>-2.818793341479181</v>
       </c>
       <c r="G68" t="n">
         <v>-2.65744082246685</v>
@@ -7280,19 +7354,19 @@
         <v>100</v>
       </c>
       <c r="I68" t="n">
-        <v>4.063589615934551</v>
+        <v>15.70833192866775</v>
       </c>
       <c r="J68" t="n">
-        <v>3.286104328138098</v>
+        <v>4.589846143832238</v>
       </c>
       <c r="K68" s="3" t="n">
-        <v>6.229166666666667</v>
+        <v>8.604166666666666</v>
       </c>
       <c r="L68" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="M68" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="N68" t="n">
         <v>0</v>
@@ -7301,43 +7375,43 @@
         <v>0</v>
       </c>
       <c r="P68" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="Q68" t="n">
-        <v>3.66031383310466</v>
+        <v>1.277833769397221</v>
       </c>
       <c r="R68" t="n">
-        <v>-0.715124992150513</v>
+        <v>-1.337321040401755</v>
       </c>
       <c r="S68" t="n">
-        <v>3.66031383310466</v>
+        <v>0.7149692782726738</v>
       </c>
       <c r="T68" t="n">
-        <v>-0.6025284609067785</v>
+        <v>-0.5077189929829086</v>
       </c>
       <c r="U68" s="3" t="n">
-        <v>2.822916666666667</v>
+        <v>0.08506944443287037</v>
       </c>
       <c r="V68" s="3" t="n">
-        <v>0.1276041666666667</v>
+        <v>0.1101190476157407</v>
       </c>
       <c r="W68" t="n">
-        <v>1.48082999355983</v>
+        <v>0.5982842511187355</v>
       </c>
       <c r="X68" t="n">
-        <v>2.367291714583149</v>
+        <v>-1.409396670739588</v>
       </c>
       <c r="Y68" t="n">
-        <v>1.372131733864663</v>
+        <v>-4.201492337615953</v>
       </c>
       <c r="Z68" t="n">
-        <v>4.682213238812233</v>
+        <v>-6.399578300597809</v>
       </c>
       <c r="AA68" t="n">
-        <v>1.060599991596324</v>
+        <v>0.7779411935374083</v>
       </c>
       <c r="AB68" t="n">
-        <v>2.035388577401621</v>
+        <v>-6.03319713430474</v>
       </c>
       <c r="AC68" t="inlineStr">
         <is>
@@ -7370,10 +7444,10 @@
         <v>1000</v>
       </c>
       <c r="E69" t="n">
-        <v>1052.531087523157</v>
+        <v>990.8858809254857</v>
       </c>
       <c r="F69" t="n">
-        <v>5.253108752315711</v>
+        <v>-0.9114119074514293</v>
       </c>
       <c r="G69" t="n">
         <v>14.43474421352362</v>
@@ -7382,64 +7456,64 @@
         <v>100</v>
       </c>
       <c r="I69" t="n">
-        <v>5.672919909411139</v>
+        <v>17.1857004215615</v>
       </c>
       <c r="J69" t="n">
-        <v>4.648566443021227</v>
+        <v>2.660527433790543</v>
       </c>
       <c r="K69" s="3" t="n">
-        <v>16.84375</v>
+        <v>12.48958333333333</v>
       </c>
       <c r="L69" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="M69" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="N69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O69" t="n">
-        <v>0</v>
+        <v>-1.84223247133839</v>
       </c>
       <c r="P69" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="Q69" t="n">
-        <v>9.309553496208938</v>
+        <v>2.796883968120233</v>
       </c>
       <c r="R69" t="n">
-        <v>-1.367007288262195</v>
+        <v>-1.036191954175258</v>
       </c>
       <c r="S69" t="n">
-        <v>9.309553496208938</v>
+        <v>1.017444827703676</v>
       </c>
       <c r="T69" t="n">
-        <v>-0.6272671161435647</v>
+        <v>-0.5551590964559117</v>
       </c>
       <c r="U69" s="3" t="n">
-        <v>5.614583333333333</v>
+        <v>0.3050595238078704</v>
       </c>
       <c r="V69" s="3" t="n">
-        <v>0.9392361111111112</v>
+        <v>0.1949404761805556</v>
       </c>
       <c r="W69" t="n">
-        <v>2.374701696011102</v>
+        <v>0.9066319689498507</v>
       </c>
       <c r="X69" t="n">
-        <v>7.504441074736726</v>
+        <v>-0.3462803144369335</v>
       </c>
       <c r="Y69" t="n">
-        <v>2.772553487453649</v>
+        <v>-0.6648728933896251</v>
       </c>
       <c r="Z69" t="n">
-        <v>19.45496940597978</v>
+        <v>-4.089761354512638</v>
       </c>
       <c r="AA69" t="n">
-        <v>1.071517551796296</v>
+        <v>0.9760262580402179</v>
       </c>
       <c r="AB69" t="n">
-        <v>4.144332994225495</v>
+        <v>-0.9839198237395635</v>
       </c>
       <c r="AC69" t="inlineStr">
         <is>
@@ -7472,27 +7546,31 @@
         <v>1000</v>
       </c>
       <c r="E70" t="n">
-        <v>1000</v>
+        <v>1007.087276496092</v>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>0.7087276496092272</v>
       </c>
       <c r="G70" t="n">
         <v>10.31270297462621</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+        <v>3.198918340213922</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1.658856420184534</v>
+      </c>
+      <c r="K70" s="3" t="n">
+        <v>11.53125</v>
+      </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M70" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N70" t="n">
         <v>0</v>
@@ -7500,30 +7578,44 @@
       <c r="O70" t="n">
         <v>0</v>
       </c>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="inlineStr"/>
-      <c r="T70" t="inlineStr"/>
-      <c r="U70" t="inlineStr"/>
-      <c r="V70" t="inlineStr"/>
-      <c r="W70" t="inlineStr"/>
-      <c r="X70" t="inlineStr"/>
-      <c r="Y70" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="Z70" t="inlineStr"/>
-      <c r="AA70" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="AB70" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="P70" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>1.171790946975209</v>
+      </c>
+      <c r="R70" t="n">
+        <v>-0.7002114715307663</v>
+      </c>
+      <c r="S70" t="n">
+        <v>1.011649776934137</v>
+      </c>
+      <c r="T70" t="n">
+        <v>-0.6510480692166861</v>
+      </c>
+      <c r="U70" s="3" t="n">
+        <v>0.3177083333333333</v>
+      </c>
+      <c r="V70" s="3" t="n">
+        <v>0.3854166666666667</v>
+      </c>
+      <c r="W70" t="n">
+        <v>1.540392782559048</v>
+      </c>
+      <c r="X70" t="n">
+        <v>1.771819124023044</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>1.376071011663945</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>5.406823968152144</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>1.094644098974929</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>2.027271585851217</v>
       </c>
       <c r="AC70" t="inlineStr">
         <is>
@@ -7556,10 +7648,10 @@
         <v>1000</v>
       </c>
       <c r="E71" t="n">
-        <v>1010.34993093883</v>
+        <v>996.5062239267902</v>
       </c>
       <c r="F71" t="n">
-        <v>1.034993093882952</v>
+        <v>-0.3493776073209801</v>
       </c>
       <c r="G71" t="n">
         <v>3.796605300328104</v>
@@ -7568,64 +7660,64 @@
         <v>100</v>
       </c>
       <c r="I71" t="n">
-        <v>3.58934809725835</v>
+        <v>13.49235696723533</v>
       </c>
       <c r="J71" t="n">
-        <v>10.12143268910176</v>
+        <v>3.260100173602177</v>
       </c>
       <c r="K71" s="3" t="n">
-        <v>13.13541666666667</v>
+        <v>14.76041666666667</v>
       </c>
       <c r="L71" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="M71" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="N71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O71" t="n">
-        <v>10.86881690389919</v>
+        <v>0</v>
       </c>
       <c r="P71" t="n">
-        <v>25</v>
+        <v>35.29411764705883</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.905450186923898</v>
+        <v>1.25246134902176</v>
       </c>
       <c r="R71" t="n">
-        <v>-0.9494821152581511</v>
+        <v>-0.6671169032508119</v>
       </c>
       <c r="S71" t="n">
-        <v>1.905450186923898</v>
+        <v>0.6463518211622711</v>
       </c>
       <c r="T71" t="n">
-        <v>-0.6441465248656234</v>
+        <v>-0.3821078167977513</v>
       </c>
       <c r="U71" s="3" t="n">
-        <v>6.9375</v>
+        <v>0.3142361111111111</v>
       </c>
       <c r="V71" s="3" t="n">
-        <v>1.673611111111111</v>
+        <v>0.15625</v>
       </c>
       <c r="W71" t="n">
-        <v>0.9731237736468333</v>
+        <v>0.9164733447028643</v>
       </c>
       <c r="X71" t="n">
-        <v>-0.1297214912674098</v>
+        <v>-0.2055162396005707</v>
       </c>
       <c r="Y71" t="n">
-        <v>0.6450401710401842</v>
+        <v>-0.4924738185049135</v>
       </c>
       <c r="Z71" t="n">
-        <v>1.366569394247712</v>
+        <v>-1.321404838451478</v>
       </c>
       <c r="AA71" t="n">
-        <v>1.015012825018622</v>
+        <v>0.9797334370160123</v>
       </c>
       <c r="AB71" t="n">
-        <v>0.9361994447670995</v>
+        <v>-0.7085665361760258</v>
       </c>
       <c r="AC71" t="inlineStr">
         <is>
@@ -7658,10 +7750,10 @@
         <v>1000</v>
       </c>
       <c r="E72" t="n">
-        <v>1070.957455458871</v>
+        <v>991.0717263546471</v>
       </c>
       <c r="F72" t="n">
-        <v>7.095745545887053</v>
+        <v>-0.8928273645352874</v>
       </c>
       <c r="G72" t="n">
         <v>9.846985621402604</v>
@@ -7670,19 +7762,19 @@
         <v>100</v>
       </c>
       <c r="I72" t="n">
-        <v>2.551332325560348</v>
+        <v>16.79285982003908</v>
       </c>
       <c r="J72" t="n">
-        <v>5.598735451712187</v>
+        <v>3.676458567468689</v>
       </c>
       <c r="K72" s="3" t="n">
-        <v>16.6875</v>
+        <v>10.75</v>
       </c>
       <c r="L72" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="M72" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="N72" t="n">
         <v>0</v>
@@ -7691,43 +7783,43 @@
         <v>0</v>
       </c>
       <c r="P72" t="n">
-        <v>66.66666666666666</v>
+        <v>38.09523809523809</v>
       </c>
       <c r="Q72" t="n">
-        <v>7.517035029720365</v>
+        <v>0.8882876221991354</v>
       </c>
       <c r="R72" t="n">
-        <v>-0.7025530759971905</v>
+        <v>-0.619669595138293</v>
       </c>
       <c r="S72" t="n">
-        <v>3.916299047127906</v>
+        <v>0.6268951482857711</v>
       </c>
       <c r="T72" t="n">
-        <v>-0.7025530759971905</v>
+        <v>-0.4523693477775808</v>
       </c>
       <c r="U72" s="3" t="n">
-        <v>7.572916666666667</v>
+        <v>0.12890625</v>
       </c>
       <c r="V72" s="3" t="n">
-        <v>0.5520833333333334</v>
+        <v>0.1298076923032407</v>
       </c>
       <c r="W72" t="n">
-        <v>10.36827582886164</v>
+        <v>0.8483107506322208</v>
       </c>
       <c r="X72" t="n">
-        <v>23.65248515295687</v>
+        <v>-0.4251558878739683</v>
       </c>
       <c r="Y72" t="n">
-        <v>3.330333111964472</v>
+        <v>-1.276904846527542</v>
       </c>
       <c r="Z72" t="n">
-        <v>23.25502497106014</v>
+        <v>-2.810826908103589</v>
       </c>
       <c r="AA72" t="n">
-        <v>1.071649016339727</v>
+        <v>0.9383360909634836</v>
       </c>
       <c r="AB72" t="n">
-        <v>5.043682634201778</v>
+        <v>-1.830266724369122</v>
       </c>
       <c r="AC72" t="inlineStr">
         <is>
@@ -7760,10 +7852,10 @@
         <v>1000</v>
       </c>
       <c r="E73" t="n">
-        <v>973.9341636275055</v>
+        <v>998.2984607226101</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.606583637249446</v>
+        <v>-0.1701539277389884</v>
       </c>
       <c r="G73" t="n">
         <v>-5.608412445129485</v>
@@ -7772,19 +7864,19 @@
         <v>100</v>
       </c>
       <c r="I73" t="n">
-        <v>3.198234348682091</v>
+        <v>4.782472854798009</v>
       </c>
       <c r="J73" t="n">
-        <v>9.536603221892481</v>
+        <v>1.494430849102469</v>
       </c>
       <c r="K73" s="3" t="n">
-        <v>16.98958333333333</v>
+        <v>21.84375</v>
       </c>
       <c r="L73" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M73" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N73" t="n">
         <v>0</v>
@@ -7793,43 +7885,43 @@
         <v>0</v>
       </c>
       <c r="P73" t="n">
-        <v>50</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.244434601585694</v>
+        <v>0.958220496095688</v>
       </c>
       <c r="R73" t="n">
-        <v>-3.742168152608627</v>
+        <v>-0.4847430505692912</v>
       </c>
       <c r="S73" t="n">
-        <v>0.9088017730291186</v>
+        <v>0.6906920653940842</v>
       </c>
       <c r="T73" t="n">
-        <v>-2.188348570841173</v>
+        <v>-0.3858026235469154</v>
       </c>
       <c r="U73" s="3" t="n">
-        <v>4.854166666666667</v>
+        <v>0.1302083333333333</v>
       </c>
       <c r="V73" s="3" t="n">
-        <v>2.369791666666667</v>
+        <v>0.1953125</v>
       </c>
       <c r="W73" t="n">
-        <v>0.4116844163283945</v>
+        <v>0.8893479888598207</v>
       </c>
       <c r="X73" t="n">
-        <v>-6.516459093123601</v>
+        <v>-0.283589879564961</v>
       </c>
       <c r="Y73" t="n">
-        <v>-1.3612278224235</v>
+        <v>-0.3622656095387672</v>
       </c>
       <c r="Z73" t="n">
-        <v>-2.880931766695423</v>
+        <v>-1.371724327842609</v>
       </c>
       <c r="AA73" t="n">
-        <v>0.9708071461747255</v>
+        <v>0.9727392347954407</v>
       </c>
       <c r="AB73" t="n">
-        <v>-1.92141652785186</v>
+        <v>-0.4863589445595685</v>
       </c>
       <c r="AC73" t="inlineStr">
         <is>
@@ -7862,10 +7954,10 @@
         <v>1000</v>
       </c>
       <c r="E74" t="n">
-        <v>1075.804798346277</v>
+        <v>986.2692043329349</v>
       </c>
       <c r="F74" t="n">
-        <v>7.58047983462767</v>
+        <v>-1.373079566706508</v>
       </c>
       <c r="G74" t="n">
         <v>5.852180124955031</v>
@@ -7874,64 +7966,64 @@
         <v>100</v>
       </c>
       <c r="I74" t="n">
-        <v>3.70758440987117</v>
+        <v>10.35212319399644</v>
       </c>
       <c r="J74" t="n">
-        <v>2.464109371956451</v>
+        <v>2.604329046249655</v>
       </c>
       <c r="K74" s="3" t="n">
-        <v>10.21875</v>
+        <v>23.27083333333333</v>
       </c>
       <c r="L74" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="M74" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="N74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O74" t="n">
-        <v>44.91547268585146</v>
+        <v>0</v>
       </c>
       <c r="P74" t="n">
-        <v>50</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="Q74" t="n">
-        <v>3.409999207646921</v>
+        <v>0.9571428881512901</v>
       </c>
       <c r="R74" t="n">
-        <v>-0.2564048901346387</v>
+        <v>-0.4661988087824789</v>
       </c>
       <c r="S74" t="n">
-        <v>1.806267768407511</v>
+        <v>0.5486420741380348</v>
       </c>
       <c r="T74" t="n">
-        <v>-0.2557222134401146</v>
+        <v>-0.3017418408459048</v>
       </c>
       <c r="U74" s="3" t="n">
-        <v>6.770833333333333</v>
+        <v>0.3194444444444444</v>
       </c>
       <c r="V74" s="3" t="n">
-        <v>0.2552083333333333</v>
+        <v>0.1125</v>
       </c>
       <c r="W74" t="n">
-        <v>6.838535302618626</v>
+        <v>0.5440989888124823</v>
       </c>
       <c r="X74" t="n">
-        <v>7.722331415106339</v>
+        <v>-1.056215051312705</v>
       </c>
       <c r="Y74" t="n">
-        <v>5.400765887321132</v>
+        <v>-3.095469581741115</v>
       </c>
       <c r="Z74" t="n">
-        <v>61.18291937379335</v>
+        <v>-6.130719431492094</v>
       </c>
       <c r="AA74" t="n">
-        <v>1.117108967958384</v>
+        <v>0.8422241815465864</v>
       </c>
       <c r="AB74" t="n">
-        <v>7.977213414463168</v>
+        <v>-4.294655464403711</v>
       </c>
       <c r="AC74" t="inlineStr">
         <is>
@@ -7964,10 +8056,10 @@
         <v>1000</v>
       </c>
       <c r="E75" t="n">
-        <v>925.9841405158595</v>
+        <v>979.7488318471209</v>
       </c>
       <c r="F75" t="n">
-        <v>-7.401585948414049</v>
+        <v>-2.025116815287913</v>
       </c>
       <c r="G75" t="n">
         <v>-4.802796891447181</v>
@@ -7976,19 +8068,19 @@
         <v>100</v>
       </c>
       <c r="I75" t="n">
-        <v>2.350740411176101</v>
+        <v>10.29928720346292</v>
       </c>
       <c r="J75" t="n">
-        <v>10.19864947027276</v>
+        <v>4.968681020280663</v>
       </c>
       <c r="K75" s="3" t="n">
-        <v>21.46875</v>
+        <v>17.17708333333333</v>
       </c>
       <c r="L75" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="M75" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="N75" t="n">
         <v>0</v>
@@ -7997,39 +8089,43 @@
         <v>0</v>
       </c>
       <c r="P75" t="n">
-        <v>0</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="Q75" t="n">
-        <v>-0.6906986225072649</v>
+        <v>1.552393189127895</v>
       </c>
       <c r="R75" t="n">
-        <v>-5.927196072850951</v>
-      </c>
-      <c r="S75" t="inlineStr"/>
+        <v>-1.276615750667756</v>
+      </c>
+      <c r="S75" t="n">
+        <v>1.147807354621873</v>
+      </c>
       <c r="T75" t="n">
-        <v>-2.501235170045593</v>
-      </c>
-      <c r="U75" t="inlineStr"/>
+        <v>-0.5446836085332736</v>
+      </c>
+      <c r="U75" s="3" t="n">
+        <v>0.08333333333333333</v>
+      </c>
       <c r="V75" s="3" t="n">
-        <v>2.076388888888889</v>
+        <v>0.2291666666666667</v>
       </c>
       <c r="W75" t="n">
-        <v>0</v>
+        <v>0.6267539930243143</v>
       </c>
       <c r="X75" t="n">
-        <v>-24.67195316138015</v>
+        <v>-1.55778216560608</v>
       </c>
       <c r="Y75" t="n">
-        <v>-4.224794720100364</v>
+        <v>-1.823488770405671</v>
       </c>
       <c r="Z75" t="n">
-        <v>-5.956867046761463</v>
+        <v>-4.433549425306528</v>
       </c>
       <c r="AA75" t="n">
-        <v>0.8738362302392092</v>
+        <v>0.9130431219942288</v>
       </c>
       <c r="AB75" t="n">
-        <v>-5.781018243671879</v>
+        <v>-2.669680674539707</v>
       </c>
       <c r="AC75" t="inlineStr">
         <is>
@@ -8062,10 +8158,10 @@
         <v>1000</v>
       </c>
       <c r="E76" t="n">
-        <v>937.6465791842483</v>
+        <v>985.399740540432</v>
       </c>
       <c r="F76" t="n">
-        <v>-6.235342081575174</v>
+        <v>-1.460025945956795</v>
       </c>
       <c r="G76" t="n">
         <v>-16.97742849310125</v>
@@ -8074,64 +8170,64 @@
         <v>100</v>
       </c>
       <c r="I76" t="n">
-        <v>3.781359061810902</v>
+        <v>13.98401889422219</v>
       </c>
       <c r="J76" t="n">
-        <v>11.74966469775064</v>
+        <v>5.105506406914255</v>
       </c>
       <c r="K76" s="3" t="n">
-        <v>18.875</v>
+        <v>10.11458333333333</v>
       </c>
       <c r="L76" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="M76" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="N76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O76" t="n">
-        <v>0</v>
+        <v>0.8245960678620515</v>
       </c>
       <c r="P76" t="n">
-        <v>20</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="Q76" t="n">
-        <v>2.149774060912461</v>
+        <v>2.297530998369796</v>
       </c>
       <c r="R76" t="n">
-        <v>-6.557079749804537</v>
+        <v>-1.320444395225978</v>
       </c>
       <c r="S76" t="n">
-        <v>2.149774060912461</v>
+        <v>1.439202031388091</v>
       </c>
       <c r="T76" t="n">
-        <v>-2.084243387611439</v>
+        <v>-0.7215878725362539</v>
       </c>
       <c r="U76" s="3" t="n">
-        <v>2.739583333333333</v>
+        <v>0.2208333333333333</v>
       </c>
       <c r="V76" s="3" t="n">
-        <v>1.692708333333333</v>
+        <v>0.1979166666666667</v>
       </c>
       <c r="W76" t="n">
-        <v>0.2424869371138624</v>
+        <v>0.8223597996204827</v>
       </c>
       <c r="X76" t="n">
-        <v>-12.47068416315037</v>
+        <v>-0.907344442790003</v>
       </c>
       <c r="Y76" t="n">
-        <v>-2.717347608860014</v>
+        <v>-1.139934898968911</v>
       </c>
       <c r="Z76" t="n">
-        <v>-4.72488523824111</v>
+        <v>-3.30892459922695</v>
       </c>
       <c r="AA76" t="n">
-        <v>0.9348831579522411</v>
+        <v>0.9550712887861597</v>
       </c>
       <c r="AB76" t="n">
-        <v>-3.76756626680053</v>
+        <v>-1.721414482450729</v>
       </c>
       <c r="AC76" t="inlineStr">
         <is>
@@ -8164,27 +8260,31 @@
         <v>1000</v>
       </c>
       <c r="E77" t="n">
-        <v>1000</v>
+        <v>1032.555375625581</v>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>3.255537562558084</v>
       </c>
       <c r="G77" t="n">
         <v>-0.6134707051705268</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+        <v>7.315744265312439</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1.893062652877932</v>
+      </c>
+      <c r="K77" s="3" t="n">
+        <v>9.270833333333334</v>
+      </c>
       <c r="L77" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M77" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N77" t="n">
         <v>0</v>
@@ -8192,30 +8292,44 @@
       <c r="O77" t="n">
         <v>0</v>
       </c>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="inlineStr"/>
-      <c r="T77" t="inlineStr"/>
-      <c r="U77" t="inlineStr"/>
-      <c r="V77" t="inlineStr"/>
-      <c r="W77" t="inlineStr"/>
-      <c r="X77" t="inlineStr"/>
-      <c r="Y77" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="Z77" t="inlineStr"/>
-      <c r="AA77" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="AB77" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="P77" t="n">
+        <v>55.55555555555556</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>1.887440859667143</v>
+      </c>
+      <c r="R77" t="n">
+        <v>-1.15670716800476</v>
+      </c>
+      <c r="S77" t="n">
+        <v>1.114728248553736</v>
+      </c>
+      <c r="T77" t="n">
+        <v>-0.5802215065219474</v>
+      </c>
+      <c r="U77" s="3" t="n">
+        <v>0.05833333333333333</v>
+      </c>
+      <c r="V77" s="3" t="n">
+        <v>0.1041666666666667</v>
+      </c>
+      <c r="W77" t="n">
+        <v>2.383250524075003</v>
+      </c>
+      <c r="X77" t="n">
+        <v>3.617263958397873</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>4.365309417766165</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>25.1685009080545</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>1.608102223481897</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>8.641033143012189</v>
       </c>
       <c r="AC77" t="inlineStr">
         <is>

--- a/backtest_results/BTCUSDT_1_2018_12_2025_15min.xlsx
+++ b/backtest_results/BTCUSDT_1_2018_12_2025_15min.xlsx
@@ -614,10 +614,10 @@
         <v>1000</v>
       </c>
       <c r="E2" t="n">
-        <v>1042.485088512375</v>
+        <v>1046.598253427855</v>
       </c>
       <c r="F2" t="n">
-        <v>4.248508851237454</v>
+        <v>4.659825342785484</v>
       </c>
       <c r="G2" t="n">
         <v>-19.58510000000009</v>
@@ -626,19 +626,19 @@
         <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>11.1144852916448</v>
+        <v>10.35424604463721</v>
       </c>
       <c r="J2" t="n">
-        <v>2.189148569757333</v>
+        <v>1.803232102568109</v>
       </c>
       <c r="K2" s="3" t="n">
-        <v>8.958333333333334</v>
+        <v>4.739583333333333</v>
       </c>
       <c r="L2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -647,43 +647,43 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>35.71428571428572</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.933399328806157</v>
+        <v>4.933399328806158</v>
       </c>
       <c r="R2" t="n">
-        <v>-1.17738789395191</v>
+        <v>-1.177387893951905</v>
       </c>
       <c r="S2" t="n">
-        <v>1.669443502448029</v>
+        <v>1.669443502448028</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.4488322985838624</v>
+        <v>-0.4557912823013938</v>
       </c>
       <c r="U2" s="3" t="n">
         <v>0.35</v>
       </c>
       <c r="V2" s="3" t="n">
-        <v>0.08449074074074074</v>
+        <v>0.08854166666666667</v>
       </c>
       <c r="W2" t="n">
-        <v>2.041618680383334</v>
+        <v>2.259311698580272</v>
       </c>
       <c r="X2" t="n">
-        <v>3.034649179455306</v>
+        <v>3.584481032911901</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.453252408756713</v>
+        <v>4.874907544447552</v>
       </c>
       <c r="Z2" t="n">
-        <v>47.60196763793726</v>
+        <v>65.70598245725752</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.315132569605626</v>
+        <v>1.355704633355361</v>
       </c>
       <c r="AB2" t="n">
-        <v>10.44882081997845</v>
+        <v>11.519153897914</v>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
@@ -716,10 +716,10 @@
         <v>1000</v>
       </c>
       <c r="E3" t="n">
-        <v>966.019036805055</v>
+        <v>970.6264654669959</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.398096319494505</v>
+        <v>-2.937353453300409</v>
       </c>
       <c r="G3" t="n">
         <v>11.52159274964168</v>
@@ -728,19 +728,19 @@
         <v>100</v>
       </c>
       <c r="I3" t="n">
-        <v>7.150885236655043</v>
+        <v>6.380997258213199</v>
       </c>
       <c r="J3" t="n">
-        <v>6.892846729866579</v>
+        <v>6.892846729866574</v>
       </c>
       <c r="K3" s="3" t="n">
         <v>11.8125</v>
       </c>
       <c r="L3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -749,43 +749,43 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>22.22222222222222</v>
+        <v>25</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.581954837926437</v>
+        <v>1.581954837926444</v>
       </c>
       <c r="R3" t="n">
-        <v>-2.466098118897901</v>
+        <v>-2.466098118897917</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9999013206960206</v>
+        <v>0.999901320696027</v>
       </c>
       <c r="T3" t="n">
-        <v>-0.7721986119373242</v>
+        <v>-0.8216670858786213</v>
       </c>
       <c r="U3" s="3" t="n">
         <v>0.06770833333333333</v>
       </c>
       <c r="V3" s="3" t="n">
-        <v>0.4821428571412037</v>
+        <v>0.5451388888888888</v>
       </c>
       <c r="W3" t="n">
-        <v>0.3670139674524338</v>
+        <v>0.4026143066778074</v>
       </c>
       <c r="X3" t="n">
-        <v>-3.775662577216113</v>
+        <v>-3.671691816625504</v>
       </c>
       <c r="Y3" t="n">
-        <v>-1.345921113258386</v>
+        <v>-1.143075437636466</v>
       </c>
       <c r="Z3" t="n">
-        <v>-4.980038128253867</v>
+        <v>-4.412391758222189</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.9387101572870032</v>
+        <v>0.947221253376947</v>
       </c>
       <c r="AB3" t="n">
-        <v>-1.898698863994384</v>
+        <v>-1.614092982849586</v>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
@@ -818,10 +818,10 @@
         <v>1000</v>
       </c>
       <c r="E4" t="n">
-        <v>954.2647503947017</v>
+        <v>968.1527240321445</v>
       </c>
       <c r="F4" t="n">
-        <v>-4.573524960529835</v>
+        <v>-3.184727596785546</v>
       </c>
       <c r="G4" t="n">
         <v>-15.40796573575823</v>
@@ -830,19 +830,19 @@
         <v>100</v>
       </c>
       <c r="I4" t="n">
-        <v>17.34006427701682</v>
+        <v>15.84828526463956</v>
       </c>
       <c r="J4" t="n">
-        <v>5.606064090225932</v>
+        <v>4.19397146157559</v>
       </c>
       <c r="K4" s="3" t="n">
-        <v>19.32291666666667</v>
+        <v>16.52083333333333</v>
       </c>
       <c r="L4" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M4" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -851,43 +851,43 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>22.72727272727273</v>
+        <v>25</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.867970171957583</v>
+        <v>2.867970171957586</v>
       </c>
       <c r="R4" t="n">
-        <v>-1.425673968399771</v>
+        <v>-1.425673968399765</v>
       </c>
       <c r="S4" t="n">
-        <v>1.349870598078932</v>
+        <v>1.403817922337427</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.665463799373227</v>
+        <v>-0.675687572625065</v>
       </c>
       <c r="U4" s="3" t="n">
-        <v>0.1541666666666667</v>
+        <v>0.1520833333333333</v>
       </c>
       <c r="V4" s="3" t="n">
-        <v>0.1078431372453704</v>
+        <v>0.1166666666666667</v>
       </c>
       <c r="W4" t="n">
-        <v>0.5889140191509213</v>
+        <v>0.6830174966136641</v>
       </c>
       <c r="X4" t="n">
-        <v>-2.078874982059021</v>
+        <v>-1.592363798392761</v>
       </c>
       <c r="Y4" t="n">
-        <v>-3.623392982844901</v>
+        <v>-2.543267093971558</v>
       </c>
       <c r="Z4" t="n">
-        <v>-7.939947247750888</v>
+        <v>-7.975656156054904</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.7926594580217882</v>
+        <v>0.8450413090060551</v>
       </c>
       <c r="AB4" t="n">
-        <v>-5.980555905863406</v>
+        <v>-4.290118446178311</v>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
@@ -920,10 +920,10 @@
         <v>1000</v>
       </c>
       <c r="E5" t="n">
-        <v>997.5809311310041</v>
+        <v>992.8748117686005</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.241906886899585</v>
+        <v>-0.7125188231399534</v>
       </c>
       <c r="G5" t="n">
         <v>-3.771267661166144</v>
@@ -932,19 +932,19 @@
         <v>100</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28455075214517</v>
+        <v>18.42050293436305</v>
       </c>
       <c r="J5" t="n">
-        <v>2.704445059187714</v>
+        <v>2.704445059187696</v>
       </c>
       <c r="K5" s="3" t="n">
         <v>9.916666666666666</v>
       </c>
       <c r="L5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -953,43 +953,43 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>29.16666666666667</v>
+        <v>26.08695652173913</v>
       </c>
       <c r="Q5" t="n">
         <v>2.192772778225638</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.8104577640258545</v>
+        <v>-0.8104577640258551</v>
       </c>
       <c r="S5" t="n">
-        <v>1.048514814764416</v>
+        <v>1.144237484862018</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.4418548377312893</v>
+        <v>-0.4418548377312894</v>
       </c>
       <c r="U5" s="3" t="n">
-        <v>0.284226190474537</v>
+        <v>0.265625</v>
       </c>
       <c r="V5" s="3" t="n">
         <v>0.151348039212963</v>
       </c>
       <c r="W5" t="n">
-        <v>0.9679934860416718</v>
+        <v>0.9054481928691068</v>
       </c>
       <c r="X5" t="n">
-        <v>-0.1007945362081468</v>
+        <v>-0.3097907926695638</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0.1348945596164748</v>
+        <v>-0.5433841683866049</v>
       </c>
       <c r="Z5" t="n">
-        <v>-1.073336343309252</v>
+        <v>-3.079941253069438</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.9943342223286473</v>
+        <v>0.9764666923663858</v>
       </c>
       <c r="AB5" t="n">
-        <v>-0.2141930433824313</v>
+        <v>-0.8633664309723774</v>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
@@ -1022,10 +1022,10 @@
         <v>1000</v>
       </c>
       <c r="E6" t="n">
-        <v>991.2111963434096</v>
+        <v>995.6181186885219</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.8788803656590403</v>
+        <v>-0.4381881311478082</v>
       </c>
       <c r="G6" t="n">
         <v>32.81806957941897</v>
@@ -1034,7 +1034,7 @@
         <v>100</v>
       </c>
       <c r="I6" t="n">
-        <v>14.89688781788684</v>
+        <v>14.10973691261256</v>
       </c>
       <c r="J6" t="n">
         <v>4.644732570906787</v>
@@ -1043,10 +1043,10 @@
         <v>18.01041666666667</v>
       </c>
       <c r="L6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -1055,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>31.57894736842105</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="Q6" t="n">
         <v>2.280376914016493</v>
@@ -1064,34 +1064,34 @@
         <v>-1.016114435052094</v>
       </c>
       <c r="S6" t="n">
-        <v>1.114777579653638</v>
+        <v>1.114777579653637</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.5770898052781549</v>
+        <v>-0.5882798851165665</v>
       </c>
       <c r="U6" s="3" t="n">
         <v>0.1024305555555556</v>
       </c>
       <c r="V6" s="3" t="n">
-        <v>0.1778846153819444</v>
+        <v>0.1909722222106481</v>
       </c>
       <c r="W6" t="n">
-        <v>0.8806443002073934</v>
+        <v>0.9367391888052373</v>
       </c>
       <c r="X6" t="n">
-        <v>-0.4625686135047689</v>
+        <v>-0.2434378506376849</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.7953489932150641</v>
+        <v>-0.3659947197226177</v>
       </c>
       <c r="Z6" t="n">
-        <v>-2.191794131206477</v>
+        <v>-1.119766458391263</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.9610684265165197</v>
+        <v>0.9817618825876324</v>
       </c>
       <c r="AB6" t="n">
-        <v>-1.31802006507267</v>
+        <v>-0.6102032039694206</v>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
@@ -1124,10 +1124,10 @@
         <v>1000</v>
       </c>
       <c r="E7" t="n">
-        <v>997.0927768243004</v>
+        <v>1005.283957919712</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.2907223175699641</v>
+        <v>0.5283957919712406</v>
       </c>
       <c r="G7" t="n">
         <v>-6.777936846770105</v>
@@ -1136,19 +1136,19 @@
         <v>100</v>
       </c>
       <c r="I7" t="n">
-        <v>11.91116726655887</v>
+        <v>11.13312254711058</v>
       </c>
       <c r="J7" t="n">
-        <v>4.768481554032865</v>
+        <v>4.049424976496203</v>
       </c>
       <c r="K7" s="3" t="n">
         <v>13.69791666666667</v>
       </c>
       <c r="L7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -1157,43 +1157,43 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>33.33333333333333</v>
+        <v>35.71428571428572</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.569408799675858</v>
+        <v>2.569408799675864</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.8509960576762328</v>
+        <v>-0.839088523354703</v>
       </c>
       <c r="S7" t="n">
-        <v>1.12832270072953</v>
+        <v>1.121046533293515</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.5869551504609996</v>
+        <v>-0.557617271881533</v>
       </c>
       <c r="U7" s="3" t="n">
-        <v>0.2354166666666667</v>
+        <v>0.2270833333333333</v>
       </c>
       <c r="V7" s="3" t="n">
-        <v>0.1072916666666667</v>
+        <v>0.1145833333333333</v>
       </c>
       <c r="W7" t="n">
-        <v>0.950251917633799</v>
+        <v>1.105509477770434</v>
       </c>
       <c r="X7" t="n">
-        <v>-0.193814878379968</v>
+        <v>0.377425565693744</v>
       </c>
       <c r="Y7" t="n">
-        <v>-0.2933755311057877</v>
+        <v>0.6938238316764136</v>
       </c>
       <c r="Z7" t="n">
-        <v>-0.7807129067427085</v>
+        <v>1.755464122675999</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.9852149503641353</v>
+        <v>1.036665820029944</v>
       </c>
       <c r="AB7" t="n">
-        <v>-0.4367941890314407</v>
+        <v>1.050593028928093</v>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
@@ -1226,10 +1226,10 @@
         <v>1000</v>
       </c>
       <c r="E8" t="n">
-        <v>903.1469825691208</v>
+        <v>924.0453673916655</v>
       </c>
       <c r="F8" t="n">
-        <v>-9.685301743087917</v>
+        <v>-7.595463260833446</v>
       </c>
       <c r="G8" t="n">
         <v>-25.1508271919714</v>
@@ -1238,19 +1238,19 @@
         <v>100</v>
       </c>
       <c r="I8" t="n">
-        <v>17.25733804894129</v>
+        <v>16.6662719534387</v>
       </c>
       <c r="J8" t="n">
-        <v>18.73864633232029</v>
+        <v>16.85829786975079</v>
       </c>
       <c r="K8" s="3" t="n">
         <v>16.03125</v>
       </c>
       <c r="L8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -1259,43 +1259,43 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>26.08695652173913</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.379905043560709</v>
+        <v>4.379905043560707</v>
       </c>
       <c r="R8" t="n">
         <v>-5.555110388761224</v>
       </c>
       <c r="S8" t="n">
-        <v>2.234316535268852</v>
+        <v>2.234316535268853</v>
       </c>
       <c r="T8" t="n">
-        <v>-1.358430448125886</v>
+        <v>-1.301924628402778</v>
       </c>
       <c r="U8" s="3" t="n">
         <v>0.2204861111111111</v>
       </c>
       <c r="V8" s="3" t="n">
-        <v>0.2463235294097222</v>
+        <v>0.2180989583333333</v>
       </c>
       <c r="W8" t="n">
-        <v>0.5549252077491238</v>
+        <v>0.6171939748573296</v>
       </c>
       <c r="X8" t="n">
-        <v>-4.211000757864327</v>
+        <v>-3.452483300378842</v>
       </c>
       <c r="Y8" t="n">
-        <v>-2.417839824876536</v>
+        <v>-2.007890797335926</v>
       </c>
       <c r="Z8" t="n">
-        <v>-3.790683099547357</v>
+        <v>-3.662282773617536</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.9081152899173035</v>
+        <v>0.9159756063130262</v>
       </c>
       <c r="AB8" t="n">
-        <v>-3.247031592250413</v>
+        <v>-2.694937149054521</v>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
@@ -1328,10 +1328,10 @@
         <v>1000</v>
       </c>
       <c r="E9" t="n">
-        <v>867.2615159076629</v>
+        <v>868.8628093491833</v>
       </c>
       <c r="F9" t="n">
-        <v>-13.27384840923371</v>
+        <v>-13.11371906508167</v>
       </c>
       <c r="G9" t="n">
         <v>37.31872958719589</v>
@@ -1340,19 +1340,19 @@
         <v>100</v>
       </c>
       <c r="I9" t="n">
-        <v>21.45498842959072</v>
+        <v>18.7091809610217</v>
       </c>
       <c r="J9" t="n">
-        <v>14.64014168425358</v>
+        <v>14.45420208888671</v>
       </c>
       <c r="K9" s="3" t="n">
         <v>26.34375</v>
       </c>
       <c r="L9" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M9" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -1361,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>23.33333333333333</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="Q9" t="n">
         <v>1.411516649288987</v>
@@ -1370,34 +1370,34 @@
         <v>-1.974013405047589</v>
       </c>
       <c r="S9" t="n">
-        <v>0.7938123144192695</v>
+        <v>0.7114302233088108</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.8553238609205347</v>
+        <v>-0.9105690032455936</v>
       </c>
       <c r="U9" s="3" t="n">
-        <v>0.1815476190393518</v>
+        <v>0.2065972222222222</v>
       </c>
       <c r="V9" s="3" t="n">
-        <v>0.1530797101388889</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="W9" t="n">
-        <v>0.2661309097532771</v>
+        <v>0.220736363785516</v>
       </c>
       <c r="X9" t="n">
-        <v>-4.424616136411229</v>
+        <v>-5.043738101954485</v>
       </c>
       <c r="Y9" t="n">
-        <v>-8.489844495425743</v>
+        <v>-8.725956625446521</v>
       </c>
       <c r="Z9" t="n">
-        <v>-5.692178494645892</v>
+        <v>-5.73832986215099</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.7235268217238773</v>
+        <v>0.7130986079538938</v>
       </c>
       <c r="AB9" t="n">
-        <v>-10.79914546663096</v>
+        <v>-10.81724407490895</v>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
@@ -1430,10 +1430,10 @@
         <v>1000</v>
       </c>
       <c r="E10" t="n">
-        <v>887.282077532381</v>
+        <v>898.8600205994694</v>
       </c>
       <c r="F10" t="n">
-        <v>-11.2717922467619</v>
+        <v>-10.11399794005306</v>
       </c>
       <c r="G10" t="n">
         <v>11.05141988880258</v>
@@ -1442,19 +1442,19 @@
         <v>100</v>
       </c>
       <c r="I10" t="n">
-        <v>11.88777331906547</v>
+        <v>11.21060019251499</v>
       </c>
       <c r="J10" t="n">
-        <v>11.2717922467619</v>
+        <v>10.11399794005305</v>
       </c>
       <c r="K10" s="3" t="n">
         <v>27.09375</v>
       </c>
       <c r="L10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>18.75</v>
+        <v>20</v>
       </c>
       <c r="Q10" t="n">
         <v>2.832126241495066</v>
@@ -1472,34 +1472,34 @@
         <v>-4.104141572405243</v>
       </c>
       <c r="S10" t="n">
-        <v>2.347583460405751</v>
+        <v>2.347583460405754</v>
       </c>
       <c r="T10" t="n">
-        <v>-1.440490440846066</v>
+        <v>-1.453156843722151</v>
       </c>
       <c r="U10" s="3" t="n">
         <v>0.46875</v>
       </c>
       <c r="V10" s="3" t="n">
-        <v>0.3341346153819444</v>
+        <v>0.3385416666666667</v>
       </c>
       <c r="W10" t="n">
-        <v>0.3612654193478008</v>
+        <v>0.3875094395523943</v>
       </c>
       <c r="X10" t="n">
-        <v>-7.044870154226182</v>
+        <v>-6.742665293368711</v>
       </c>
       <c r="Y10" t="n">
-        <v>-4.402957455990768</v>
+        <v>-3.957535313660039</v>
       </c>
       <c r="Z10" t="n">
-        <v>-6.800081721476777</v>
+        <v>-7.184203326747883</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.8331501791901921</v>
+        <v>0.8449737623667408</v>
       </c>
       <c r="AB10" t="n">
-        <v>-5.521748946410552</v>
+        <v>-4.97754388122566</v>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
@@ -1532,10 +1532,10 @@
         <v>1000</v>
       </c>
       <c r="E11" t="n">
-        <v>1027.05095312315</v>
+        <v>1008.615202059282</v>
       </c>
       <c r="F11" t="n">
-        <v>2.705095312314961</v>
+        <v>0.8615202059281615</v>
       </c>
       <c r="G11" t="n">
         <v>-3.099796553109058</v>
@@ -1544,19 +1544,19 @@
         <v>100</v>
       </c>
       <c r="I11" t="n">
-        <v>12.95484200490695</v>
+        <v>9.540017684959448</v>
       </c>
       <c r="J11" t="n">
-        <v>2.794014970792698</v>
+        <v>2.03913934575918</v>
       </c>
       <c r="K11" s="3" t="n">
-        <v>20.86458333333333</v>
+        <v>17.61458333333333</v>
       </c>
       <c r="L11" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="M11" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1565,43 +1565,43 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>43.75</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.424196290443329</v>
+        <v>1.778585081244767</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.9648880819151374</v>
+        <v>-0.964888081915145</v>
       </c>
       <c r="S11" t="n">
-        <v>1.092273380448117</v>
+        <v>0.9354486638026566</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.544774240660336</v>
+        <v>-0.540047702451846</v>
       </c>
       <c r="U11" s="3" t="n">
-        <v>0.252976190474537</v>
+        <v>0.2583333333333334</v>
       </c>
       <c r="V11" s="3" t="n">
-        <v>0.2847222222222222</v>
+        <v>0.3214285714236111</v>
       </c>
       <c r="W11" t="n">
-        <v>1.543120098862344</v>
+        <v>1.228235561659538</v>
       </c>
       <c r="X11" t="n">
-        <v>1.690684570196863</v>
+        <v>0.7179335049401288</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.711125815019122</v>
+        <v>1.023329779421636</v>
       </c>
       <c r="Z11" t="n">
-        <v>14.28387784149782</v>
+        <v>5.589085397131065</v>
       </c>
       <c r="AA11" t="n">
-        <v>1.117287865127169</v>
+        <v>1.046995210502104</v>
       </c>
       <c r="AB11" t="n">
-        <v>4.003113088241377</v>
+        <v>1.428565341923307</v>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
@@ -1634,10 +1634,10 @@
         <v>1000</v>
       </c>
       <c r="E12" t="n">
-        <v>989.1654199407426</v>
+        <v>1002.672717036168</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.08345800592574</v>
+        <v>0.2672717036168364</v>
       </c>
       <c r="G12" t="n">
         <v>21.87969149188307</v>
@@ -1646,7 +1646,7 @@
         <v>100</v>
       </c>
       <c r="I12" t="n">
-        <v>12.69164212827533</v>
+        <v>11.88474452182946</v>
       </c>
       <c r="J12" t="n">
         <v>2.039043838519103</v>
@@ -1655,10 +1655,10 @@
         <v>21.23958333333333</v>
       </c>
       <c r="L12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1667,43 +1667,43 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>43.75</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="Q12" t="n">
         <v>1.411278950414982</v>
       </c>
       <c r="R12" t="n">
-        <v>-1.347668066027221</v>
+        <v>-1.156101486665039</v>
       </c>
       <c r="S12" t="n">
         <v>0.5907544720806437</v>
       </c>
       <c r="T12" t="n">
-        <v>-0.5758835643064317</v>
+        <v>-0.479410501591333</v>
       </c>
       <c r="U12" s="3" t="n">
         <v>0.3973214285648148</v>
       </c>
       <c r="V12" s="3" t="n">
-        <v>0.15625</v>
+        <v>0.1640625</v>
       </c>
       <c r="W12" t="n">
-        <v>0.7900215572414588</v>
+        <v>1.070166189725647</v>
       </c>
       <c r="X12" t="n">
-        <v>-0.6771612537035998</v>
+        <v>0.1781811357445435</v>
       </c>
       <c r="Y12" t="n">
-        <v>-1.362555138530936</v>
+        <v>0.4081009301544524</v>
       </c>
       <c r="Z12" t="n">
-        <v>-6.085785647981513</v>
+        <v>1.618213946371375</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.9393504627990862</v>
+        <v>1.019227840488481</v>
       </c>
       <c r="AB12" t="n">
-        <v>-1.878668106550224</v>
+        <v>0.5836698483378439</v>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
@@ -1736,10 +1736,10 @@
         <v>1000</v>
       </c>
       <c r="E13" t="n">
-        <v>927.5275804001358</v>
+        <v>948.6367607413512</v>
       </c>
       <c r="F13" t="n">
-        <v>-7.247241959986423</v>
+        <v>-5.136323925864883</v>
       </c>
       <c r="G13" t="n">
         <v>3.387230660543894</v>
@@ -1748,19 +1748,19 @@
         <v>100</v>
       </c>
       <c r="I13" t="n">
-        <v>11.42105028657229</v>
+        <v>10.05487625774906</v>
       </c>
       <c r="J13" t="n">
-        <v>8.262173141587086</v>
+        <v>6.15784689137089</v>
       </c>
       <c r="K13" s="3" t="n">
-        <v>26.96875</v>
+        <v>26.16666666666667</v>
       </c>
       <c r="L13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1769,43 +1769,43 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>6.666666666666667</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.9966455639768194</v>
+        <v>0.9966455639768377</v>
       </c>
       <c r="R13" t="n">
-        <v>-1.253168214654288</v>
+        <v>-1.020416229429635</v>
       </c>
       <c r="S13" t="n">
-        <v>0.9966455639768194</v>
+        <v>0.9966455639768377</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.6061570576812095</v>
+        <v>-0.5206719810616638</v>
       </c>
       <c r="U13" s="3" t="n">
         <v>0.6979166666666666</v>
       </c>
       <c r="V13" s="3" t="n">
-        <v>0.1986607142824074</v>
+        <v>0.1223958333333333</v>
       </c>
       <c r="W13" t="n">
-        <v>0.1120941177943335</v>
+        <v>0.1541077290694667</v>
       </c>
       <c r="X13" t="n">
-        <v>-4.831494639990934</v>
+        <v>-3.951018404511443</v>
       </c>
       <c r="Y13" t="n">
-        <v>-8.55247174656742</v>
+        <v>-8.036584542424437</v>
       </c>
       <c r="Z13" t="n">
-        <v>-7.25582719861639</v>
+        <v>-7.687780015450428</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.6976287273830151</v>
+        <v>0.6451367629101749</v>
       </c>
       <c r="AB13" t="n">
-        <v>-10.64111103970622</v>
+        <v>-9.877912957251436</v>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
@@ -1838,10 +1838,10 @@
         <v>1000</v>
       </c>
       <c r="E14" t="n">
-        <v>966.4580083610542</v>
+        <v>972.3534963837619</v>
       </c>
       <c r="F14" t="n">
-        <v>-3.354199163894577</v>
+        <v>-2.764650361623808</v>
       </c>
       <c r="G14" t="n">
         <v>-7.036935234495378</v>
@@ -1850,19 +1850,19 @@
         <v>100</v>
       </c>
       <c r="I14" t="n">
-        <v>15.62561029582357</v>
+        <v>14.87607143972932</v>
       </c>
       <c r="J14" t="n">
-        <v>3.631694196287436</v>
+        <v>3.276979814177025</v>
       </c>
       <c r="K14" s="3" t="n">
         <v>24.92708333333333</v>
       </c>
       <c r="L14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>30</v>
+        <v>31.57894736842105</v>
       </c>
       <c r="Q14" t="n">
         <v>1.796084608665634</v>
@@ -1880,34 +1880,34 @@
         <v>-1.299081565848546</v>
       </c>
       <c r="S14" t="n">
-        <v>0.9789282969206644</v>
+        <v>0.9789282969206636</v>
       </c>
       <c r="T14" t="n">
-        <v>-0.6583395932146229</v>
+        <v>-0.6623231226033843</v>
       </c>
       <c r="U14" s="3" t="n">
         <v>0.2864583333333333</v>
       </c>
       <c r="V14" s="3" t="n">
-        <v>0.1302083333333333</v>
+        <v>0.1370192307638889</v>
       </c>
       <c r="W14" t="n">
-        <v>0.62953333244331</v>
+        <v>0.673778931777935</v>
       </c>
       <c r="X14" t="n">
-        <v>-1.677099581947301</v>
+        <v>-1.455079137696758</v>
       </c>
       <c r="Y14" t="n">
-        <v>-3.044048554852347</v>
+        <v>-2.504004360813146</v>
       </c>
       <c r="Z14" t="n">
-        <v>-9.610004681680225</v>
+        <v>-9.07051733386794</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.8808370886852152</v>
+        <v>0.9002467034313972</v>
       </c>
       <c r="AB14" t="n">
-        <v>-4.20558705371231</v>
+        <v>-3.477474164134905</v>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
@@ -1940,10 +1940,10 @@
         <v>1000</v>
       </c>
       <c r="E15" t="n">
-        <v>944.0685621369922</v>
+        <v>951.6857638132925</v>
       </c>
       <c r="F15" t="n">
-        <v>-5.593143786300777</v>
+        <v>-4.831423618670748</v>
       </c>
       <c r="G15" t="n">
         <v>25.26207051675513</v>
@@ -1952,19 +1952,19 @@
         <v>100</v>
       </c>
       <c r="I15" t="n">
-        <v>14.86338512490645</v>
+        <v>13.35650682503163</v>
       </c>
       <c r="J15" t="n">
-        <v>7.261416027547139</v>
+        <v>6.513156287074874</v>
       </c>
       <c r="K15" s="3" t="n">
         <v>22.625</v>
       </c>
       <c r="L15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>21.05263157894737</v>
+        <v>23.52941176470588</v>
       </c>
       <c r="Q15" t="n">
         <v>1.4622102671219</v>
@@ -1982,34 +1982,34 @@
         <v>-1.147912527338469</v>
       </c>
       <c r="S15" t="n">
-        <v>0.9437901656600767</v>
+        <v>0.9437901656600818</v>
       </c>
       <c r="T15" t="n">
-        <v>-0.6316618478653484</v>
+        <v>-0.6671247423692481</v>
       </c>
       <c r="U15" s="3" t="n">
         <v>0.5338541666666666</v>
       </c>
       <c r="V15" s="3" t="n">
-        <v>0.1645833333333333</v>
+        <v>0.1594551281944444</v>
       </c>
       <c r="W15" t="n">
-        <v>0.3955626022452102</v>
+        <v>0.4319697107859121</v>
       </c>
       <c r="X15" t="n">
-        <v>-2.943759887526729</v>
+        <v>-2.842013893335735</v>
       </c>
       <c r="Y15" t="n">
-        <v>-5.735527496848388</v>
+        <v>-5.188808643645984</v>
       </c>
       <c r="Z15" t="n">
-        <v>-6.932922697019279</v>
+        <v>-6.946602149256186</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.79125067804194</v>
+        <v>0.8004113006302945</v>
       </c>
       <c r="AB15" t="n">
-        <v>-7.380484620898135</v>
+        <v>-6.654857316014211</v>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
@@ -2144,10 +2144,10 @@
         <v>1000</v>
       </c>
       <c r="E17" t="n">
-        <v>949.144802024471</v>
+        <v>953.9059422923452</v>
       </c>
       <c r="F17" t="n">
-        <v>-5.0855197975529</v>
+        <v>-4.609405770765477</v>
       </c>
       <c r="G17" t="n">
         <v>49.49954448365814</v>
@@ -2156,19 +2156,19 @@
         <v>100</v>
       </c>
       <c r="I17" t="n">
-        <v>19.33506271569633</v>
+        <v>18.61583114149028</v>
       </c>
       <c r="J17" t="n">
-        <v>8.35629129220519</v>
+        <v>8.356291292205203</v>
       </c>
       <c r="K17" s="3" t="n">
         <v>16.52083333333333</v>
       </c>
       <c r="L17" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M17" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -2177,43 +2177,43 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>28</v>
+        <v>29.16666666666667</v>
       </c>
       <c r="Q17" t="n">
-        <v>3.7814794808124</v>
+        <v>3.781479480812407</v>
       </c>
       <c r="R17" t="n">
-        <v>-1.939663293377686</v>
+        <v>-1.939663293377693</v>
       </c>
       <c r="S17" t="n">
-        <v>1.783871412839403</v>
+        <v>1.783871412839402</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.9704933547233391</v>
+        <v>-0.9982050621699421</v>
       </c>
       <c r="U17" s="3" t="n">
         <v>0.2202380952314815</v>
       </c>
       <c r="V17" s="3" t="n">
-        <v>0.1359953703703704</v>
+        <v>0.1427696078356482</v>
       </c>
       <c r="W17" t="n">
-        <v>0.7019313618622354</v>
+        <v>0.7228125038948352</v>
       </c>
       <c r="X17" t="n">
-        <v>-2.034207919021171</v>
+        <v>-1.920585737818956</v>
       </c>
       <c r="Y17" t="n">
-        <v>-2.460228988256014</v>
+        <v>-2.214678055951793</v>
       </c>
       <c r="Z17" t="n">
-        <v>-5.624042940380106</v>
+        <v>-5.226038177595719</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.9019847151984313</v>
+        <v>0.91098007590191</v>
       </c>
       <c r="AB17" t="n">
-        <v>-3.421952457867378</v>
+        <v>-3.082505973718998</v>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
@@ -2246,10 +2246,10 @@
         <v>1000</v>
       </c>
       <c r="E18" t="n">
-        <v>1051.599874249616</v>
+        <v>1074.022191654857</v>
       </c>
       <c r="F18" t="n">
-        <v>5.159987424961628</v>
+        <v>7.402219165485713</v>
       </c>
       <c r="G18" t="n">
         <v>18.98362962126663</v>
@@ -2258,7 +2258,7 @@
         <v>100</v>
       </c>
       <c r="I18" t="n">
-        <v>16.83522967722179</v>
+        <v>16.14320750108492</v>
       </c>
       <c r="J18" t="n">
         <v>10.75063110779488</v>
@@ -2267,10 +2267,10 @@
         <v>17.96875</v>
       </c>
       <c r="L18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -2279,7 +2279,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>35</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="Q18" t="n">
         <v>7.177154513495558</v>
@@ -2288,34 +2288,34 @@
         <v>-2.700995520244791</v>
       </c>
       <c r="S18" t="n">
-        <v>3.968595890778702</v>
+        <v>3.968595890778698</v>
       </c>
       <c r="T18" t="n">
-        <v>-1.685083104756853</v>
+        <v>-1.651462447497963</v>
       </c>
       <c r="U18" s="3" t="n">
         <v>0.1979166666666667</v>
       </c>
       <c r="V18" s="3" t="n">
-        <v>0.112980769224537</v>
+        <v>0.1154513888888889</v>
       </c>
       <c r="W18" t="n">
-        <v>1.220561519921324</v>
+        <v>1.346982233433672</v>
       </c>
       <c r="X18" t="n">
-        <v>2.579993712480809</v>
+        <v>3.895904823939865</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.721236205023688</v>
+        <v>2.383471637378286</v>
       </c>
       <c r="Z18" t="n">
-        <v>7.850499176434537</v>
+        <v>12.86808322612793</v>
       </c>
       <c r="AA18" t="n">
-        <v>1.083174918593499</v>
+        <v>1.119059872590046</v>
       </c>
       <c r="AB18" t="n">
-        <v>2.609548140991424</v>
+        <v>3.663638262937142</v>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
@@ -2348,10 +2348,10 @@
         <v>1000</v>
       </c>
       <c r="E19" t="n">
-        <v>906.2639527582035</v>
+        <v>918.0006483881522</v>
       </c>
       <c r="F19" t="n">
-        <v>-9.373604724179655</v>
+        <v>-8.199935161184783</v>
       </c>
       <c r="G19" t="n">
         <v>41.36935887909195</v>
@@ -2360,28 +2360,28 @@
         <v>100</v>
       </c>
       <c r="I19" t="n">
-        <v>10.64202899666537</v>
+        <v>9.909814257922879</v>
       </c>
       <c r="J19" t="n">
-        <v>13.58797605612463</v>
+        <v>12.46888528713798</v>
       </c>
       <c r="K19" s="3" t="n">
         <v>12.07291666666667</v>
       </c>
       <c r="L19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N19" t="n">
         <v>1</v>
       </c>
       <c r="O19" t="n">
-        <v>4.100811733872089</v>
+        <v>4.153919858728928</v>
       </c>
       <c r="P19" t="n">
-        <v>23.07692307692308</v>
+        <v>25</v>
       </c>
       <c r="Q19" t="n">
         <v>2.016636964498029</v>
@@ -2393,31 +2393,31 @@
         <v>1.884852850724993</v>
       </c>
       <c r="T19" t="n">
-        <v>-1.57495957381577</v>
+        <v>-1.607842009938105</v>
       </c>
       <c r="U19" s="3" t="n">
         <v>0.1597222222222222</v>
       </c>
       <c r="V19" s="3" t="n">
-        <v>0.290625</v>
+        <v>0.318287037037037</v>
       </c>
       <c r="W19" t="n">
-        <v>0.3672359814531044</v>
+        <v>0.3972541306215475</v>
       </c>
       <c r="X19" t="n">
-        <v>-7.525912228897574</v>
+        <v>-7.179439289214726</v>
       </c>
       <c r="Y19" t="n">
-        <v>-4.011788020338566</v>
+        <v>-3.480854310716718</v>
       </c>
       <c r="Z19" t="n">
-        <v>-5.413124249344848</v>
+        <v>-5.496143374028404</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.8529878007515553</v>
+        <v>0.8703408552162049</v>
       </c>
       <c r="AB19" t="n">
-        <v>-5.603310210417892</v>
+        <v>-4.879963688310305</v>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
@@ -2552,10 +2552,10 @@
         <v>1000</v>
       </c>
       <c r="E21" t="n">
-        <v>902.8347761614868</v>
+        <v>923.879223573698</v>
       </c>
       <c r="F21" t="n">
-        <v>-9.716522383851316</v>
+        <v>-7.612077642630196</v>
       </c>
       <c r="G21" t="n">
         <v>-9.600990980875268</v>
@@ -2564,19 +2564,19 @@
         <v>100</v>
       </c>
       <c r="I21" t="n">
-        <v>18.88488380660056</v>
+        <v>16.01966253483679</v>
       </c>
       <c r="J21" t="n">
-        <v>14.15913760272808</v>
+        <v>12.61122488392613</v>
       </c>
       <c r="K21" s="3" t="n">
         <v>24.76041666666667</v>
       </c>
       <c r="L21" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M21" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -2585,43 +2585,43 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>24</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.928318759005804</v>
+        <v>2.928318759005814</v>
       </c>
       <c r="R21" t="n">
-        <v>-1.798529221009364</v>
+        <v>-1.675490690481812</v>
       </c>
       <c r="S21" t="n">
-        <v>1.482799067122875</v>
+        <v>1.678380971583127</v>
       </c>
       <c r="T21" t="n">
-        <v>-0.9963726868317218</v>
+        <v>-1.008824534986571</v>
       </c>
       <c r="U21" s="3" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.09791666666666667</v>
       </c>
       <c r="V21" s="3" t="n">
-        <v>0.1628289473611111</v>
+        <v>0.1829427083333333</v>
       </c>
       <c r="W21" t="n">
-        <v>0.4569132140324177</v>
+        <v>0.5058015152648724</v>
       </c>
       <c r="X21" t="n">
-        <v>-3.886608953540531</v>
+        <v>-3.624798877442959</v>
       </c>
       <c r="Y21" t="n">
-        <v>-5.248934232592552</v>
+        <v>-4.141241110338635</v>
       </c>
       <c r="Z21" t="n">
-        <v>-5.110754015493102</v>
+        <v>-5.001087519906343</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.7998706860692425</v>
+        <v>0.8349239854317302</v>
       </c>
       <c r="AB21" t="n">
-        <v>-7.608850241856699</v>
+        <v>-6.115779915123144</v>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
@@ -2756,10 +2756,10 @@
         <v>1000</v>
       </c>
       <c r="E23" t="n">
-        <v>1014.849375930167</v>
+        <v>1001.358175077064</v>
       </c>
       <c r="F23" t="n">
-        <v>1.484937593016673</v>
+        <v>0.1358175077063834</v>
       </c>
       <c r="G23" t="n">
         <v>-4.762600414908558</v>
@@ -2768,19 +2768,19 @@
         <v>100</v>
       </c>
       <c r="I23" t="n">
-        <v>5.538100846317707</v>
+        <v>4.681060004567823</v>
       </c>
       <c r="J23" t="n">
-        <v>5.968216097373948</v>
+        <v>5.968216097373944</v>
       </c>
       <c r="K23" s="3" t="n">
         <v>22.46875</v>
       </c>
       <c r="L23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -2789,43 +2789,43 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>42.85714285714285</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="Q23" t="n">
-        <v>4.283335882719682</v>
+        <v>4.283335882719679</v>
       </c>
       <c r="R23" t="n">
-        <v>-1.600452484099899</v>
+        <v>-1.600452484099902</v>
       </c>
       <c r="S23" t="n">
-        <v>2.138081918446807</v>
+        <v>2.533208304974707</v>
       </c>
       <c r="T23" t="n">
-        <v>-1.201937486252179</v>
+        <v>-1.201937486252176</v>
       </c>
       <c r="U23" s="3" t="n">
-        <v>0.1979166666666667</v>
+        <v>0.25</v>
       </c>
       <c r="V23" s="3" t="n">
         <v>0.1614583333333333</v>
       </c>
       <c r="W23" t="n">
-        <v>1.310331326441023</v>
+        <v>1.028766386657874</v>
       </c>
       <c r="X23" t="n">
-        <v>2.121339418595255</v>
+        <v>0.2263625128439894</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.112020114093413</v>
+        <v>0.1847312351789334</v>
       </c>
       <c r="Z23" t="n">
-        <v>3.41421947677275</v>
+        <v>0.2885816806608625</v>
       </c>
       <c r="AA23" t="n">
-        <v>1.085739599082786</v>
+        <v>1.01459419015186</v>
       </c>
       <c r="AB23" t="n">
-        <v>1.753928987580782</v>
+        <v>0.2884824792114845</v>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
@@ -2858,10 +2858,10 @@
         <v>1000</v>
       </c>
       <c r="E24" t="n">
-        <v>1031.263570151565</v>
+        <v>992.8614290779508</v>
       </c>
       <c r="F24" t="n">
-        <v>3.126357015156532</v>
+        <v>-0.7138570922049212</v>
       </c>
       <c r="G24" t="n">
         <v>20.66716353720566</v>
@@ -2870,19 +2870,19 @@
         <v>100</v>
       </c>
       <c r="I24" t="n">
-        <v>21.30291115276758</v>
+        <v>18.16832889751346</v>
       </c>
       <c r="J24" t="n">
-        <v>7.460804570038723</v>
+        <v>7.460804570038743</v>
       </c>
       <c r="K24" s="3" t="n">
         <v>13.65625</v>
       </c>
       <c r="L24" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M24" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -2891,43 +2891,43 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>34.61538461538461</v>
+        <v>30.43478260869566</v>
       </c>
       <c r="Q24" t="n">
-        <v>3.474687802660445</v>
+        <v>3.474687802660444</v>
       </c>
       <c r="R24" t="n">
-        <v>-1.797659857149863</v>
+        <v>-1.797659857149841</v>
       </c>
       <c r="S24" t="n">
-        <v>1.822358697913251</v>
+        <v>1.721947812960738</v>
       </c>
       <c r="T24" t="n">
-        <v>-0.7695345146594631</v>
+        <v>-0.7861716359130145</v>
       </c>
       <c r="U24" s="3" t="n">
-        <v>0.2326388888888889</v>
+        <v>0.2276785714236111</v>
       </c>
       <c r="V24" s="3" t="n">
-        <v>0.1029411764699074</v>
+        <v>0.1041666666666667</v>
       </c>
       <c r="W24" t="n">
-        <v>1.231411763558001</v>
+        <v>0.9430268099056077</v>
       </c>
       <c r="X24" t="n">
-        <v>1.202445005829424</v>
+        <v>-0.3103726487847434</v>
       </c>
       <c r="Y24" t="n">
-        <v>1.853662229747685</v>
+        <v>-0.3389916372528015</v>
       </c>
       <c r="Z24" t="n">
-        <v>6.087087979119263</v>
+        <v>-1.118452926637421</v>
       </c>
       <c r="AA24" t="n">
-        <v>1.084491325978366</v>
+        <v>0.9843003929692929</v>
       </c>
       <c r="AB24" t="n">
-        <v>3.047468748469334</v>
+        <v>-0.532990268980291</v>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
@@ -2960,10 +2960,10 @@
         <v>1000</v>
       </c>
       <c r="E25" t="n">
-        <v>1000.751021766575</v>
+        <v>1011.38643546808</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07510217665751498</v>
+        <v>1.138643546807998</v>
       </c>
       <c r="G25" t="n">
         <v>13.61113133328362</v>
@@ -2972,19 +2972,19 @@
         <v>100</v>
       </c>
       <c r="I25" t="n">
-        <v>5.55177363048231</v>
+        <v>4.781371799528854</v>
       </c>
       <c r="J25" t="n">
-        <v>2.522365073051401</v>
+        <v>2.522365073051403</v>
       </c>
       <c r="K25" s="3" t="n">
-        <v>13.48958333333333</v>
+        <v>10</v>
       </c>
       <c r="L25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -2993,43 +2993,43 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>42.85714285714285</v>
+        <v>50</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.624791698998115</v>
+        <v>1.624791698998117</v>
       </c>
       <c r="R25" t="n">
         <v>-1.305650679814732</v>
       </c>
       <c r="S25" t="n">
-        <v>1.451591208367672</v>
+        <v>1.451591208367676</v>
       </c>
       <c r="T25" t="n">
-        <v>-1.05629253013972</v>
+        <v>-1.057727243920849</v>
       </c>
       <c r="U25" s="3" t="n">
         <v>0.0902777777662037</v>
       </c>
       <c r="V25" s="3" t="n">
-        <v>0.1302083333333333</v>
+        <v>0.1631944444444444</v>
       </c>
       <c r="W25" t="n">
-        <v>1.017905575782782</v>
+        <v>1.360050694954724</v>
       </c>
       <c r="X25" t="n">
-        <v>0.107288823796468</v>
+        <v>1.897739244680018</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.1381384843958612</v>
+        <v>1.344907990730902</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.3636525451676951</v>
+        <v>5.853087430788301</v>
       </c>
       <c r="AA25" t="n">
-        <v>1.012111343353383</v>
+        <v>1.127982996347414</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.1983748763703998</v>
+        <v>1.989501708587878</v>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
@@ -3062,10 +3062,10 @@
         <v>1000</v>
       </c>
       <c r="E26" t="n">
-        <v>956.0106408316343</v>
+        <v>961.616838318502</v>
       </c>
       <c r="F26" t="n">
-        <v>-4.398935916836569</v>
+        <v>-3.8383161681498</v>
       </c>
       <c r="G26" t="n">
         <v>-11.82183119729999</v>
@@ -3074,10 +3074,10 @@
         <v>100</v>
       </c>
       <c r="I26" t="n">
-        <v>10.80734326978203</v>
+        <v>10.83762950449192</v>
       </c>
       <c r="J26" t="n">
-        <v>6.719975989093757</v>
+        <v>6.172967186210576</v>
       </c>
       <c r="K26" s="3" t="n">
         <v>25.5625</v>
@@ -3098,40 +3098,40 @@
         <v>21.42857142857143</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.448249865786698</v>
+        <v>2.448249865786712</v>
       </c>
       <c r="R26" t="n">
-        <v>-1.471855818232291</v>
+        <v>-1.092998275908145</v>
       </c>
       <c r="S26" t="n">
-        <v>1.402971400238117</v>
+        <v>1.402971400238121</v>
       </c>
       <c r="T26" t="n">
-        <v>-0.7848575186876374</v>
+        <v>-0.7322674886152647</v>
       </c>
       <c r="U26" s="3" t="n">
         <v>0.125</v>
       </c>
       <c r="V26" s="3" t="n">
-        <v>0.1638257575694444</v>
+        <v>0.1183712121180556</v>
       </c>
       <c r="W26" t="n">
-        <v>0.4732766009975121</v>
+        <v>0.5085859739731737</v>
       </c>
       <c r="X26" t="n">
-        <v>-3.142097083454687</v>
+        <v>-2.741654405821278</v>
       </c>
       <c r="Y26" t="n">
-        <v>-4.197192438435174</v>
+        <v>-4.04833583931509</v>
       </c>
       <c r="Z26" t="n">
-        <v>-6.431711922651874</v>
+        <v>-6.299481225485532</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.8049524929847125</v>
+        <v>0.7806513143010492</v>
       </c>
       <c r="AB26" t="n">
-        <v>-6.350590025299955</v>
+        <v>-6.144087819486988</v>
       </c>
       <c r="AC26" t="inlineStr">
         <is>
@@ -3164,10 +3164,10 @@
         <v>1000</v>
       </c>
       <c r="E27" t="n">
-        <v>1045.509832310449</v>
+        <v>1038.127761745631</v>
       </c>
       <c r="F27" t="n">
-        <v>4.550983231044915</v>
+        <v>3.812776174563123</v>
       </c>
       <c r="G27" t="n">
         <v>42.65801169098489</v>
@@ -3176,19 +3176,19 @@
         <v>100</v>
       </c>
       <c r="I27" t="n">
-        <v>12.28290153021357</v>
+        <v>11.38228793131649</v>
       </c>
       <c r="J27" t="n">
-        <v>3.430487937541551</v>
+        <v>3.430487937541566</v>
       </c>
       <c r="K27" s="3" t="n">
-        <v>9.020833333333334</v>
+        <v>13.20833333333333</v>
       </c>
       <c r="L27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -3197,43 +3197,43 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>46.66666666666666</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="Q27" t="n">
-        <v>3.185921142094963</v>
+        <v>3.18592114209497</v>
       </c>
       <c r="R27" t="n">
-        <v>-1.343944725228884</v>
+        <v>-1.343944725228877</v>
       </c>
       <c r="S27" t="n">
-        <v>1.645907893573107</v>
+        <v>1.802054658314423</v>
       </c>
       <c r="T27" t="n">
-        <v>-0.8656624159025217</v>
+        <v>-0.8656624159025239</v>
       </c>
       <c r="U27" s="3" t="n">
-        <v>0.127976190474537</v>
+        <v>0.1180555555555556</v>
       </c>
       <c r="V27" s="3" t="n">
         <v>0.1875</v>
       </c>
       <c r="W27" t="n">
-        <v>1.638915020682429</v>
+        <v>1.53943030452756</v>
       </c>
       <c r="X27" t="n">
-        <v>3.033988820696583</v>
+        <v>2.723411553259355</v>
       </c>
       <c r="Y27" t="n">
-        <v>2.977802851191879</v>
+        <v>2.565785069451056</v>
       </c>
       <c r="Z27" t="n">
-        <v>20.93619767385437</v>
+        <v>16.80048369478919</v>
       </c>
       <c r="AA27" t="n">
-        <v>1.1888672870199</v>
+        <v>1.168042210525656</v>
       </c>
       <c r="AB27" t="n">
-        <v>5.394809034688169</v>
+        <v>4.651856488897106</v>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
@@ -3266,10 +3266,10 @@
         <v>1000</v>
       </c>
       <c r="E28" t="n">
-        <v>993.3741234542753</v>
+        <v>1001.824358538815</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.6625876545724736</v>
+        <v>0.1824358538815204</v>
       </c>
       <c r="G28" t="n">
         <v>-5.924342341882882</v>
@@ -3278,19 +3278,19 @@
         <v>100</v>
       </c>
       <c r="I28" t="n">
-        <v>12.70548520136023</v>
+        <v>12.01016425899882</v>
       </c>
       <c r="J28" t="n">
-        <v>4.221057673227359</v>
+        <v>4.221057673227361</v>
       </c>
       <c r="K28" s="3" t="n">
         <v>6.739583333333333</v>
       </c>
       <c r="L28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -3299,43 +3299,43 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>37.5</v>
+        <v>40</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.935654619021199</v>
+        <v>2.93565461902119</v>
       </c>
       <c r="R28" t="n">
         <v>-1.168371996867152</v>
       </c>
       <c r="S28" t="n">
-        <v>1.392179460518929</v>
+        <v>1.392179460518933</v>
       </c>
       <c r="T28" t="n">
-        <v>-0.8900003823929071</v>
+        <v>-0.8951313044550663</v>
       </c>
       <c r="U28" s="3" t="n">
         <v>0.1961805555439815</v>
       </c>
       <c r="V28" s="3" t="n">
-        <v>0.1989583333333333</v>
+        <v>0.2164351851851852</v>
       </c>
       <c r="W28" t="n">
-        <v>0.9254407421435132</v>
+        <v>1.022490565769143</v>
       </c>
       <c r="X28" t="n">
-        <v>-0.4141172841078005</v>
+        <v>0.1216239025876771</v>
       </c>
       <c r="Y28" t="n">
-        <v>-0.393492089173663</v>
+        <v>0.2187458601737729</v>
       </c>
       <c r="Z28" t="n">
-        <v>-1.900936742858464</v>
+        <v>0.5495677238930976</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.9821809682412611</v>
+        <v>1.010131040779317</v>
       </c>
       <c r="AB28" t="n">
-        <v>-0.6357434545312807</v>
+        <v>0.3583757446512784</v>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
@@ -3368,10 +3368,10 @@
         <v>1000</v>
       </c>
       <c r="E29" t="n">
-        <v>921.4766686517086</v>
+        <v>944.6600998607839</v>
       </c>
       <c r="F29" t="n">
-        <v>-7.852333134829144</v>
+        <v>-5.533990013921606</v>
       </c>
       <c r="G29" t="n">
         <v>-17.416500020531</v>
@@ -3380,19 +3380,19 @@
         <v>100</v>
       </c>
       <c r="I29" t="n">
-        <v>12.12303427932208</v>
+        <v>10.02742512778331</v>
       </c>
       <c r="J29" t="n">
-        <v>8.732288303979901</v>
+        <v>5.997000940524742</v>
       </c>
       <c r="K29" s="3" t="n">
-        <v>25.04166666666667</v>
+        <v>27.78125</v>
       </c>
       <c r="L29" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M29" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -3401,43 +3401,43 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>18.75</v>
+        <v>15.38461538461539</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.655884350578344</v>
+        <v>1.655884350578348</v>
       </c>
       <c r="R29" t="n">
-        <v>-2.497947554748262</v>
+        <v>-1.190638899714637</v>
       </c>
       <c r="S29" t="n">
-        <v>1.517636701558151</v>
+        <v>1.586307415191556</v>
       </c>
       <c r="T29" t="n">
-        <v>-0.9709459267172295</v>
+        <v>-0.8004647782801135</v>
       </c>
       <c r="U29" s="3" t="n">
-        <v>0.09375</v>
+        <v>0.1302083333333333</v>
       </c>
       <c r="V29" s="3" t="n">
-        <v>0.1987179487152778</v>
+        <v>0.1193181818171296</v>
       </c>
       <c r="W29" t="n">
-        <v>0.3486887743226225</v>
+        <v>0.3502191304412888</v>
       </c>
       <c r="X29" t="n">
-        <v>-4.907708209268189</v>
+        <v>-4.256915395324312</v>
       </c>
       <c r="Y29" t="n">
-        <v>-5.179257678482754</v>
+        <v>-6.000306838407701</v>
       </c>
       <c r="Z29" t="n">
-        <v>-7.216153688041823</v>
+        <v>-8.331344895684802</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.7902580548424243</v>
+        <v>0.7042677371841979</v>
       </c>
       <c r="AB29" t="n">
-        <v>-6.755709486638204</v>
+        <v>-7.911733818866702</v>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
@@ -3470,10 +3470,10 @@
         <v>1000</v>
       </c>
       <c r="E30" t="n">
-        <v>979.0255560116366</v>
+        <v>972.6167032407291</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.097444398836342</v>
+        <v>-2.738329675927093</v>
       </c>
       <c r="G30" t="n">
         <v>-18.64515237908184</v>
@@ -3482,10 +3482,10 @@
         <v>100</v>
       </c>
       <c r="I30" t="n">
-        <v>14.73479798157362</v>
+        <v>14.71909396147909</v>
       </c>
       <c r="J30" t="n">
-        <v>4.963781617718894</v>
+        <v>5.58590340787639</v>
       </c>
       <c r="K30" s="3" t="n">
         <v>12.45833333333333</v>
@@ -3500,7 +3500,7 @@
         <v>1</v>
       </c>
       <c r="O30" t="n">
-        <v>-0.3916102224046549</v>
+        <v>-0.3890466812962917</v>
       </c>
       <c r="P30" t="n">
         <v>38.88888888888889</v>
@@ -3509,37 +3509,37 @@
         <v>1.867807956852667</v>
       </c>
       <c r="R30" t="n">
-        <v>-1.757864186988372</v>
+        <v>-1.75786418698835</v>
       </c>
       <c r="S30" t="n">
-        <v>1.316765633583326</v>
+        <v>1.221470184571417</v>
       </c>
       <c r="T30" t="n">
-        <v>-1.015141064378202</v>
+        <v>-1.015141064378198</v>
       </c>
       <c r="U30" s="3" t="n">
-        <v>0.15625</v>
+        <v>0.1488095238078704</v>
       </c>
       <c r="V30" s="3" t="n">
         <v>0.1193181818171296</v>
       </c>
       <c r="W30" t="n">
-        <v>0.8157219837951336</v>
+        <v>0.7578859243724306</v>
       </c>
       <c r="X30" t="n">
-        <v>-1.143490764775477</v>
+        <v>-1.499680559887457</v>
       </c>
       <c r="Y30" t="n">
-        <v>-1.216245032145036</v>
+        <v>-1.691278472294856</v>
       </c>
       <c r="Z30" t="n">
-        <v>-4.578382180007535</v>
+        <v>-5.13051410649416</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.9348242742830117</v>
+        <v>0.9096847634352521</v>
       </c>
       <c r="AB30" t="n">
-        <v>-1.86881351688079</v>
+        <v>-2.600628984989452</v>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
@@ -3572,10 +3572,10 @@
         <v>1000</v>
       </c>
       <c r="E31" t="n">
-        <v>973.5848486288299</v>
+        <v>966.9602873173017</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.641515137117005</v>
+        <v>-3.303971268269833</v>
       </c>
       <c r="G31" t="n">
         <v>-2.051795542052193</v>
@@ -3584,7 +3584,7 @@
         <v>100</v>
       </c>
       <c r="I31" t="n">
-        <v>14.58893412258919</v>
+        <v>13.81605136854127</v>
       </c>
       <c r="J31" t="n">
         <v>6.408854402814197</v>
@@ -3593,10 +3593,10 @@
         <v>18.79166666666667</v>
       </c>
       <c r="L31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -3605,43 +3605,43 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>31.57894736842105</v>
+        <v>27.77777777777778</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.699054854740044</v>
+        <v>2.69905485474004</v>
       </c>
       <c r="R31" t="n">
         <v>-1.240183757779628</v>
       </c>
       <c r="S31" t="n">
-        <v>1.224264908041841</v>
+        <v>1.332044811821141</v>
       </c>
       <c r="T31" t="n">
-        <v>-0.763052792315438</v>
+        <v>-0.7630527923154372</v>
       </c>
       <c r="U31" s="3" t="n">
-        <v>0.1267361111111111</v>
+        <v>0.1166666666666667</v>
       </c>
       <c r="V31" s="3" t="n">
         <v>0.1217948717939815</v>
       </c>
       <c r="W31" t="n">
-        <v>0.7248817021513742</v>
+        <v>0.6555013809628775</v>
       </c>
       <c r="X31" t="n">
-        <v>-1.390271124798418</v>
+        <v>-1.835539593483241</v>
       </c>
       <c r="Y31" t="n">
-        <v>-2.398379336486723</v>
+        <v>-3.051216493202358</v>
       </c>
       <c r="Z31" t="n">
-        <v>-4.736371900397296</v>
+        <v>-5.694133342115419</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.8893585814972785</v>
+        <v>0.8574467279590882</v>
       </c>
       <c r="AB31" t="n">
-        <v>-3.344472768967734</v>
+        <v>-4.237756015628839</v>
       </c>
       <c r="AC31" t="inlineStr">
         <is>
@@ -3674,10 +3674,10 @@
         <v>1000</v>
       </c>
       <c r="E32" t="n">
-        <v>1028.159236929774</v>
+        <v>1048.77093616523</v>
       </c>
       <c r="F32" t="n">
-        <v>2.815923692977367</v>
+        <v>4.877093616522984</v>
       </c>
       <c r="G32" t="n">
         <v>8.692764025869181</v>
@@ -3686,19 +3686,19 @@
         <v>100</v>
       </c>
       <c r="I32" t="n">
-        <v>12.519523258014</v>
+        <v>10.27317916955849</v>
       </c>
       <c r="J32" t="n">
-        <v>5.368090978064291</v>
+        <v>4.045194983031444</v>
       </c>
       <c r="K32" s="3" t="n">
-        <v>19.15625</v>
+        <v>18.38541666666667</v>
       </c>
       <c r="L32" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M32" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -3707,43 +3707,43 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>43.75</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="Q32" t="n">
-        <v>4.06011624209209</v>
+        <v>4.060116242092108</v>
       </c>
       <c r="R32" t="n">
-        <v>-1.54945018742201</v>
+        <v>-1.54945018742199</v>
       </c>
       <c r="S32" t="n">
-        <v>1.522057128657725</v>
+        <v>1.522057128657727</v>
       </c>
       <c r="T32" t="n">
-        <v>-0.8577027350457426</v>
+        <v>-0.9567105349266638</v>
       </c>
       <c r="U32" s="3" t="n">
         <v>0.2738095238078704</v>
       </c>
       <c r="V32" s="3" t="n">
-        <v>0.212962962962963</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="W32" t="n">
-        <v>1.372761781882236</v>
+        <v>1.862101157871124</v>
       </c>
       <c r="X32" t="n">
-        <v>1.759952308110849</v>
+        <v>3.751610474248466</v>
       </c>
       <c r="Y32" t="n">
-        <v>2.035193402451107</v>
+        <v>3.559826741463534</v>
       </c>
       <c r="Z32" t="n">
-        <v>7.484828994419868</v>
+        <v>19.39445672728135</v>
       </c>
       <c r="AA32" t="n">
-        <v>1.112768077710256</v>
+        <v>1.217644196589502</v>
       </c>
       <c r="AB32" t="n">
-        <v>3.705285603980196</v>
+        <v>6.817087374297917</v>
       </c>
       <c r="AC32" t="inlineStr">
         <is>
@@ -3776,10 +3776,10 @@
         <v>1000</v>
       </c>
       <c r="E33" t="n">
-        <v>1048.624371691101</v>
+        <v>1022.956812172316</v>
       </c>
       <c r="F33" t="n">
-        <v>4.862437169110126</v>
+        <v>2.295681217231629</v>
       </c>
       <c r="G33" t="n">
         <v>-15.38835919910037</v>
@@ -3788,19 +3788,19 @@
         <v>100</v>
       </c>
       <c r="I33" t="n">
-        <v>6.518535800467181</v>
+        <v>5.693453705736295</v>
       </c>
       <c r="J33" t="n">
-        <v>2.037224667942175</v>
+        <v>1.126782573372754</v>
       </c>
       <c r="K33" s="3" t="n">
-        <v>4.083333333333333</v>
+        <v>5.541666666666667</v>
       </c>
       <c r="L33" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M33" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -3809,43 +3809,43 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>50</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.732464307692325</v>
+        <v>1.865717557498854</v>
       </c>
       <c r="R33" t="n">
-        <v>-0.7966042640657752</v>
+        <v>-0.7966042640657636</v>
       </c>
       <c r="S33" t="n">
-        <v>1.821815703742488</v>
+        <v>1.518266169092542</v>
       </c>
       <c r="T33" t="n">
-        <v>-0.6143066336520899</v>
+        <v>-0.5603835405525046</v>
       </c>
       <c r="U33" s="3" t="n">
-        <v>0.4010416666666667</v>
+        <v>0.2708333333333333</v>
       </c>
       <c r="V33" s="3" t="n">
-        <v>0.09895833333333333</v>
+        <v>0.05208333333333334</v>
       </c>
       <c r="W33" t="n">
-        <v>2.936655247626549</v>
+        <v>2.002715517157474</v>
       </c>
       <c r="X33" t="n">
-        <v>6.078046461387652</v>
+        <v>3.279544596045195</v>
       </c>
       <c r="Y33" t="n">
-        <v>4.716091020901595</v>
+        <v>3.611277952918892</v>
       </c>
       <c r="Z33" t="n">
-        <v>40.11976461551383</v>
+        <v>29.3330897568737</v>
       </c>
       <c r="AA33" t="n">
-        <v>1.352986642461824</v>
+        <v>1.335199272564564</v>
       </c>
       <c r="AB33" t="n">
-        <v>9.440751920075657</v>
+        <v>6.697914484368638</v>
       </c>
       <c r="AC33" t="inlineStr">
         <is>
@@ -3878,10 +3878,10 @@
         <v>1000</v>
       </c>
       <c r="E34" t="n">
-        <v>883.9799946585173</v>
+        <v>889.4178462294096</v>
       </c>
       <c r="F34" t="n">
-        <v>-11.60200053414827</v>
+        <v>-11.05821537705904</v>
       </c>
       <c r="G34" t="n">
         <v>-16.00856055717981</v>
@@ -3890,19 +3890,19 @@
         <v>100</v>
       </c>
       <c r="I34" t="n">
-        <v>15.00940321381012</v>
+        <v>13.58450995440343</v>
       </c>
       <c r="J34" t="n">
-        <v>14.94982493783188</v>
+        <v>12.91432247963526</v>
       </c>
       <c r="K34" s="3" t="n">
-        <v>20.09375</v>
+        <v>19.92708333333333</v>
       </c>
       <c r="L34" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M34" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -3911,43 +3911,43 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>25</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.006116177604004</v>
+        <v>2.812791072734375</v>
       </c>
       <c r="R34" t="n">
-        <v>-4.183301972377831</v>
+        <v>-4.183301972377828</v>
       </c>
       <c r="S34" t="n">
-        <v>1.970874537252028</v>
+        <v>1.712064127164031</v>
       </c>
       <c r="T34" t="n">
-        <v>-1.455499696494709</v>
+        <v>-1.308037443123069</v>
       </c>
       <c r="U34" s="3" t="n">
-        <v>0.2</v>
+        <v>0.2473958333333333</v>
       </c>
       <c r="V34" s="3" t="n">
-        <v>0.1840277777777778</v>
+        <v>0.1703869047569445</v>
       </c>
       <c r="W34" t="n">
-        <v>0.4388760015597353</v>
+        <v>0.3659337439283916</v>
       </c>
       <c r="X34" t="n">
-        <v>-5.801000267074143</v>
+        <v>-6.14345298725503</v>
       </c>
       <c r="Y34" t="n">
-        <v>-4.591012888391171</v>
+        <v>-5.331708362587097</v>
       </c>
       <c r="Z34" t="n">
-        <v>-5.196339764079966</v>
+        <v>-5.881549408995105</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.7939500151533732</v>
+        <v>0.7528279152663941</v>
       </c>
       <c r="AB34" t="n">
-        <v>-5.70631040889656</v>
+        <v>-6.216452970545215</v>
       </c>
       <c r="AC34" t="inlineStr">
         <is>
@@ -3980,10 +3980,10 @@
         <v>1000</v>
       </c>
       <c r="E35" t="n">
-        <v>1003.706286970778</v>
+        <v>1004.111727940905</v>
       </c>
       <c r="F35" t="n">
-        <v>0.3706286970778251</v>
+        <v>0.4111727940904984</v>
       </c>
       <c r="G35" t="n">
         <v>-36.60797793110385</v>
@@ -3992,10 +3992,10 @@
         <v>100</v>
       </c>
       <c r="I35" t="n">
-        <v>7.082798852965415</v>
+        <v>7.085498392990039</v>
       </c>
       <c r="J35" t="n">
-        <v>4.183717689286577</v>
+        <v>4.183717689286567</v>
       </c>
       <c r="K35" s="3" t="n">
         <v>12.65625</v>
@@ -4016,40 +4016,40 @@
         <v>33.33333333333333</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.66916687391196</v>
+        <v>2.669166873911971</v>
       </c>
       <c r="R35" t="n">
-        <v>-2.272130187606603</v>
+        <v>-2.272130187606591</v>
       </c>
       <c r="S35" t="n">
-        <v>2.108194356920982</v>
+        <v>2.108194356920983</v>
       </c>
       <c r="T35" t="n">
-        <v>-0.9737691806974721</v>
+        <v>-0.9670714275633324</v>
       </c>
       <c r="U35" s="3" t="n">
         <v>0.1805555555439815</v>
       </c>
       <c r="V35" s="3" t="n">
-        <v>0.1267361111111111</v>
+        <v>0.1059027777777778</v>
       </c>
       <c r="W35" t="n">
-        <v>1.063952953272173</v>
+        <v>1.071417888564014</v>
       </c>
       <c r="X35" t="n">
-        <v>0.4118096634197927</v>
+        <v>0.456858660100532</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.4054933589591971</v>
+        <v>0.4440619718715163</v>
       </c>
       <c r="Z35" t="n">
-        <v>1.138828564115132</v>
+        <v>1.266392515580109</v>
       </c>
       <c r="AA35" t="n">
-        <v>1.028800556223394</v>
+        <v>1.032486845525138</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.619244492745499</v>
+        <v>0.6780857930308754</v>
       </c>
       <c r="AC35" t="inlineStr">
         <is>
@@ -4082,10 +4082,10 @@
         <v>1000</v>
       </c>
       <c r="E36" t="n">
-        <v>1030.648165193001</v>
+        <v>1013.728325487726</v>
       </c>
       <c r="F36" t="n">
-        <v>3.064816519300109</v>
+        <v>1.372832548772578</v>
       </c>
       <c r="G36" t="n">
         <v>19.92643328259749</v>
@@ -4094,19 +4094,19 @@
         <v>100</v>
       </c>
       <c r="I36" t="n">
-        <v>7.227064087016713</v>
+        <v>6.397607033156562</v>
       </c>
       <c r="J36" t="n">
-        <v>4.23633516140094</v>
+        <v>4.236335161400985</v>
       </c>
       <c r="K36" s="3" t="n">
-        <v>13.23958333333333</v>
+        <v>13.94791666666667</v>
       </c>
       <c r="L36" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M36" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -4115,43 +4115,43 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>55.55555555555556</v>
+        <v>50</v>
       </c>
       <c r="Q36" t="n">
         <v>2.448175511455114</v>
       </c>
       <c r="R36" t="n">
-        <v>-1.555117265229386</v>
+        <v>-1.555117265229397</v>
       </c>
       <c r="S36" t="n">
-        <v>1.64981935430637</v>
+        <v>1.644740517109013</v>
       </c>
       <c r="T36" t="n">
-        <v>-1.280032205267904</v>
+        <v>-1.280032205267917</v>
       </c>
       <c r="U36" s="3" t="n">
-        <v>0.2375</v>
+        <v>0.1744791666666667</v>
       </c>
       <c r="V36" s="3" t="n">
         <v>0.1588541666666667</v>
       </c>
       <c r="W36" t="n">
-        <v>1.594491451323632</v>
+        <v>1.266516172145985</v>
       </c>
       <c r="X36" t="n">
-        <v>3.405351688111236</v>
+        <v>1.716040685965705</v>
       </c>
       <c r="Y36" t="n">
-        <v>2.450639743644246</v>
+        <v>1.249305041418052</v>
       </c>
       <c r="Z36" t="n">
-        <v>10.47194635525369</v>
+        <v>4.257865357010767</v>
       </c>
       <c r="AA36" t="n">
-        <v>1.175487244635775</v>
+        <v>1.100945959198918</v>
       </c>
       <c r="AB36" t="n">
-        <v>3.945544366030922</v>
+        <v>1.916173253433036</v>
       </c>
       <c r="AC36" t="inlineStr">
         <is>
@@ -4184,10 +4184,10 @@
         <v>1000</v>
       </c>
       <c r="E37" t="n">
-        <v>972.2963245834048</v>
+        <v>982.289965180044</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.770367541659516</v>
+        <v>-1.771003481995604</v>
       </c>
       <c r="G37" t="n">
         <v>-14.61345754714948</v>
@@ -4196,10 +4196,10 @@
         <v>100</v>
       </c>
       <c r="I37" t="n">
-        <v>10.16136033195776</v>
+        <v>10.23698622546933</v>
       </c>
       <c r="J37" t="n">
-        <v>4.990532256696359</v>
+        <v>4.013987915328558</v>
       </c>
       <c r="K37" s="3" t="n">
         <v>26.44791666666667</v>
@@ -4220,40 +4220,40 @@
         <v>30.76923076923077</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.377521019345238</v>
+        <v>1.377521019345239</v>
       </c>
       <c r="R37" t="n">
-        <v>-1.44913778369875</v>
+        <v>-0.9642605386569207</v>
       </c>
       <c r="S37" t="n">
-        <v>0.8305615738191332</v>
+        <v>0.8305615738191358</v>
       </c>
       <c r="T37" t="n">
-        <v>-0.6766720669171445</v>
+        <v>-0.5640770325078512</v>
       </c>
       <c r="U37" s="3" t="n">
         <v>0.140625</v>
       </c>
       <c r="V37" s="3" t="n">
-        <v>0.2141203703703704</v>
+        <v>0.2025462962847222</v>
       </c>
       <c r="W37" t="n">
-        <v>0.5380443635018481</v>
+        <v>0.6473719257264445</v>
       </c>
       <c r="X37" t="n">
-        <v>-2.131051955122712</v>
+        <v>-1.362310370765851</v>
       </c>
       <c r="Y37" t="n">
-        <v>-3.420382190513814</v>
+        <v>-2.291666444962713</v>
       </c>
       <c r="Z37" t="n">
-        <v>-5.79975132710145</v>
+        <v>-4.866322009553585</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.8377419506915116</v>
+        <v>0.8873613075678872</v>
       </c>
       <c r="AB37" t="n">
-        <v>-4.722901900335123</v>
+        <v>-3.315910433108614</v>
       </c>
       <c r="AC37" t="inlineStr">
         <is>
@@ -4286,10 +4286,10 @@
         <v>1000</v>
       </c>
       <c r="E38" t="n">
-        <v>952.5489944941795</v>
+        <v>960.104466091969</v>
       </c>
       <c r="F38" t="n">
-        <v>-4.745100550582048</v>
+        <v>-3.989553390803098</v>
       </c>
       <c r="G38" t="n">
         <v>-2.832422858394057</v>
@@ -4298,10 +4298,10 @@
         <v>100</v>
       </c>
       <c r="I38" t="n">
-        <v>10.81055305007712</v>
+        <v>10.86299446548667</v>
       </c>
       <c r="J38" t="n">
-        <v>10.08785290472118</v>
+        <v>9.894315072720342</v>
       </c>
       <c r="K38" s="3" t="n">
         <v>8.729166666666666</v>
@@ -4316,46 +4316,46 @@
         <v>1</v>
       </c>
       <c r="O38" t="n">
-        <v>6.742742290642582</v>
+        <v>6.796224681745571</v>
       </c>
       <c r="P38" t="n">
         <v>30.76923076923077</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.388318834400176</v>
+        <v>2.388318834400164</v>
       </c>
       <c r="R38" t="n">
-        <v>-1.833297670836532</v>
+        <v>-1.83329767083654</v>
       </c>
       <c r="S38" t="n">
-        <v>1.330810924212149</v>
+        <v>1.477192665749629</v>
       </c>
       <c r="T38" t="n">
-        <v>-1.197832447600393</v>
+        <v>-1.174287741071198</v>
       </c>
       <c r="U38" s="3" t="n">
-        <v>0.4661458333333333</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="V38" s="3" t="n">
-        <v>0.2175925925925926</v>
+        <v>0.2152777777777778</v>
       </c>
       <c r="W38" t="n">
-        <v>0.4972402393237063</v>
+        <v>0.5609333885282483</v>
       </c>
       <c r="X38" t="n">
-        <v>-4.168749830497172</v>
+        <v>-3.591673737675086</v>
       </c>
       <c r="Y38" t="n">
-        <v>-2.746622891421678</v>
+        <v>-2.328063638513344</v>
       </c>
       <c r="Z38" t="n">
-        <v>-4.535564085405303</v>
+        <v>-4.051299579630318</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.8891685367662655</v>
+        <v>0.9042548942363523</v>
       </c>
       <c r="AB38" t="n">
-        <v>-3.630174384600475</v>
+        <v>-3.097946078406812</v>
       </c>
       <c r="AC38" t="inlineStr">
         <is>
@@ -4490,10 +4490,10 @@
         <v>1000</v>
       </c>
       <c r="E40" t="n">
-        <v>1019.266948015054</v>
+        <v>1019.364154716937</v>
       </c>
       <c r="F40" t="n">
-        <v>1.926694801505437</v>
+        <v>1.936415471693693</v>
       </c>
       <c r="G40" t="n">
         <v>-19.767623587329</v>
@@ -4502,13 +4502,13 @@
         <v>100</v>
       </c>
       <c r="I40" t="n">
-        <v>13.11922702420295</v>
+        <v>13.12013182144088</v>
       </c>
       <c r="J40" t="n">
-        <v>4.545112227740042</v>
+        <v>3.967371691076781</v>
       </c>
       <c r="K40" s="3" t="n">
-        <v>14.35416666666667</v>
+        <v>13.89583333333333</v>
       </c>
       <c r="L40" t="n">
         <v>16</v>
@@ -4532,34 +4532,34 @@
         <v>-1.625844069917095</v>
       </c>
       <c r="S40" t="n">
-        <v>1.287278358716899</v>
+        <v>1.287278358716902</v>
       </c>
       <c r="T40" t="n">
-        <v>-0.5691585128168419</v>
+        <v>-0.5682137018980343</v>
       </c>
       <c r="U40" s="3" t="n">
         <v>0.4322916666666667</v>
       </c>
       <c r="V40" s="3" t="n">
-        <v>0.3583333333333333</v>
+        <v>0.3260416666666667</v>
       </c>
       <c r="W40" t="n">
-        <v>1.328318768613064</v>
+        <v>1.330514199810995</v>
       </c>
       <c r="X40" t="n">
-        <v>1.204184250940861</v>
+        <v>1.210259669808557</v>
       </c>
       <c r="Y40" t="n">
-        <v>1.556415427837933</v>
+        <v>1.697579411955918</v>
       </c>
       <c r="Z40" t="n">
-        <v>5.970868619646458</v>
+        <v>6.878837761342512</v>
       </c>
       <c r="AA40" t="n">
-        <v>1.053913128801818</v>
+        <v>1.060404585401374</v>
       </c>
       <c r="AB40" t="n">
-        <v>2.286125934560056</v>
+        <v>2.56087927898001</v>
       </c>
       <c r="AC40" t="inlineStr">
         <is>
@@ -4592,10 +4592,10 @@
         <v>1000</v>
       </c>
       <c r="E41" t="n">
-        <v>970.367315711478</v>
+        <v>977.891478523189</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.9632684288522</v>
+        <v>-2.210852147681101</v>
       </c>
       <c r="G41" t="n">
         <v>-3.436732222494177</v>
@@ -4604,19 +4604,19 @@
         <v>100</v>
       </c>
       <c r="I41" t="n">
-        <v>10.23926930114861</v>
+        <v>8.701531870210234</v>
       </c>
       <c r="J41" t="n">
-        <v>2.976070866516181</v>
+        <v>2.542415283852645</v>
       </c>
       <c r="K41" s="3" t="n">
-        <v>27.70833333333333</v>
+        <v>20.02083333333333</v>
       </c>
       <c r="L41" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M41" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -4625,43 +4625,43 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>15.38461538461539</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.4249139475669384</v>
+        <v>0.4249139475669455</v>
       </c>
       <c r="R41" t="n">
-        <v>-0.6620781824256554</v>
+        <v>-0.6620781824256332</v>
       </c>
       <c r="S41" t="n">
-        <v>0.3172821531819227</v>
+        <v>0.3172821531819223</v>
       </c>
       <c r="T41" t="n">
-        <v>-0.3304836512745055</v>
+        <v>-0.318245139273291</v>
       </c>
       <c r="U41" s="3" t="n">
         <v>0.328125</v>
       </c>
       <c r="V41" s="3" t="n">
-        <v>0.2329545454513889</v>
+        <v>0.2476851851851852</v>
       </c>
       <c r="W41" t="n">
-        <v>0.1743072175917091</v>
+        <v>0.221306627157864</v>
       </c>
       <c r="X41" t="n">
-        <v>-2.279437252963239</v>
+        <v>-2.009865588801008</v>
       </c>
       <c r="Y41" t="n">
-        <v>-7.491605585992451</v>
+        <v>-6.000191907352271</v>
       </c>
       <c r="Z41" t="n">
-        <v>-10.29530893707592</v>
+        <v>-9.364230926210372</v>
       </c>
       <c r="AA41" t="n">
-        <v>0.715828681913239</v>
+        <v>0.750922411198011</v>
       </c>
       <c r="AB41" t="n">
-        <v>-9.746654493334177</v>
+        <v>-7.934935764840594</v>
       </c>
       <c r="AC41" t="inlineStr">
         <is>
@@ -4694,10 +4694,10 @@
         <v>1000</v>
       </c>
       <c r="E42" t="n">
-        <v>965.9474308289358</v>
+        <v>964.8224011801335</v>
       </c>
       <c r="F42" t="n">
-        <v>-3.40525691710642</v>
+        <v>-3.517759881986649</v>
       </c>
       <c r="G42" t="n">
         <v>37.89882184847468</v>
@@ -4706,13 +4706,13 @@
         <v>100</v>
       </c>
       <c r="I42" t="n">
-        <v>9.448572908596987</v>
+        <v>9.439891298095027</v>
       </c>
       <c r="J42" t="n">
-        <v>5.884109583625804</v>
+        <v>5.884109583625778</v>
       </c>
       <c r="K42" s="3" t="n">
-        <v>8.125</v>
+        <v>13.92708333333333</v>
       </c>
       <c r="L42" t="n">
         <v>12</v>
@@ -4733,37 +4733,37 @@
         <v>1.22122562807113</v>
       </c>
       <c r="R42" t="n">
-        <v>-1.684532790122789</v>
+        <v>-1.684532790122798</v>
       </c>
       <c r="S42" t="n">
-        <v>0.7184100704504782</v>
+        <v>0.6891630848091455</v>
       </c>
       <c r="T42" t="n">
-        <v>-0.7866283697473466</v>
+        <v>-0.7866283697473447</v>
       </c>
       <c r="U42" s="3" t="n">
-        <v>0.2682291666666667</v>
+        <v>0.2395833333333333</v>
       </c>
       <c r="V42" s="3" t="n">
         <v>0.19921875</v>
       </c>
       <c r="W42" t="n">
-        <v>0.4538239179178275</v>
+        <v>0.4351520456066851</v>
       </c>
       <c r="X42" t="n">
-        <v>-2.837714097588669</v>
+        <v>-2.931466568322215</v>
       </c>
       <c r="Y42" t="n">
-        <v>-4.26472613206656</v>
+        <v>-4.417461123591204</v>
       </c>
       <c r="Z42" t="n">
-        <v>-5.84384461791106</v>
+        <v>-6.000782264052022</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.7973332460658759</v>
+        <v>0.7886278176710586</v>
       </c>
       <c r="AB42" t="n">
-        <v>-5.331995919464565</v>
+        <v>-5.517136473571592</v>
       </c>
       <c r="AC42" t="inlineStr">
         <is>
@@ -4796,10 +4796,10 @@
         <v>1000</v>
       </c>
       <c r="E43" t="n">
-        <v>992.3043302725424</v>
+        <v>976.6293527042898</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.7695669727457585</v>
+        <v>-2.337064729571023</v>
       </c>
       <c r="G43" t="n">
         <v>1.692903494103426</v>
@@ -4808,19 +4808,19 @@
         <v>100</v>
       </c>
       <c r="I43" t="n">
-        <v>16.69580148067828</v>
+        <v>14.10246112850487</v>
       </c>
       <c r="J43" t="n">
-        <v>4.605371503637704</v>
+        <v>4.60537150363768</v>
       </c>
       <c r="K43" s="3" t="n">
-        <v>10.16666666666667</v>
+        <v>14.15625</v>
       </c>
       <c r="L43" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M43" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -4829,43 +4829,43 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>33.33333333333333</v>
+        <v>27.77777777777778</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.205972323261062</v>
+        <v>2.205972323261059</v>
       </c>
       <c r="R43" t="n">
-        <v>-1.469988095337192</v>
+        <v>-1.469988095337195</v>
       </c>
       <c r="S43" t="n">
-        <v>1.323914700171409</v>
+        <v>1.352332608195117</v>
       </c>
       <c r="T43" t="n">
-        <v>-0.7094607745925627</v>
+        <v>-0.6953014667841645</v>
       </c>
       <c r="U43" s="3" t="n">
-        <v>0.4880952380902777</v>
+        <v>0.30625</v>
       </c>
       <c r="V43" s="3" t="n">
-        <v>0.1458333333333333</v>
+        <v>0.1474358974305555</v>
       </c>
       <c r="W43" t="n">
-        <v>0.9223321427263094</v>
+        <v>0.7369008385276778</v>
       </c>
       <c r="X43" t="n">
-        <v>-0.3664604632122739</v>
+        <v>-1.298369294206112</v>
       </c>
       <c r="Y43" t="n">
-        <v>-0.4705556290049491</v>
+        <v>-1.793078183156248</v>
       </c>
       <c r="Z43" t="n">
-        <v>-2.152522359207624</v>
+        <v>-5.939455870867383</v>
       </c>
       <c r="AA43" t="n">
-        <v>0.9819145207275695</v>
+        <v>0.9162405014221384</v>
       </c>
       <c r="AB43" t="n">
-        <v>-0.6825582378992682</v>
+        <v>-2.540070833162585</v>
       </c>
       <c r="AC43" t="inlineStr">
         <is>
@@ -4898,10 +4898,10 @@
         <v>1000</v>
       </c>
       <c r="E44" t="n">
-        <v>1019.694678362026</v>
+        <v>1004.216381246599</v>
       </c>
       <c r="F44" t="n">
-        <v>1.969467836202557</v>
+        <v>0.4216381246599099</v>
       </c>
       <c r="G44" t="n">
         <v>20.9176158574248</v>
@@ -4910,19 +4910,19 @@
         <v>100</v>
       </c>
       <c r="I44" t="n">
-        <v>14.39362905170808</v>
+        <v>10.35028057357219</v>
       </c>
       <c r="J44" t="n">
-        <v>2.367084302703826</v>
+        <v>1.859930809414496</v>
       </c>
       <c r="K44" s="3" t="n">
-        <v>9.552083333333334</v>
+        <v>11.4375</v>
       </c>
       <c r="L44" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M44" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -4931,43 +4931,43 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>33.33333333333333</v>
+        <v>30.76923076923077</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.5784738543036</v>
+        <v>2.578473854303594</v>
       </c>
       <c r="R44" t="n">
-        <v>-1.516636454770846</v>
+        <v>-0.6306431044442394</v>
       </c>
       <c r="S44" t="n">
-        <v>1.380159576658744</v>
+        <v>1.077475590283343</v>
       </c>
       <c r="T44" t="n">
-        <v>-0.5189836020788735</v>
+        <v>-0.4267315438645709</v>
       </c>
       <c r="U44" s="3" t="n">
-        <v>0.3368055555555556</v>
+        <v>0.2994791666666667</v>
       </c>
       <c r="V44" s="3" t="n">
-        <v>0.08854166666666667</v>
+        <v>0.08449074074074074</v>
       </c>
       <c r="W44" t="n">
-        <v>1.3150588599497</v>
+        <v>1.110002140030021</v>
       </c>
       <c r="X44" t="n">
-        <v>1.094148797890322</v>
+        <v>0.3243370189691666</v>
       </c>
       <c r="Y44" t="n">
-        <v>1.545020821155116</v>
+        <v>0.6079531946269018</v>
       </c>
       <c r="Z44" t="n">
-        <v>11.30942792584161</v>
+        <v>2.822991465552436</v>
       </c>
       <c r="AA44" t="n">
-        <v>1.081871974585449</v>
+        <v>1.039301657216742</v>
       </c>
       <c r="AB44" t="n">
-        <v>2.440092760619553</v>
+        <v>0.9842408205113797</v>
       </c>
       <c r="AC44" t="inlineStr">
         <is>
@@ -5000,10 +5000,10 @@
         <v>1000</v>
       </c>
       <c r="E45" t="n">
-        <v>1016.938445922139</v>
+        <v>1022.575287193196</v>
       </c>
       <c r="F45" t="n">
-        <v>1.693844592213884</v>
+        <v>2.257528719319555</v>
       </c>
       <c r="G45" t="n">
         <v>2.478668777267123</v>
@@ -5012,64 +5012,64 @@
         <v>100</v>
       </c>
       <c r="I45" t="n">
-        <v>9.957686873203105</v>
+        <v>9.194597608482756</v>
       </c>
       <c r="J45" t="n">
-        <v>3.624818978479573</v>
+        <v>2.603183240726183</v>
       </c>
       <c r="K45" s="3" t="n">
-        <v>21.3125</v>
+        <v>18.03125</v>
       </c>
       <c r="L45" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M45" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N45" t="n">
         <v>1</v>
       </c>
       <c r="O45" t="n">
-        <v>-0.3161975999121537</v>
+        <v>-0.317950268117486</v>
       </c>
       <c r="P45" t="n">
-        <v>33.33333333333333</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.600006101238984</v>
+        <v>2.600006101238966</v>
       </c>
       <c r="R45" t="n">
-        <v>-0.6887700435934644</v>
+        <v>-0.6887700435934639</v>
       </c>
       <c r="S45" t="n">
         <v>1.202380655968144</v>
       </c>
       <c r="T45" t="n">
-        <v>-0.3810722349504683</v>
+        <v>-0.3567310931234447</v>
       </c>
       <c r="U45" s="3" t="n">
         <v>0.1614583333333333</v>
       </c>
       <c r="V45" s="3" t="n">
-        <v>0.1106770833333333</v>
+        <v>0.06696428570601852</v>
       </c>
       <c r="W45" t="n">
-        <v>1.56800557525371</v>
+        <v>1.91759257284894</v>
       </c>
       <c r="X45" t="n">
-        <v>1.437886960170943</v>
+        <v>2.081203405573917</v>
       </c>
       <c r="Y45" t="n">
-        <v>1.76775494052317</v>
+        <v>2.430009800945075</v>
       </c>
       <c r="Z45" t="n">
-        <v>6.491890066991218</v>
+        <v>12.45744576325874</v>
       </c>
       <c r="AA45" t="n">
-        <v>1.092771651539454</v>
+        <v>1.144775931198477</v>
       </c>
       <c r="AB45" t="n">
-        <v>2.890590662280988</v>
+        <v>4.052262159152073</v>
       </c>
       <c r="AC45" t="inlineStr">
         <is>
@@ -5102,10 +5102,10 @@
         <v>1000</v>
       </c>
       <c r="E46" t="n">
-        <v>1014.575269154348</v>
+        <v>1002.928747842273</v>
       </c>
       <c r="F46" t="n">
-        <v>1.457526915434823</v>
+        <v>0.2928747842272514</v>
       </c>
       <c r="G46" t="n">
         <v>-5.469454386492146</v>
@@ -5114,64 +5114,64 @@
         <v>100</v>
       </c>
       <c r="I46" t="n">
-        <v>5.218000626316557</v>
+        <v>2.788613809033299</v>
       </c>
       <c r="J46" t="n">
         <v>1.185477288508339</v>
       </c>
       <c r="K46" s="3" t="n">
-        <v>13.02083333333333</v>
+        <v>20.57291666666667</v>
       </c>
       <c r="L46" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M46" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N46" t="n">
         <v>1</v>
       </c>
       <c r="O46" t="n">
-        <v>3.549062244830923</v>
+        <v>3.50832181843871</v>
       </c>
       <c r="P46" t="n">
-        <v>50</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.101277091217031</v>
+        <v>1.092675311904624</v>
       </c>
       <c r="R46" t="n">
         <v>-0.6332083792723309</v>
       </c>
       <c r="S46" t="n">
-        <v>0.9221101227275896</v>
+        <v>1.092675311904624</v>
       </c>
       <c r="T46" t="n">
-        <v>-0.5503740139046046</v>
+        <v>-0.5707203288812674</v>
       </c>
       <c r="U46" s="3" t="n">
-        <v>0.1006944444328704</v>
+        <v>0.03125</v>
       </c>
       <c r="V46" s="3" t="n">
-        <v>0.1284722222222222</v>
+        <v>0.1770833333333333</v>
       </c>
       <c r="W46" t="n">
-        <v>1.666034204660467</v>
+        <v>0.9490604731319829</v>
       </c>
       <c r="X46" t="n">
-        <v>1.837701151586218</v>
+        <v>-0.1931913253887201</v>
       </c>
       <c r="Y46" t="n">
-        <v>2.753236826963608</v>
+        <v>0.7213544474681364</v>
       </c>
       <c r="Z46" t="n">
-        <v>16.23209744777146</v>
+        <v>3.054364894805803</v>
       </c>
       <c r="AA46" t="n">
-        <v>1.251402905837409</v>
+        <v>1.073775286731928</v>
       </c>
       <c r="AB46" t="n">
-        <v>5.179444373188232</v>
+        <v>1.288727501039432</v>
       </c>
       <c r="AC46" t="inlineStr">
         <is>
@@ -5204,10 +5204,10 @@
         <v>1000</v>
       </c>
       <c r="E47" t="n">
-        <v>1044.626485589409</v>
+        <v>1030.869185129931</v>
       </c>
       <c r="F47" t="n">
-        <v>4.462648558940919</v>
+        <v>3.086918512993122</v>
       </c>
       <c r="G47" t="n">
         <v>11.37645593729404</v>
@@ -5216,7 +5216,7 @@
         <v>100</v>
       </c>
       <c r="I47" t="n">
-        <v>13.63251060584284</v>
+        <v>12.81397533827046</v>
       </c>
       <c r="J47" t="n">
         <v>2.168668806995494</v>
@@ -5225,10 +5225,10 @@
         <v>5.229166666666667</v>
       </c>
       <c r="L47" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M47" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N47" t="n">
         <v>0</v>
@@ -5237,7 +5237,7 @@
         <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>47.05882352941176</v>
+        <v>43.75</v>
       </c>
       <c r="Q47" t="n">
         <v>2.289528588865244</v>
@@ -5246,34 +5246,34 @@
         <v>-0.7257447163346402</v>
       </c>
       <c r="S47" t="n">
-        <v>1.067902919693322</v>
+        <v>1.02973649673452</v>
       </c>
       <c r="T47" t="n">
         <v>-0.4561255860781055</v>
       </c>
       <c r="U47" s="3" t="n">
-        <v>0.30859375</v>
+        <v>0.2827380952314815</v>
       </c>
       <c r="V47" s="3" t="n">
         <v>0.1435185185185185</v>
       </c>
       <c r="W47" t="n">
-        <v>2.086235456953739</v>
+        <v>1.751374502664359</v>
       </c>
       <c r="X47" t="n">
-        <v>2.625087387612334</v>
+        <v>1.929324070620729</v>
       </c>
       <c r="Y47" t="n">
-        <v>4.335595410762148</v>
+        <v>3.239357196390859</v>
       </c>
       <c r="Z47" t="n">
-        <v>33.75598191125626</v>
+        <v>21.48613485143696</v>
       </c>
       <c r="AA47" t="n">
-        <v>1.23426482085669</v>
+        <v>1.189747327930569</v>
       </c>
       <c r="AB47" t="n">
-        <v>7.894293630547272</v>
+        <v>5.816241125404561</v>
       </c>
       <c r="AC47" t="inlineStr">
         <is>
@@ -5306,10 +5306,10 @@
         <v>1000</v>
       </c>
       <c r="E48" t="n">
-        <v>925.2719438316303</v>
+        <v>934.3246123366019</v>
       </c>
       <c r="F48" t="n">
-        <v>-7.472805616836968</v>
+        <v>-6.567538766339806</v>
       </c>
       <c r="G48" t="n">
         <v>-3.892097534052152</v>
@@ -5318,19 +5318,19 @@
         <v>100</v>
       </c>
       <c r="I48" t="n">
-        <v>21.42980414914416</v>
+        <v>19.22609766458106</v>
       </c>
       <c r="J48" t="n">
-        <v>7.605645344886769</v>
+        <v>6.701678170695962</v>
       </c>
       <c r="K48" s="3" t="n">
         <v>22.88541666666667</v>
       </c>
       <c r="L48" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M48" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
@@ -5339,7 +5339,7 @@
         <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>10.71428571428571</v>
+        <v>12</v>
       </c>
       <c r="Q48" t="n">
         <v>0.514654381572361</v>
@@ -5348,34 +5348,34 @@
         <v>-0.6637557522950838</v>
       </c>
       <c r="S48" t="n">
-        <v>0.2864496424168345</v>
+        <v>0.2864496424168338</v>
       </c>
       <c r="T48" t="n">
-        <v>-0.3444254171990208</v>
+        <v>-0.3471910277169986</v>
       </c>
       <c r="U48" s="3" t="n">
         <v>0.09375</v>
       </c>
       <c r="V48" s="3" t="n">
-        <v>0.16</v>
+        <v>0.1742424242361111</v>
       </c>
       <c r="W48" t="n">
-        <v>0.09834987927471882</v>
+        <v>0.1106712145594302</v>
       </c>
       <c r="X48" t="n">
-        <v>-2.668859148870333</v>
+        <v>-2.627015506535913</v>
       </c>
       <c r="Y48" t="n">
-        <v>-14.42882816817726</v>
+        <v>-13.06136395131922</v>
       </c>
       <c r="Z48" t="n">
-        <v>-8.035816405341306</v>
+        <v>-8.390368354373798</v>
       </c>
       <c r="AA48" t="n">
-        <v>0.546548494490016</v>
+        <v>0.5738804195546429</v>
       </c>
       <c r="AB48" t="n">
-        <v>-16.9380683518743</v>
+        <v>-15.51162513458054</v>
       </c>
       <c r="AC48" t="inlineStr">
         <is>
@@ -5408,10 +5408,10 @@
         <v>1000</v>
       </c>
       <c r="E49" t="n">
-        <v>1012.06643753325</v>
+        <v>1008.356675302933</v>
       </c>
       <c r="F49" t="n">
-        <v>1.206643753325045</v>
+        <v>0.8356675302933013</v>
       </c>
       <c r="G49" t="n">
         <v>-6.714039753687362</v>
@@ -5420,19 +5420,19 @@
         <v>100</v>
       </c>
       <c r="I49" t="n">
-        <v>8.006268303128719</v>
+        <v>7.191078463328716</v>
       </c>
       <c r="J49" t="n">
-        <v>4.0530320908218</v>
+        <v>4.053032090821805</v>
       </c>
       <c r="K49" s="3" t="n">
-        <v>8.177083333333334</v>
+        <v>8.53125</v>
       </c>
       <c r="L49" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M49" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
@@ -5441,43 +5441,43 @@
         <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>30</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.808476611738828</v>
+        <v>2.808476611738823</v>
       </c>
       <c r="R49" t="n">
-        <v>-1.102137665341647</v>
+        <v>-1.102137665341645</v>
       </c>
       <c r="S49" t="n">
-        <v>1.381452885860699</v>
+        <v>1.888154854807459</v>
       </c>
       <c r="T49" t="n">
-        <v>-0.412980917001364</v>
+        <v>-0.4129809170013655</v>
       </c>
       <c r="U49" s="3" t="n">
-        <v>1.513888888888889</v>
+        <v>2.005208333333333</v>
       </c>
       <c r="V49" s="3" t="n">
         <v>0.9196428571412036</v>
       </c>
       <c r="W49" t="n">
-        <v>1.417007887698008</v>
+        <v>1.289630186174575</v>
       </c>
       <c r="X49" t="n">
-        <v>1.206643753325038</v>
+        <v>0.9285194781036812</v>
       </c>
       <c r="Y49" t="n">
-        <v>1.018173974888714</v>
+        <v>0.7370482755285113</v>
       </c>
       <c r="Z49" t="n">
-        <v>3.875029322229623</v>
+        <v>2.628027854290086</v>
       </c>
       <c r="AA49" t="n">
-        <v>1.036316060958218</v>
+        <v>1.026960044034878</v>
       </c>
       <c r="AB49" t="n">
-        <v>1.835764814976103</v>
+        <v>1.323024724721842</v>
       </c>
       <c r="AC49" t="inlineStr">
         <is>
@@ -5510,10 +5510,10 @@
         <v>1000</v>
       </c>
       <c r="E50" t="n">
-        <v>979.5764118377058</v>
+        <v>982.622062462541</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.042358816229421</v>
+        <v>-1.737793753745905</v>
       </c>
       <c r="G50" t="n">
         <v>3.552803254523162</v>
@@ -5522,64 +5522,64 @@
         <v>100</v>
       </c>
       <c r="I50" t="n">
-        <v>17.89042460775408</v>
+        <v>16.73550617916919</v>
       </c>
       <c r="J50" t="n">
-        <v>3.259037417950704</v>
+        <v>3.259037417950681</v>
       </c>
       <c r="K50" s="3" t="n">
         <v>12.96875</v>
       </c>
       <c r="L50" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M50" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O50" t="n">
-        <v>-0.5594324532937309</v>
+        <v>0</v>
       </c>
       <c r="P50" t="n">
-        <v>27.27272727272727</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.9897846526250583</v>
+        <v>0.9897846526250624</v>
       </c>
       <c r="R50" t="n">
-        <v>-0.528906766006547</v>
+        <v>-0.5289067660065557</v>
       </c>
       <c r="S50" t="n">
-        <v>0.4389564747695682</v>
+        <v>0.4389564747695677</v>
       </c>
       <c r="T50" t="n">
-        <v>-0.2890860568692567</v>
+        <v>-0.2914837960678902</v>
       </c>
       <c r="U50" s="3" t="n">
         <v>0.1753472222106481</v>
       </c>
       <c r="V50" s="3" t="n">
-        <v>0.1783854166666667</v>
+        <v>0.1840277777777778</v>
       </c>
       <c r="W50" t="n">
-        <v>0.5679916921074009</v>
+        <v>0.6009852066166164</v>
       </c>
       <c r="X50" t="n">
-        <v>-0.9029161685908891</v>
+        <v>-0.8275208351171031</v>
       </c>
       <c r="Y50" t="n">
-        <v>-3.756375328496375</v>
+        <v>-3.244381582005042</v>
       </c>
       <c r="Z50" t="n">
-        <v>-7.016123628567331</v>
+        <v>-6.073425071961187</v>
       </c>
       <c r="AA50" t="n">
-        <v>0.8612649316751535</v>
+        <v>0.8737027762091614</v>
       </c>
       <c r="AB50" t="n">
-        <v>-5.040568167014572</v>
+        <v>-4.354250835522086</v>
       </c>
       <c r="AC50" t="inlineStr">
         <is>
@@ -5612,10 +5612,10 @@
         <v>1000</v>
       </c>
       <c r="E51" t="n">
-        <v>991.1215882499744</v>
+        <v>999.5626231364128</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.8878411750025634</v>
+        <v>-0.04373768635872466</v>
       </c>
       <c r="G51" t="n">
         <v>28.0391022503077</v>
@@ -5624,19 +5624,19 @@
         <v>100</v>
       </c>
       <c r="I51" t="n">
-        <v>14.32130950185781</v>
+        <v>13.56073804789562</v>
       </c>
       <c r="J51" t="n">
-        <v>4.68867742939026</v>
+        <v>3.876944329809948</v>
       </c>
       <c r="K51" s="3" t="n">
         <v>17.34375</v>
       </c>
       <c r="L51" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M51" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
@@ -5645,43 +5645,43 @@
         <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>27.77777777777778</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.265731999173378</v>
+        <v>1.265731999173381</v>
       </c>
       <c r="R51" t="n">
         <v>-0.8900879765395822</v>
       </c>
       <c r="S51" t="n">
-        <v>0.8799643737482256</v>
+        <v>0.8799643737482276</v>
       </c>
       <c r="T51" t="n">
-        <v>-0.4043114291498386</v>
+        <v>-0.3676031623570539</v>
       </c>
       <c r="U51" s="3" t="n">
         <v>0.4083333333333333</v>
       </c>
       <c r="V51" s="3" t="n">
-        <v>0.1290064102546296</v>
+        <v>0.1310763888888889</v>
       </c>
       <c r="W51" t="n">
-        <v>0.8300312162360129</v>
+        <v>0.9900587812156696</v>
       </c>
       <c r="X51" t="n">
-        <v>-0.4932450972236184</v>
+        <v>-0.02572805079921769</v>
       </c>
       <c r="Y51" t="n">
-        <v>-0.894653486772129</v>
+        <v>0.008801707614434561</v>
       </c>
       <c r="Z51" t="n">
-        <v>-2.192303950172999</v>
+        <v>-0.1368759675415323</v>
       </c>
       <c r="AA51" t="n">
-        <v>0.9585069665437108</v>
+        <v>1.000426174846073</v>
       </c>
       <c r="AB51" t="n">
-        <v>-1.334450303185242</v>
+        <v>0.01331220048394227</v>
       </c>
       <c r="AC51" t="inlineStr">
         <is>
@@ -5714,10 +5714,10 @@
         <v>1000</v>
       </c>
       <c r="E52" t="n">
-        <v>1010.503580585331</v>
+        <v>988.9087761910137</v>
       </c>
       <c r="F52" t="n">
-        <v>1.050358058533072</v>
+        <v>-1.109122380898634</v>
       </c>
       <c r="G52" t="n">
         <v>9.140403298983646</v>
@@ -5726,13 +5726,13 @@
         <v>100</v>
       </c>
       <c r="I52" t="n">
-        <v>9.627886385580194</v>
+        <v>9.596533574294021</v>
       </c>
       <c r="J52" t="n">
-        <v>2.174223563009706</v>
+        <v>2.336949560486931</v>
       </c>
       <c r="K52" s="3" t="n">
-        <v>13.10416666666667</v>
+        <v>23.15625</v>
       </c>
       <c r="L52" t="n">
         <v>12</v>
@@ -5747,43 +5747,43 @@
         <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>41.66666666666667</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.289453028557042</v>
+        <v>1.072801911943611</v>
       </c>
       <c r="R52" t="n">
-        <v>-0.5813789986712768</v>
+        <v>-0.5813789986712781</v>
       </c>
       <c r="S52" t="n">
-        <v>0.86578576304604</v>
+        <v>0.6288093146036424</v>
       </c>
       <c r="T52" t="n">
-        <v>-0.4632311029247117</v>
+        <v>-0.4516663905205393</v>
       </c>
       <c r="U52" s="3" t="n">
-        <v>0.4770833333333334</v>
+        <v>0.1770833333333333</v>
       </c>
       <c r="V52" s="3" t="n">
-        <v>0.2098214285648148</v>
+        <v>0.19921875</v>
       </c>
       <c r="W52" t="n">
-        <v>1.322533086624212</v>
+        <v>0.6930529516938226</v>
       </c>
       <c r="X52" t="n">
-        <v>0.8752983821109011</v>
+        <v>-0.9242686507488567</v>
       </c>
       <c r="Y52" t="n">
-        <v>1.630636021109413</v>
+        <v>-2.421442912381853</v>
       </c>
       <c r="Z52" t="n">
-        <v>6.461908598358105</v>
+        <v>-5.602392562885037</v>
       </c>
       <c r="AA52" t="n">
-        <v>1.072026097947875</v>
+        <v>0.8819731644262384</v>
       </c>
       <c r="AB52" t="n">
-        <v>2.744233310410861</v>
+        <v>-3.479803300396109</v>
       </c>
       <c r="AC52" t="inlineStr">
         <is>
@@ -5816,10 +5816,10 @@
         <v>1000</v>
       </c>
       <c r="E53" t="n">
-        <v>965.6591225214258</v>
+        <v>971.6291388711983</v>
       </c>
       <c r="F53" t="n">
-        <v>-3.434087747857416</v>
+        <v>-2.837086112880172</v>
       </c>
       <c r="G53" t="n">
         <v>12.43284625547292</v>
@@ -5828,19 +5828,19 @@
         <v>100</v>
       </c>
       <c r="I53" t="n">
-        <v>17.32163013925471</v>
+        <v>15.77564105167052</v>
       </c>
       <c r="J53" t="n">
-        <v>6.478248749993934</v>
+        <v>5.900067100796651</v>
       </c>
       <c r="K53" s="3" t="n">
         <v>17.83333333333333</v>
       </c>
       <c r="L53" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M53" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
@@ -5849,7 +5849,7 @@
         <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>22.72727272727273</v>
+        <v>25</v>
       </c>
       <c r="Q53" t="n">
         <v>1.933915065045243</v>
@@ -5858,34 +5858,34 @@
         <v>-1.0570153807533</v>
       </c>
       <c r="S53" t="n">
-        <v>1.111216749041387</v>
+        <v>1.111216749041389</v>
       </c>
       <c r="T53" t="n">
-        <v>-0.5286015977476157</v>
+        <v>-0.5579902330548221</v>
       </c>
       <c r="U53" s="3" t="n">
         <v>0.2875</v>
       </c>
       <c r="V53" s="3" t="n">
-        <v>0.1776960784259259</v>
+        <v>0.1694444444444445</v>
       </c>
       <c r="W53" t="n">
-        <v>0.6136066387163818</v>
+        <v>0.6581281499252686</v>
       </c>
       <c r="X53" t="n">
-        <v>-1.560948976298841</v>
+        <v>-1.418543056440082</v>
       </c>
       <c r="Y53" t="n">
-        <v>-3.410145430556451</v>
+        <v>-2.885000748414443</v>
       </c>
       <c r="Z53" t="n">
-        <v>-5.34459486582737</v>
+        <v>-5.00580780577704</v>
       </c>
       <c r="AA53" t="n">
-        <v>0.8796413631198349</v>
+        <v>0.891912219145889</v>
       </c>
       <c r="AB53" t="n">
-        <v>-4.901984771933289</v>
+        <v>-4.160758630422154</v>
       </c>
       <c r="AC53" t="inlineStr">
         <is>
@@ -5918,10 +5918,10 @@
         <v>1000</v>
       </c>
       <c r="E54" t="n">
-        <v>1028.689263344642</v>
+        <v>1036.45717323997</v>
       </c>
       <c r="F54" t="n">
-        <v>2.868926334464208</v>
+        <v>3.645717323996996</v>
       </c>
       <c r="G54" t="n">
         <v>1.104331981426432</v>
@@ -5930,19 +5930,19 @@
         <v>100</v>
       </c>
       <c r="I54" t="n">
-        <v>16.26330891414155</v>
+        <v>15.58081461449042</v>
       </c>
       <c r="J54" t="n">
-        <v>3.612573718955719</v>
+        <v>2.884726283317696</v>
       </c>
       <c r="K54" s="3" t="n">
         <v>13.07291666666667</v>
       </c>
       <c r="L54" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M54" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
@@ -5951,43 +5951,43 @@
         <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>35</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.619358081979902</v>
+        <v>2.619358081979895</v>
       </c>
       <c r="R54" t="n">
-        <v>-0.9574078925745744</v>
+        <v>-0.9574078925745975</v>
       </c>
       <c r="S54" t="n">
-        <v>1.571229407921305</v>
+        <v>1.571229407921302</v>
       </c>
       <c r="T54" t="n">
-        <v>-0.617633018715592</v>
+        <v>-0.6066218278380716</v>
       </c>
       <c r="U54" s="3" t="n">
         <v>0.2589285714236111</v>
       </c>
       <c r="V54" s="3" t="n">
-        <v>0.25</v>
+        <v>0.2604166666666667</v>
       </c>
       <c r="W54" t="n">
-        <v>1.350821823019204</v>
+        <v>1.487111704373188</v>
       </c>
       <c r="X54" t="n">
-        <v>1.434463167232106</v>
+        <v>1.918798591577394</v>
       </c>
       <c r="Y54" t="n">
-        <v>2.417740590460862</v>
+        <v>3.061323794808813</v>
       </c>
       <c r="Z54" t="n">
-        <v>11.36604644318407</v>
+        <v>18.91901356583514</v>
       </c>
       <c r="AA54" t="n">
-        <v>1.098740625148515</v>
+        <v>1.129113833872916</v>
       </c>
       <c r="AB54" t="n">
-        <v>3.864786819289978</v>
+        <v>4.922941151817801</v>
       </c>
       <c r="AC54" t="inlineStr">
         <is>
@@ -6020,10 +6020,10 @@
         <v>1000</v>
       </c>
       <c r="E55" t="n">
-        <v>1019.624232634308</v>
+        <v>1020.660157307229</v>
       </c>
       <c r="F55" t="n">
-        <v>1.962423263430753</v>
+        <v>2.066015730722859</v>
       </c>
       <c r="G55" t="n">
         <v>45.11052934339923</v>
@@ -6032,10 +6032,10 @@
         <v>100</v>
       </c>
       <c r="I55" t="n">
-        <v>11.22565421683619</v>
+        <v>11.23096633152398</v>
       </c>
       <c r="J55" t="n">
-        <v>1.728483136067438</v>
+        <v>1.628640580637266</v>
       </c>
       <c r="K55" s="3" t="n">
         <v>15.60416666666667</v>
@@ -6056,40 +6056,40 @@
         <v>57.14285714285714</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.8404834132232784</v>
+        <v>0.896162817669823</v>
       </c>
       <c r="R55" t="n">
-        <v>-1.000848939534127</v>
+        <v>-1.000848939534116</v>
       </c>
       <c r="S55" t="n">
-        <v>0.6981531561456485</v>
+        <v>0.7109588707491088</v>
       </c>
       <c r="T55" t="n">
-        <v>-0.6014187961651415</v>
+        <v>-0.6014187961651412</v>
       </c>
       <c r="U55" s="3" t="n">
-        <v>0.2630208333333333</v>
+        <v>0.2604166666666667</v>
       </c>
       <c r="V55" s="3" t="n">
         <v>0.06770833333333333</v>
       </c>
       <c r="W55" t="n">
-        <v>1.541220931720969</v>
+        <v>1.569515661942136</v>
       </c>
       <c r="X55" t="n">
-        <v>1.40173090245054</v>
+        <v>1.475725521944899</v>
       </c>
       <c r="Y55" t="n">
-        <v>2.931749396758883</v>
+        <v>3.110394233376364</v>
       </c>
       <c r="Z55" t="n">
-        <v>16.67343358602517</v>
+        <v>18.74918265537172</v>
       </c>
       <c r="AA55" t="n">
-        <v>1.157533233409604</v>
+        <v>1.169342975098276</v>
       </c>
       <c r="AB55" t="n">
-        <v>4.606251226736116</v>
+        <v>4.92166204792917</v>
       </c>
       <c r="AC55" t="inlineStr">
         <is>
@@ -6122,10 +6122,10 @@
         <v>1000</v>
       </c>
       <c r="E56" t="n">
-        <v>1032.097808956705</v>
+        <v>1061.292347161239</v>
       </c>
       <c r="F56" t="n">
-        <v>3.209780895670496</v>
+        <v>6.129234716123892</v>
       </c>
       <c r="G56" t="n">
         <v>13.88107067394326</v>
@@ -6134,64 +6134,64 @@
         <v>100</v>
       </c>
       <c r="I56" t="n">
-        <v>10.10864661567337</v>
+        <v>7.717574234160545</v>
       </c>
       <c r="J56" t="n">
-        <v>2.62823828209624</v>
+        <v>2.463283126931381</v>
       </c>
       <c r="K56" s="3" t="n">
         <v>9.645833333333334</v>
       </c>
       <c r="L56" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="M56" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="N56" t="n">
         <v>1</v>
       </c>
       <c r="O56" t="n">
-        <v>5.779880388666342</v>
+        <v>5.943373555069807</v>
       </c>
       <c r="P56" t="n">
-        <v>41.66666666666667</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="Q56" t="n">
         <v>3.721698404710835</v>
       </c>
       <c r="R56" t="n">
-        <v>-1.792812828548989</v>
+        <v>-1.792812828548975</v>
       </c>
       <c r="S56" t="n">
-        <v>2.054338040336764</v>
+        <v>2.054338040336765</v>
       </c>
       <c r="T56" t="n">
-        <v>-1.07096919345639</v>
+        <v>-1.180104803247732</v>
       </c>
       <c r="U56" s="3" t="n">
         <v>0.23125</v>
       </c>
       <c r="V56" s="3" t="n">
-        <v>0.2321428571412037</v>
+        <v>0.3229166666666667</v>
       </c>
       <c r="W56" t="n">
-        <v>1.343122644649501</v>
+        <v>2.139820862009371</v>
       </c>
       <c r="X56" t="n">
-        <v>2.193160714003219</v>
+        <v>6.149885956241055</v>
       </c>
       <c r="Y56" t="n">
-        <v>2.226918107639101</v>
+        <v>4.252299538452108</v>
       </c>
       <c r="Z56" t="n">
-        <v>17.82629617922526</v>
+        <v>43.09940571778221</v>
       </c>
       <c r="AA56" t="n">
-        <v>1.109395135729462</v>
+        <v>1.23380319674212</v>
       </c>
       <c r="AB56" t="n">
-        <v>3.428740159444206</v>
+        <v>6.755784128748388</v>
       </c>
       <c r="AC56" t="inlineStr">
         <is>
@@ -6224,10 +6224,10 @@
         <v>1000</v>
       </c>
       <c r="E57" t="n">
-        <v>997.3324043410568</v>
+        <v>1010.009940244299</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.2667595658943241</v>
+        <v>1.000994024429929</v>
       </c>
       <c r="G57" t="n">
         <v>-10.56493050680907</v>
@@ -6236,19 +6236,19 @@
         <v>100</v>
       </c>
       <c r="I57" t="n">
-        <v>10.98218997988534</v>
+        <v>10.31670680973786</v>
       </c>
       <c r="J57" t="n">
-        <v>4.784508113464833</v>
+        <v>3.767394375962664</v>
       </c>
       <c r="K57" s="3" t="n">
-        <v>17.10416666666667</v>
+        <v>16.96875</v>
       </c>
       <c r="L57" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M57" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N57" t="n">
         <v>0</v>
@@ -6257,43 +6257,43 @@
         <v>0</v>
       </c>
       <c r="P57" t="n">
-        <v>35.71428571428572</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.662111706605169</v>
+        <v>2.662111706605168</v>
       </c>
       <c r="R57" t="n">
-        <v>-1.783616755542214</v>
+        <v>-1.783616755542215</v>
       </c>
       <c r="S57" t="n">
-        <v>1.76504087388793</v>
+        <v>1.765040873887936</v>
       </c>
       <c r="T57" t="n">
-        <v>-0.994674505268935</v>
+        <v>-0.9620474063134319</v>
       </c>
       <c r="U57" s="3" t="n">
         <v>0.3958333333333333</v>
       </c>
       <c r="V57" s="3" t="n">
-        <v>0.1539351851851852</v>
+        <v>0.1653645833333333</v>
       </c>
       <c r="W57" t="n">
-        <v>0.9698540321264645</v>
+        <v>1.130163730432136</v>
       </c>
       <c r="X57" t="n">
-        <v>-0.1905425470673672</v>
+        <v>0.7699954034076386</v>
       </c>
       <c r="Y57" t="n">
-        <v>-0.1219097358838369</v>
+        <v>0.8579272954036755</v>
       </c>
       <c r="Z57" t="n">
-        <v>-0.6907551465230243</v>
+        <v>3.543731357802862</v>
       </c>
       <c r="AA57" t="n">
-        <v>0.9946772618148345</v>
+        <v>1.038849949632718</v>
       </c>
       <c r="AB57" t="n">
-        <v>-0.1787812096325839</v>
+        <v>1.284240849704905</v>
       </c>
       <c r="AC57" t="inlineStr">
         <is>
@@ -6424,10 +6424,10 @@
         <v>1000</v>
       </c>
       <c r="E59" t="n">
-        <v>990.1775628670983</v>
+        <v>1000.302170287722</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.9822437132901655</v>
+        <v>0.03021702877219923</v>
       </c>
       <c r="G59" t="n">
         <v>-9.88499355159319</v>
@@ -6436,19 +6436,19 @@
         <v>100</v>
       </c>
       <c r="I59" t="n">
-        <v>8.816310743698791</v>
+        <v>7.26539519255801</v>
       </c>
       <c r="J59" t="n">
-        <v>2.684758186742659</v>
+        <v>2.04345456725791</v>
       </c>
       <c r="K59" s="3" t="n">
-        <v>12.97916666666667</v>
+        <v>10.29166666666667</v>
       </c>
       <c r="L59" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M59" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N59" t="n">
         <v>0</v>
@@ -6457,43 +6457,43 @@
         <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>27.27272727272727</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.613094458844467</v>
+        <v>1.613094458844466</v>
       </c>
       <c r="R59" t="n">
-        <v>-0.6555711097750019</v>
+        <v>-0.655571109775006</v>
       </c>
       <c r="S59" t="n">
-        <v>0.954262466622334</v>
+        <v>0.9542624666223321</v>
       </c>
       <c r="T59" t="n">
-        <v>-0.4779412278939054</v>
+        <v>-0.4680663916639041</v>
       </c>
       <c r="U59" s="3" t="n">
         <v>0.3888888888888889</v>
       </c>
       <c r="V59" s="3" t="n">
-        <v>0.1341145833333333</v>
+        <v>0.1024305555555556</v>
       </c>
       <c r="W59" t="n">
-        <v>0.7444027985010172</v>
+        <v>1.010614788109553</v>
       </c>
       <c r="X59" t="n">
-        <v>-0.8929488302638009</v>
+        <v>0.03357447641356703</v>
       </c>
       <c r="Y59" t="n">
-        <v>-1.324810191300819</v>
+        <v>0.08734748228808326</v>
       </c>
       <c r="Z59" t="n">
-        <v>-4.350161817074693</v>
+        <v>0.1863741828603435</v>
       </c>
       <c r="AA59" t="n">
-        <v>0.932078584319899</v>
+        <v>1.005045723858999</v>
       </c>
       <c r="AB59" t="n">
-        <v>-1.870788026562118</v>
+        <v>0.1314638304987811</v>
       </c>
       <c r="AC59" t="inlineStr">
         <is>
@@ -6526,10 +6526,10 @@
         <v>1000</v>
       </c>
       <c r="E60" t="n">
-        <v>984.903341497518</v>
+        <v>996.9696960460718</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.5096658502482</v>
+        <v>-0.3030303953928183</v>
       </c>
       <c r="G60" t="n">
         <v>5.251836817470745</v>
@@ -6538,19 +6538,19 @@
         <v>100</v>
       </c>
       <c r="I60" t="n">
-        <v>12.62607979922351</v>
+        <v>11.95120089644403</v>
       </c>
       <c r="J60" t="n">
-        <v>3.797666209117032</v>
+        <v>2.869992332905444</v>
       </c>
       <c r="K60" s="3" t="n">
-        <v>19.92708333333333</v>
+        <v>13</v>
       </c>
       <c r="L60" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M60" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N60" t="n">
         <v>0</v>
@@ -6559,43 +6559,43 @@
         <v>0</v>
       </c>
       <c r="P60" t="n">
-        <v>31.25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="Q60" t="n">
         <v>1.265573604986231</v>
       </c>
       <c r="R60" t="n">
-        <v>-1.21078716216216</v>
+        <v>-0.7419372865666293</v>
       </c>
       <c r="S60" t="n">
         <v>1.050650584561368</v>
       </c>
       <c r="T60" t="n">
-        <v>-0.6112071823503035</v>
+        <v>-0.5512491843691135</v>
       </c>
       <c r="U60" s="3" t="n">
         <v>0.1666666666666667</v>
       </c>
       <c r="V60" s="3" t="n">
-        <v>0.08712121211805555</v>
+        <v>0.08854166666666667</v>
       </c>
       <c r="W60" t="n">
-        <v>0.7734820630613446</v>
+        <v>0.9449614214007003</v>
       </c>
       <c r="X60" t="n">
-        <v>-0.9435411564051268</v>
+        <v>-0.2020202635952089</v>
       </c>
       <c r="Y60" t="n">
-        <v>-1.842192521671887</v>
+        <v>-0.3555482575497814</v>
       </c>
       <c r="Z60" t="n">
-        <v>-4.447625359218781</v>
+        <v>-1.262683474502233</v>
       </c>
       <c r="AA60" t="n">
-        <v>0.9011888168213856</v>
+        <v>0.9797358388148116</v>
       </c>
       <c r="AB60" t="n">
-        <v>-2.668638892924097</v>
+        <v>-0.539984032846613</v>
       </c>
       <c r="AC60" t="inlineStr">
         <is>
@@ -6628,10 +6628,10 @@
         <v>1000</v>
       </c>
       <c r="E61" t="n">
-        <v>1067.1927205251</v>
+        <v>1038.25580762509</v>
       </c>
       <c r="F61" t="n">
-        <v>6.71927205250995</v>
+        <v>3.825580762509037</v>
       </c>
       <c r="G61" t="n">
         <v>-8.578606933617394</v>
@@ -6640,7 +6640,7 @@
         <v>100</v>
       </c>
       <c r="I61" t="n">
-        <v>8.035503175126896</v>
+        <v>5.586315868916876</v>
       </c>
       <c r="J61" t="n">
         <v>4.017930170209372</v>
@@ -6649,10 +6649,10 @@
         <v>12.1875</v>
       </c>
       <c r="L61" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M61" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N61" t="n">
         <v>0</v>
@@ -6661,43 +6661,43 @@
         <v>0</v>
       </c>
       <c r="P61" t="n">
-        <v>60</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.976704776469501</v>
+        <v>1.945625489100048</v>
       </c>
       <c r="R61" t="n">
         <v>-0.9717734893396458</v>
       </c>
       <c r="S61" t="n">
-        <v>1.596636378255401</v>
+        <v>1.542226628500362</v>
       </c>
       <c r="T61" t="n">
-        <v>-0.7456659291876514</v>
+        <v>-0.7844122303937747</v>
       </c>
       <c r="U61" s="3" t="n">
-        <v>0.4600694444444444</v>
+        <v>0.6015625</v>
       </c>
       <c r="V61" s="3" t="n">
-        <v>0.3932291666666667</v>
+        <v>0.4756944444444444</v>
       </c>
       <c r="W61" t="n">
-        <v>3.271791097928485</v>
+        <v>2.638940921219993</v>
       </c>
       <c r="X61" t="n">
-        <v>6.719272052509928</v>
+        <v>5.465115375012916</v>
       </c>
       <c r="Y61" t="n">
-        <v>5.263864159868183</v>
+        <v>3.315424645588109</v>
       </c>
       <c r="Z61" t="n">
-        <v>30.0023857360879</v>
+        <v>14.40306128205739</v>
       </c>
       <c r="AA61" t="n">
-        <v>1.234342131932601</v>
+        <v>1.15314717023613</v>
       </c>
       <c r="AB61" t="n">
-        <v>8.766380769199396</v>
+        <v>5.483976642279841</v>
       </c>
       <c r="AC61" t="inlineStr">
         <is>
@@ -6730,10 +6730,10 @@
         <v>1000</v>
       </c>
       <c r="E62" t="n">
-        <v>993.8981482948892</v>
+        <v>1007.61289582992</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.6101851705110789</v>
+        <v>0.7612895829920149</v>
       </c>
       <c r="G62" t="n">
         <v>10.93987517137229</v>
@@ -6742,64 +6742,64 @@
         <v>100</v>
       </c>
       <c r="I62" t="n">
-        <v>20.67628558909772</v>
+        <v>16.80420505801679</v>
       </c>
       <c r="J62" t="n">
-        <v>5.245965490826138</v>
+        <v>4.589849698251889</v>
       </c>
       <c r="K62" s="3" t="n">
-        <v>8.8125</v>
+        <v>8.729166666666666</v>
       </c>
       <c r="L62" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M62" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N62" t="n">
         <v>1</v>
       </c>
       <c r="O62" t="n">
-        <v>1.597742663241938</v>
+        <v>1.619789829030375</v>
       </c>
       <c r="P62" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.781502825349039</v>
+        <v>1.781502825349045</v>
       </c>
       <c r="R62" t="n">
-        <v>-0.7649068828613695</v>
+        <v>-0.7649068828613571</v>
       </c>
       <c r="S62" t="n">
-        <v>1.178119460888993</v>
+        <v>1.240495682037209</v>
       </c>
       <c r="T62" t="n">
-        <v>-0.4966229227429617</v>
+        <v>-0.4838533713472369</v>
       </c>
       <c r="U62" s="3" t="n">
-        <v>0.1860119047569445</v>
+        <v>0.1840277777777778</v>
       </c>
       <c r="V62" s="3" t="n">
-        <v>0.1493055555555556</v>
+        <v>0.1577380952314815</v>
       </c>
       <c r="W62" t="n">
-        <v>0.9152700624327672</v>
+        <v>1.085983794547648</v>
       </c>
       <c r="X62" t="n">
-        <v>-0.3079837747341148</v>
+        <v>0.2996553000445235</v>
       </c>
       <c r="Y62" t="n">
-        <v>-0.5195005200423275</v>
+        <v>0.8379208584932984</v>
       </c>
       <c r="Z62" t="n">
-        <v>-1.412827021746264</v>
+        <v>2.181360428223158</v>
       </c>
       <c r="AA62" t="n">
-        <v>0.9784704112404766</v>
+        <v>1.040051159688896</v>
       </c>
       <c r="AB62" t="n">
-        <v>-0.8566424087113251</v>
+        <v>1.439866326353751</v>
       </c>
       <c r="AC62" t="inlineStr">
         <is>
@@ -7036,10 +7036,10 @@
         <v>1000</v>
       </c>
       <c r="E65" t="n">
-        <v>914.5397854556974</v>
+        <v>917.7850790867357</v>
       </c>
       <c r="F65" t="n">
-        <v>-8.546021454430262</v>
+        <v>-8.221492091326434</v>
       </c>
       <c r="G65" t="n">
         <v>-3.965543647886216</v>
@@ -7048,19 +7048,19 @@
         <v>100</v>
       </c>
       <c r="I65" t="n">
-        <v>9.152765369392233</v>
+        <v>8.42588178681801</v>
       </c>
       <c r="J65" t="n">
-        <v>9.549788884672617</v>
+        <v>9.2288214442978</v>
       </c>
       <c r="K65" s="3" t="n">
         <v>26.41666666666667</v>
       </c>
       <c r="L65" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M65" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N65" t="n">
         <v>0</v>
@@ -7069,43 +7069,43 @@
         <v>0</v>
       </c>
       <c r="P65" t="n">
-        <v>8.333333333333332</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.4759164176569585</v>
+        <v>0.4759164176569536</v>
       </c>
       <c r="R65" t="n">
         <v>-1.289093498598143</v>
       </c>
       <c r="S65" t="n">
-        <v>0.4759164176569585</v>
+        <v>0.4759164176569536</v>
       </c>
       <c r="T65" t="n">
-        <v>-0.8516239547422517</v>
+        <v>-0.9014121452694815</v>
       </c>
       <c r="U65" s="3" t="n">
         <v>0.08333333333333333</v>
       </c>
       <c r="V65" s="3" t="n">
-        <v>0.2547348484837963</v>
+        <v>0.271875</v>
       </c>
       <c r="W65" t="n">
-        <v>0.04822463346195777</v>
+        <v>0.05020160818215313</v>
       </c>
       <c r="X65" t="n">
-        <v>-7.121684545358525</v>
+        <v>-7.474083719387629</v>
       </c>
       <c r="Y65" t="n">
-        <v>-9.454333514579211</v>
+        <v>-9.111052351209423</v>
       </c>
       <c r="Z65" t="n">
-        <v>-6.938505272093988</v>
+        <v>-7.018874422022435</v>
       </c>
       <c r="AA65" t="n">
-        <v>0.6467494631535853</v>
+        <v>0.6533127273806048</v>
       </c>
       <c r="AB65" t="n">
-        <v>-11.65445402957964</v>
+        <v>-11.23989873618074</v>
       </c>
       <c r="AC65" t="inlineStr">
         <is>
@@ -7138,10 +7138,10 @@
         <v>1000</v>
       </c>
       <c r="E66" t="n">
-        <v>989.1565925707841</v>
+        <v>1001.017301572271</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.084340742921586</v>
+        <v>0.1017301572271208</v>
       </c>
       <c r="G66" t="n">
         <v>11.63533095805662</v>
@@ -7150,19 +7150,19 @@
         <v>100</v>
       </c>
       <c r="I66" t="n">
-        <v>17.68749674114409</v>
+        <v>16.21646740506803</v>
       </c>
       <c r="J66" t="n">
-        <v>4.165964470711295</v>
+        <v>4.165964470711317</v>
       </c>
       <c r="K66" s="3" t="n">
-        <v>15.98958333333333</v>
+        <v>8.125</v>
       </c>
       <c r="L66" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M66" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N66" t="n">
         <v>0</v>
@@ -7171,43 +7171,43 @@
         <v>0</v>
       </c>
       <c r="P66" t="n">
-        <v>22.72727272727273</v>
+        <v>25</v>
       </c>
       <c r="Q66" t="n">
-        <v>2.354402514633075</v>
+        <v>2.354402514633076</v>
       </c>
       <c r="R66" t="n">
-        <v>-1.470850235294115</v>
+        <v>-1.470850235294118</v>
       </c>
       <c r="S66" t="n">
-        <v>1.722317823915035</v>
+        <v>1.722317823915039</v>
       </c>
       <c r="T66" t="n">
-        <v>-0.5640627153992053</v>
+        <v>-0.560078781421154</v>
       </c>
       <c r="U66" s="3" t="n">
         <v>0.3708333333333333</v>
       </c>
       <c r="V66" s="3" t="n">
-        <v>0.1329656862731481</v>
+        <v>0.1423611111111111</v>
       </c>
       <c r="W66" t="n">
-        <v>0.8875510266986492</v>
+        <v>1.01193134105893</v>
       </c>
       <c r="X66" t="n">
-        <v>-0.492882155873454</v>
+        <v>0.05086507861357514</v>
       </c>
       <c r="Y66" t="n">
-        <v>-0.63420729990548</v>
+        <v>0.1587310578609263</v>
       </c>
       <c r="Z66" t="n">
-        <v>-2.980988029335855</v>
+        <v>0.2986911255841817</v>
       </c>
       <c r="AA66" t="n">
-        <v>0.9702607746219138</v>
+        <v>1.007768175863213</v>
       </c>
       <c r="AB66" t="n">
-        <v>-0.9316803779987693</v>
+        <v>0.2352716701788166</v>
       </c>
       <c r="AC66" t="inlineStr">
         <is>
@@ -7342,10 +7342,10 @@
         <v>1000</v>
       </c>
       <c r="E68" t="n">
-        <v>971.8120665852082</v>
+        <v>968.2618488677064</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.818793341479181</v>
+        <v>-3.173815113229364</v>
       </c>
       <c r="G68" t="n">
         <v>-2.65744082246685</v>
@@ -7354,19 +7354,19 @@
         <v>100</v>
       </c>
       <c r="I68" t="n">
-        <v>15.70833192866775</v>
+        <v>14.18984069085931</v>
       </c>
       <c r="J68" t="n">
-        <v>4.589846143832238</v>
+        <v>4.019810719265668</v>
       </c>
       <c r="K68" s="3" t="n">
-        <v>8.604166666666666</v>
+        <v>8.239583333333334</v>
       </c>
       <c r="L68" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M68" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N68" t="n">
         <v>0</v>
@@ -7375,7 +7375,7 @@
         <v>0</v>
       </c>
       <c r="P68" t="n">
-        <v>30</v>
+        <v>27.77777777777778</v>
       </c>
       <c r="Q68" t="n">
         <v>1.277833769397221</v>
@@ -7384,34 +7384,34 @@
         <v>-1.337321040401755</v>
       </c>
       <c r="S68" t="n">
-        <v>0.7149692782726738</v>
+        <v>0.6951492020900141</v>
       </c>
       <c r="T68" t="n">
-        <v>-0.5077189929829086</v>
+        <v>-0.5126470738284093</v>
       </c>
       <c r="U68" s="3" t="n">
-        <v>0.08506944443287037</v>
+        <v>0.07291666666666667</v>
       </c>
       <c r="V68" s="3" t="n">
-        <v>0.1101190476157407</v>
+        <v>0.100160256400463</v>
       </c>
       <c r="W68" t="n">
-        <v>0.5982842511187355</v>
+        <v>0.518582945983902</v>
       </c>
       <c r="X68" t="n">
-        <v>-1.409396670739588</v>
+        <v>-1.763230618460755</v>
       </c>
       <c r="Y68" t="n">
-        <v>-4.201492337615953</v>
+        <v>-4.983390083388409</v>
       </c>
       <c r="Z68" t="n">
-        <v>-6.399578300597809</v>
+        <v>-8.0720119976245</v>
       </c>
       <c r="AA68" t="n">
-        <v>0.7779411935374083</v>
+        <v>0.7198977180156639</v>
       </c>
       <c r="AB68" t="n">
-        <v>-6.03319713430474</v>
+        <v>-7.001701199393902</v>
       </c>
       <c r="AC68" t="inlineStr">
         <is>
@@ -7648,10 +7648,10 @@
         <v>1000</v>
       </c>
       <c r="E71" t="n">
-        <v>996.5062239267902</v>
+        <v>984.1846205921901</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.3493776073209801</v>
+        <v>-1.581537940780993</v>
       </c>
       <c r="G71" t="n">
         <v>3.796605300328104</v>
@@ -7660,7 +7660,7 @@
         <v>100</v>
       </c>
       <c r="I71" t="n">
-        <v>13.49235696723533</v>
+        <v>12.66148942646794</v>
       </c>
       <c r="J71" t="n">
         <v>3.260100173602177</v>
@@ -7669,10 +7669,10 @@
         <v>14.76041666666667</v>
       </c>
       <c r="L71" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M71" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N71" t="n">
         <v>0</v>
@@ -7681,43 +7681,43 @@
         <v>0</v>
       </c>
       <c r="P71" t="n">
-        <v>35.29411764705883</v>
+        <v>31.25</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.25246134902176</v>
+        <v>0.8334132746238685</v>
       </c>
       <c r="R71" t="n">
         <v>-0.6671169032508119</v>
       </c>
       <c r="S71" t="n">
-        <v>0.6463518211622711</v>
+        <v>0.5251299155903735</v>
       </c>
       <c r="T71" t="n">
-        <v>-0.3821078167977513</v>
+        <v>-0.3821078167977533</v>
       </c>
       <c r="U71" s="3" t="n">
-        <v>0.3142361111111111</v>
+        <v>0.3541666666666667</v>
       </c>
       <c r="V71" s="3" t="n">
         <v>0.15625</v>
       </c>
       <c r="W71" t="n">
-        <v>0.9164733447028643</v>
+        <v>0.6213422928760164</v>
       </c>
       <c r="X71" t="n">
-        <v>-0.2055162396005707</v>
+        <v>-0.9884612129881063</v>
       </c>
       <c r="Y71" t="n">
-        <v>-0.4924738185049135</v>
+        <v>-2.590213324024317</v>
       </c>
       <c r="Z71" t="n">
-        <v>-1.321404838451478</v>
+        <v>-5.574658093976267</v>
       </c>
       <c r="AA71" t="n">
-        <v>0.9797334370160123</v>
+        <v>0.8970203838445324</v>
       </c>
       <c r="AB71" t="n">
-        <v>-0.7085665361760258</v>
+        <v>-3.522091605982749</v>
       </c>
       <c r="AC71" t="inlineStr">
         <is>
@@ -7750,10 +7750,10 @@
         <v>1000</v>
       </c>
       <c r="E72" t="n">
-        <v>991.0717263546471</v>
+        <v>979.6981256599859</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.8928273645352874</v>
+        <v>-2.030187434001414</v>
       </c>
       <c r="G72" t="n">
         <v>9.846985621402604</v>
@@ -7762,19 +7762,19 @@
         <v>100</v>
       </c>
       <c r="I72" t="n">
-        <v>16.79285982003908</v>
+        <v>14.35991183409651</v>
       </c>
       <c r="J72" t="n">
-        <v>3.676458567468689</v>
+        <v>3.676458567468635</v>
       </c>
       <c r="K72" s="3" t="n">
         <v>10.75</v>
       </c>
       <c r="L72" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M72" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N72" t="n">
         <v>0</v>
@@ -7783,43 +7783,43 @@
         <v>0</v>
       </c>
       <c r="P72" t="n">
-        <v>38.09523809523809</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.8882876221991354</v>
+        <v>0.8450259683098699</v>
       </c>
       <c r="R72" t="n">
-        <v>-0.619669595138293</v>
+        <v>-0.6196695951382861</v>
       </c>
       <c r="S72" t="n">
-        <v>0.6268951482857711</v>
+        <v>0.5864323987394504</v>
       </c>
       <c r="T72" t="n">
-        <v>-0.4523693477775808</v>
+        <v>-0.4621026984636314</v>
       </c>
       <c r="U72" s="3" t="n">
-        <v>0.12890625</v>
+        <v>0.125</v>
       </c>
       <c r="V72" s="3" t="n">
-        <v>0.1298076923032407</v>
+        <v>0.1284722222222222</v>
       </c>
       <c r="W72" t="n">
-        <v>0.8483107506322208</v>
+        <v>0.6329040567882024</v>
       </c>
       <c r="X72" t="n">
-        <v>-0.4251558878739683</v>
+        <v>-1.127881907778566</v>
       </c>
       <c r="Y72" t="n">
-        <v>-1.276904846527542</v>
+        <v>-3.438874999740341</v>
       </c>
       <c r="Z72" t="n">
-        <v>-2.810826908103589</v>
+        <v>-6.005224286258882</v>
       </c>
       <c r="AA72" t="n">
-        <v>0.9383360909634836</v>
+        <v>0.8345825776786107</v>
       </c>
       <c r="AB72" t="n">
-        <v>-1.830266724369122</v>
+        <v>-4.576513541572345</v>
       </c>
       <c r="AC72" t="inlineStr">
         <is>
@@ -8056,10 +8056,10 @@
         <v>1000</v>
       </c>
       <c r="E75" t="n">
-        <v>979.7488318471209</v>
+        <v>989.6096467462025</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.025116815287913</v>
+        <v>-1.039035325379746</v>
       </c>
       <c r="G75" t="n">
         <v>-4.802796891447181</v>
@@ -8068,19 +8068,19 @@
         <v>100</v>
       </c>
       <c r="I75" t="n">
-        <v>10.29928720346292</v>
+        <v>8.753981761917906</v>
       </c>
       <c r="J75" t="n">
-        <v>4.968681020280663</v>
+        <v>4.488391235286354</v>
       </c>
       <c r="K75" s="3" t="n">
         <v>17.17708333333333</v>
       </c>
       <c r="L75" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M75" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N75" t="n">
         <v>0</v>
@@ -8089,43 +8089,43 @@
         <v>0</v>
       </c>
       <c r="P75" t="n">
-        <v>23.07692307692308</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.552393189127895</v>
+        <v>1.552393189127897</v>
       </c>
       <c r="R75" t="n">
-        <v>-1.276615750667756</v>
+        <v>-1.276615750667755</v>
       </c>
       <c r="S75" t="n">
         <v>1.147807354621873</v>
       </c>
       <c r="T75" t="n">
-        <v>-0.5446836085332736</v>
+        <v>-0.5559470397833983</v>
       </c>
       <c r="U75" s="3" t="n">
         <v>0.08333333333333333</v>
       </c>
       <c r="V75" s="3" t="n">
-        <v>0.2291666666666667</v>
+        <v>0.25390625</v>
       </c>
       <c r="W75" t="n">
-        <v>0.6267539930243143</v>
+        <v>0.7667396493895436</v>
       </c>
       <c r="X75" t="n">
-        <v>-1.55778216560608</v>
+        <v>-0.9445775685270332</v>
       </c>
       <c r="Y75" t="n">
-        <v>-1.823488770405671</v>
+        <v>-0.9117118239408968</v>
       </c>
       <c r="Z75" t="n">
-        <v>-4.433549425306528</v>
+        <v>-2.657869063591382</v>
       </c>
       <c r="AA75" t="n">
-        <v>0.9130431219942288</v>
+        <v>0.9534342793518527</v>
       </c>
       <c r="AB75" t="n">
-        <v>-2.669680674539707</v>
+        <v>-1.347048487909474</v>
       </c>
       <c r="AC75" t="inlineStr">
         <is>
@@ -8158,10 +8158,10 @@
         <v>1000</v>
       </c>
       <c r="E76" t="n">
-        <v>985.399740540432</v>
+        <v>994.3076013954873</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.460025945956795</v>
+        <v>-0.5692398604512732</v>
       </c>
       <c r="G76" t="n">
         <v>-16.97742849310125</v>
@@ -8170,64 +8170,64 @@
         <v>100</v>
       </c>
       <c r="I76" t="n">
-        <v>13.98401889422219</v>
+        <v>13.306817636439</v>
       </c>
       <c r="J76" t="n">
-        <v>5.105506406914255</v>
+        <v>5.105506406914202</v>
       </c>
       <c r="K76" s="3" t="n">
-        <v>10.11458333333333</v>
+        <v>4.28125</v>
       </c>
       <c r="L76" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M76" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N76" t="n">
         <v>1</v>
       </c>
       <c r="O76" t="n">
-        <v>0.8245960678620515</v>
+        <v>0.8320502884508775</v>
       </c>
       <c r="P76" t="n">
-        <v>29.41176470588236</v>
+        <v>31.25</v>
       </c>
       <c r="Q76" t="n">
-        <v>2.297530998369796</v>
+        <v>2.297530998369815</v>
       </c>
       <c r="R76" t="n">
-        <v>-1.320444395225978</v>
+        <v>-1.320444395225956</v>
       </c>
       <c r="S76" t="n">
-        <v>1.439202031388091</v>
+        <v>1.439202031388096</v>
       </c>
       <c r="T76" t="n">
-        <v>-0.7215878725362539</v>
+        <v>-0.7057100264891967</v>
       </c>
       <c r="U76" s="3" t="n">
         <v>0.2208333333333333</v>
       </c>
       <c r="V76" s="3" t="n">
-        <v>0.1979166666666667</v>
+        <v>0.1960227272685185</v>
       </c>
       <c r="W76" t="n">
-        <v>0.8223597996204827</v>
+        <v>0.9169675659115358</v>
       </c>
       <c r="X76" t="n">
-        <v>-0.907344442790003</v>
+        <v>-0.4077780558102075</v>
       </c>
       <c r="Y76" t="n">
-        <v>-1.139934898968911</v>
+        <v>-0.4051616006241629</v>
       </c>
       <c r="Z76" t="n">
-        <v>-3.30892459922695</v>
+        <v>-1.357473121938367</v>
       </c>
       <c r="AA76" t="n">
-        <v>0.9550712887861597</v>
+        <v>0.9833098603595211</v>
       </c>
       <c r="AB76" t="n">
-        <v>-1.721414482450729</v>
+        <v>-0.6199407973853853</v>
       </c>
       <c r="AC76" t="inlineStr">
         <is>
@@ -8260,10 +8260,10 @@
         <v>1000</v>
       </c>
       <c r="E77" t="n">
-        <v>1032.555375625581</v>
+        <v>1016.043835875451</v>
       </c>
       <c r="F77" t="n">
-        <v>3.255537562558084</v>
+        <v>1.604383587545056</v>
       </c>
       <c r="G77" t="n">
         <v>-0.6134707051705268</v>
@@ -8272,19 +8272,19 @@
         <v>100</v>
       </c>
       <c r="I77" t="n">
-        <v>7.315744265312439</v>
+        <v>5.622040101286141</v>
       </c>
       <c r="J77" t="n">
-        <v>1.893062652877932</v>
+        <v>1.89306265287792</v>
       </c>
       <c r="K77" s="3" t="n">
         <v>9.270833333333334</v>
       </c>
       <c r="L77" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M77" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N77" t="n">
         <v>0</v>
@@ -8293,43 +8293,43 @@
         <v>0</v>
       </c>
       <c r="P77" t="n">
-        <v>55.55555555555556</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.887440859667143</v>
+        <v>1.887440859667141</v>
       </c>
       <c r="R77" t="n">
-        <v>-1.15670716800476</v>
+        <v>-1.156707168004751</v>
       </c>
       <c r="S77" t="n">
-        <v>1.114728248553736</v>
+        <v>1.317965370646717</v>
       </c>
       <c r="T77" t="n">
-        <v>-0.5802215065219474</v>
+        <v>-0.580221506521948</v>
       </c>
       <c r="U77" s="3" t="n">
-        <v>0.05833333333333333</v>
+        <v>0.06597222222222222</v>
       </c>
       <c r="V77" s="3" t="n">
         <v>0.1041666666666667</v>
       </c>
       <c r="W77" t="n">
-        <v>2.383250524075003</v>
+        <v>1.689977432128452</v>
       </c>
       <c r="X77" t="n">
-        <v>3.617263958397873</v>
+        <v>2.291976553635818</v>
       </c>
       <c r="Y77" t="n">
-        <v>4.365309417766165</v>
+        <v>2.417243386141127</v>
       </c>
       <c r="Z77" t="n">
-        <v>25.1685009080545</v>
+        <v>11.28281018843537</v>
       </c>
       <c r="AA77" t="n">
-        <v>1.608102223481897</v>
+        <v>1.326769139855652</v>
       </c>
       <c r="AB77" t="n">
-        <v>8.641033143012189</v>
+        <v>4.353968736635872</v>
       </c>
       <c r="AC77" t="inlineStr">
         <is>
